--- a/config_11.24/task_zajindan_server.xlsx
+++ b/config_11.24/task_zajindan_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="2106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6912" uniqueCount="2129">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10303,10 +10303,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>buy_gift</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -12299,10 +12295,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>normal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -13394,6 +13386,202 @@
   </si>
   <si>
     <t>agent_charge_any</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值商城每日首次充值15元赠送45个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值30元赠送90个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值50元赠送150个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值98元赠送294个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值198元赠送594个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值498元赠送1494个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值998元赠送2994个火鸡腿</t>
+  </si>
+  <si>
+    <t>充值商城每日首次充值2498元赠送7494个火鸡腿</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_hj</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>494</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>994</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>494</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_gift</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_id</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -13750,7 +13938,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14238,9 +14426,6 @@
     <xf numFmtId="49" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14384,9 +14569,6 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -14395,6 +14577,25 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14682,11 +14883,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G470" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K507" sqref="K507"/>
+      <selection pane="bottomRight" activeCell="G519" sqref="G519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -31940,16 +32141,16 @@
         <v>1</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E445" s="16" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F445" s="16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G445" s="12">
         <v>21392</v>
@@ -31978,16 +32179,16 @@
         <v>1</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D446" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="E446" s="16" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F446" s="16" t="s">
         <v>1754</v>
-      </c>
-      <c r="F446" s="16" t="s">
-        <v>1755</v>
       </c>
       <c r="G446" s="12">
         <v>21393</v>
@@ -32398,7 +32599,7 @@
       <c r="C457" s="16" t="s">
         <v>1628</v>
       </c>
-      <c r="D457" s="187" t="s">
+      <c r="D457" s="186" t="s">
         <v>1690</v>
       </c>
       <c r="E457" s="16" t="s">
@@ -32436,7 +32637,7 @@
       <c r="C458" s="16" t="s">
         <v>1629</v>
       </c>
-      <c r="D458" s="187" t="s">
+      <c r="D458" s="186" t="s">
         <v>1691</v>
       </c>
       <c r="E458" s="16" t="s">
@@ -32502,117 +32703,117 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="460" spans="1:12" s="185" customFormat="1">
-      <c r="A460" s="185">
+    <row r="460" spans="1:12" s="184" customFormat="1">
+      <c r="A460" s="184">
         <v>1000049</v>
       </c>
-      <c r="B460" s="185">
-        <v>1</v>
-      </c>
-      <c r="C460" s="185" t="s">
+      <c r="B460" s="184">
+        <v>1</v>
+      </c>
+      <c r="C460" s="184" t="s">
         <v>1637</v>
       </c>
-      <c r="D460" s="185" t="s">
+      <c r="D460" s="184" t="s">
         <v>1640</v>
       </c>
-      <c r="E460" s="186" t="s">
-        <v>1765</v>
-      </c>
-      <c r="F460" s="185" t="s">
+      <c r="E460" s="185" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F460" s="184" t="s">
         <v>1635</v>
       </c>
-      <c r="G460" s="185">
+      <c r="G460" s="184">
         <v>21407</v>
       </c>
-      <c r="H460" s="186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I460" s="185">
-        <v>1</v>
-      </c>
-      <c r="J460" s="185">
+      <c r="H460" s="185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I460" s="184">
+        <v>1</v>
+      </c>
+      <c r="J460" s="184">
         <v>1602518400</v>
       </c>
-      <c r="K460" s="185">
+      <c r="K460" s="184">
         <v>1603123199</v>
       </c>
-      <c r="L460" s="185">
+      <c r="L460" s="184">
         <v>-1</v>
       </c>
     </row>
-    <row r="461" spans="1:12" s="185" customFormat="1">
-      <c r="A461" s="185">
+    <row r="461" spans="1:12" s="184" customFormat="1">
+      <c r="A461" s="184">
         <v>1000050</v>
       </c>
-      <c r="B461" s="185">
-        <v>1</v>
-      </c>
-      <c r="C461" s="185" t="s">
+      <c r="B461" s="184">
+        <v>1</v>
+      </c>
+      <c r="C461" s="184" t="s">
         <v>1638</v>
       </c>
-      <c r="D461" s="185" t="s">
+      <c r="D461" s="184" t="s">
         <v>1641</v>
       </c>
-      <c r="E461" s="185" t="s">
+      <c r="E461" s="184" t="s">
         <v>1636</v>
       </c>
-      <c r="F461" s="186" t="s">
+      <c r="F461" s="185" t="s">
         <v>1635</v>
       </c>
-      <c r="G461" s="185">
+      <c r="G461" s="184">
         <v>21408</v>
       </c>
-      <c r="H461" s="186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I461" s="185">
-        <v>1</v>
-      </c>
-      <c r="J461" s="185">
+      <c r="H461" s="185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I461" s="184">
+        <v>1</v>
+      </c>
+      <c r="J461" s="184">
         <v>1602518400</v>
       </c>
-      <c r="K461" s="185">
+      <c r="K461" s="184">
         <v>1603123199</v>
       </c>
-      <c r="L461" s="185">
+      <c r="L461" s="184">
         <v>-1</v>
       </c>
     </row>
-    <row r="462" spans="1:12" s="185" customFormat="1">
-      <c r="A462" s="185">
+    <row r="462" spans="1:12" s="184" customFormat="1">
+      <c r="A462" s="184">
         <v>1000051</v>
       </c>
-      <c r="B462" s="185">
-        <v>1</v>
-      </c>
-      <c r="C462" s="185" t="s">
+      <c r="B462" s="184">
+        <v>1</v>
+      </c>
+      <c r="C462" s="184" t="s">
         <v>1639</v>
       </c>
-      <c r="D462" s="185" t="s">
+      <c r="D462" s="184" t="s">
         <v>1642</v>
       </c>
-      <c r="E462" s="185" t="s">
+      <c r="E462" s="184" t="s">
         <v>1636</v>
       </c>
-      <c r="F462" s="185" t="s">
+      <c r="F462" s="184" t="s">
         <v>1635</v>
       </c>
-      <c r="G462" s="185">
+      <c r="G462" s="184">
         <v>21409</v>
       </c>
-      <c r="H462" s="186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I462" s="185">
-        <v>1</v>
-      </c>
-      <c r="J462" s="185">
+      <c r="H462" s="185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I462" s="184">
+        <v>1</v>
+      </c>
+      <c r="J462" s="184">
         <v>1602518400</v>
       </c>
-      <c r="K462" s="185">
+      <c r="K462" s="184">
         <v>1603123199</v>
       </c>
-      <c r="L462" s="185">
+      <c r="L462" s="184">
         <v>-1</v>
       </c>
     </row>
@@ -32664,7 +32865,7 @@
       <c r="C464" s="16" t="s">
         <v>1488</v>
       </c>
-      <c r="D464" s="187" t="s">
+      <c r="D464" s="186" t="s">
         <v>1666</v>
       </c>
       <c r="E464" s="16" t="s">
@@ -32702,7 +32903,7 @@
       <c r="C465" s="16" t="s">
         <v>1488</v>
       </c>
-      <c r="D465" s="187" t="s">
+      <c r="D465" s="186" t="s">
         <v>1667</v>
       </c>
       <c r="E465" s="16" t="s">
@@ -32820,7 +33021,7 @@
         <v>1663</v>
       </c>
       <c r="E468" s="16" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="F468" s="16" t="s">
         <v>1649</v>
@@ -32854,7 +33055,7 @@
       <c r="C469" s="16" t="s">
         <v>1628</v>
       </c>
-      <c r="D469" s="187" t="s">
+      <c r="D469" s="186" t="s">
         <v>1693</v>
       </c>
       <c r="E469" s="16" t="s">
@@ -32892,7 +33093,7 @@
       <c r="C470" s="16" t="s">
         <v>1628</v>
       </c>
-      <c r="D470" s="187" t="s">
+      <c r="D470" s="186" t="s">
         <v>1694</v>
       </c>
       <c r="E470" s="16" t="s">
@@ -33086,7 +33287,7 @@
         <v>1724</v>
       </c>
       <c r="E475" s="48" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F475" s="48" t="s">
         <v>1714</v>
@@ -33127,7 +33328,7 @@
         <v>1500</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -33162,7 +33363,7 @@
         <v>1708</v>
       </c>
       <c r="E477" s="48" t="s">
-        <v>1712</v>
+        <v>1500</v>
       </c>
       <c r="F477" s="48" t="s">
         <v>1714</v>
@@ -33235,7 +33436,7 @@
         <v>1745</v>
       </c>
       <c r="D479" s="48" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E479" s="48" t="s">
         <v>1746</v>
@@ -33270,10 +33471,10 @@
         <v>1</v>
       </c>
       <c r="C480" s="48" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D480" s="48" t="s">
         <v>1767</v>
-      </c>
-      <c r="D480" s="48" t="s">
-        <v>1768</v>
       </c>
       <c r="E480" s="48" t="s">
         <v>1746</v>
@@ -33314,7 +33515,7 @@
         <v>319</v>
       </c>
       <c r="E481" s="16" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="F481" s="16" t="s">
         <v>13</v>
@@ -33346,16 +33547,16 @@
         <v>1</v>
       </c>
       <c r="C482" s="130" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D482" s="129" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E482" s="130" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="F482" s="130" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="G482" s="129">
         <v>21429</v>
@@ -33384,13 +33585,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="138" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D483" s="138" t="s">
         <v>1822</v>
       </c>
-      <c r="D483" s="138" t="s">
-        <v>1823</v>
-      </c>
       <c r="E483" s="138" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -33422,13 +33623,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D484" s="138" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E484" s="138" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -33460,13 +33661,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D485" s="138" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E485" s="138" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -33498,13 +33699,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D486" s="138" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E486" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -33536,13 +33737,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D487" s="138" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E487" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -33574,13 +33775,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D488" s="138" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E488" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -33612,13 +33813,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D489" s="138" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E489" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -33650,13 +33851,13 @@
         <v>1</v>
       </c>
       <c r="C490" s="153" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E490" s="153" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="F490" s="158" t="s">
         <v>13</v>
@@ -33688,13 +33889,13 @@
         <v>1</v>
       </c>
       <c r="C491" s="153" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E491" s="153" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="F491" s="158" t="s">
         <v>13</v>
@@ -33726,13 +33927,13 @@
         <v>1</v>
       </c>
       <c r="C492" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D492" s="156" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E492" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F492" s="158" t="s">
         <v>13</v>
@@ -33764,13 +33965,13 @@
         <v>1</v>
       </c>
       <c r="C493" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D493" s="156" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E493" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F493" s="158" t="s">
         <v>13</v>
@@ -33802,13 +34003,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="153" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D494" s="155" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E494" s="153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F494" s="158" t="s">
         <v>13</v>
@@ -33840,13 +34041,13 @@
         <v>1</v>
       </c>
       <c r="C495" s="153" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D495" s="156" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E495" s="153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F495" s="158" t="s">
         <v>13</v>
@@ -33878,13 +34079,13 @@
         <v>1</v>
       </c>
       <c r="C496" s="153" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D496" s="156" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E496" s="153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="F496" s="158" t="s">
         <v>13</v>
@@ -33916,13 +34117,13 @@
         <v>1</v>
       </c>
       <c r="C497" s="153" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E497" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F497" s="158" t="s">
         <v>13</v>
@@ -33954,13 +34155,13 @@
         <v>1</v>
       </c>
       <c r="C498" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D498" s="155" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E498" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F498" s="158" t="s">
         <v>13</v>
@@ -33992,13 +34193,13 @@
         <v>1</v>
       </c>
       <c r="C499" s="153" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E499" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="F499" s="158" t="s">
         <v>13</v>
@@ -34030,13 +34231,13 @@
         <v>1</v>
       </c>
       <c r="C500" s="153" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E500" s="153" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="F500" s="158" t="s">
         <v>13</v>
@@ -34068,13 +34269,13 @@
         <v>1</v>
       </c>
       <c r="C501" s="153" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D501" s="157" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E501" s="153" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F501" s="158" t="s">
         <v>13</v>
@@ -34106,13 +34307,13 @@
         <v>1</v>
       </c>
       <c r="C502" s="153" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D502" s="155" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E502" s="153" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F502" s="158" t="s">
         <v>13</v>
@@ -34144,13 +34345,13 @@
         <v>1</v>
       </c>
       <c r="C503" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D503" s="155" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E503" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F503" s="158" t="s">
         <v>13</v>
@@ -34182,13 +34383,13 @@
         <v>1</v>
       </c>
       <c r="C504" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D504" s="155" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E504" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F504" s="158" t="s">
         <v>13</v>
@@ -34220,16 +34421,16 @@
         <v>1</v>
       </c>
       <c r="C505" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D505" s="155" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E505" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F505" s="158" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G505" s="152">
         <v>21452</v>
@@ -34258,16 +34459,16 @@
         <v>1</v>
       </c>
       <c r="C506" s="167" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D506" s="167" t="s">
         <v>1954</v>
       </c>
-      <c r="D506" s="167" t="s">
+      <c r="E506" s="167" t="s">
         <v>1955</v>
       </c>
-      <c r="E506" s="167" t="s">
-        <v>1956</v>
-      </c>
       <c r="F506" s="168" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G506" s="167">
         <v>21453</v>
@@ -34288,117 +34489,117 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="507" spans="1:12" s="185" customFormat="1">
+    <row r="507" spans="1:12" s="184" customFormat="1">
       <c r="A507" s="152">
         <v>1000096</v>
       </c>
-      <c r="B507" s="185">
-        <v>1</v>
-      </c>
-      <c r="C507" s="185" t="s">
+      <c r="B507" s="184">
+        <v>1</v>
+      </c>
+      <c r="C507" s="184" t="s">
         <v>1637</v>
       </c>
-      <c r="D507" s="185" t="s">
+      <c r="D507" s="184" t="s">
         <v>1640</v>
       </c>
-      <c r="E507" s="186" t="s">
+      <c r="E507" s="185" t="s">
         <v>1636</v>
       </c>
-      <c r="F507" s="186" t="s">
+      <c r="F507" s="185" t="s">
         <v>1635</v>
       </c>
-      <c r="G507" s="185">
+      <c r="G507" s="184">
         <v>21454</v>
       </c>
-      <c r="H507" s="186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I507" s="185">
-        <v>1</v>
-      </c>
-      <c r="J507" s="185">
+      <c r="H507" s="185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I507" s="184">
+        <v>1</v>
+      </c>
+      <c r="J507" s="184">
         <v>1605571200</v>
       </c>
-      <c r="K507" s="185">
+      <c r="K507" s="184">
         <v>1606147199</v>
       </c>
-      <c r="L507" s="185">
+      <c r="L507" s="184">
         <v>-1</v>
       </c>
     </row>
-    <row r="508" spans="1:12" s="185" customFormat="1">
+    <row r="508" spans="1:12" s="184" customFormat="1">
       <c r="A508" s="152">
         <v>1000097</v>
       </c>
-      <c r="B508" s="185">
-        <v>1</v>
-      </c>
-      <c r="C508" s="185" t="s">
+      <c r="B508" s="184">
+        <v>1</v>
+      </c>
+      <c r="C508" s="184" t="s">
         <v>1638</v>
       </c>
-      <c r="D508" s="185" t="s">
+      <c r="D508" s="184" t="s">
         <v>1641</v>
       </c>
-      <c r="E508" s="185" t="s">
+      <c r="E508" s="184" t="s">
         <v>1636</v>
       </c>
-      <c r="F508" s="186" t="s">
+      <c r="F508" s="185" t="s">
         <v>1635</v>
       </c>
-      <c r="G508" s="185">
+      <c r="G508" s="184">
         <v>21455</v>
       </c>
-      <c r="H508" s="186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I508" s="185">
-        <v>1</v>
-      </c>
-      <c r="J508" s="185">
+      <c r="H508" s="185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I508" s="184">
+        <v>1</v>
+      </c>
+      <c r="J508" s="184">
         <v>1605571200</v>
       </c>
-      <c r="K508" s="185">
+      <c r="K508" s="184">
         <v>1606147199</v>
       </c>
-      <c r="L508" s="185">
+      <c r="L508" s="184">
         <v>-1</v>
       </c>
     </row>
-    <row r="509" spans="1:12" s="185" customFormat="1">
+    <row r="509" spans="1:12" s="184" customFormat="1">
       <c r="A509" s="152">
         <v>1000098</v>
       </c>
-      <c r="B509" s="185">
-        <v>1</v>
-      </c>
-      <c r="C509" s="186" t="s">
+      <c r="B509" s="184">
+        <v>1</v>
+      </c>
+      <c r="C509" s="185" t="s">
         <v>1639</v>
       </c>
-      <c r="D509" s="185" t="s">
+      <c r="D509" s="184" t="s">
         <v>1642</v>
       </c>
-      <c r="E509" s="185" t="s">
+      <c r="E509" s="184" t="s">
         <v>1636</v>
       </c>
-      <c r="F509" s="185" t="s">
+      <c r="F509" s="184" t="s">
         <v>1635</v>
       </c>
-      <c r="G509" s="185">
+      <c r="G509" s="184">
         <v>21456</v>
       </c>
-      <c r="H509" s="186" t="b">
-        <v>1</v>
-      </c>
-      <c r="I509" s="185">
-        <v>1</v>
-      </c>
-      <c r="J509" s="185">
+      <c r="H509" s="185" t="b">
+        <v>1</v>
+      </c>
+      <c r="I509" s="184">
+        <v>1</v>
+      </c>
+      <c r="J509" s="184">
         <v>1605571200</v>
       </c>
-      <c r="K509" s="185">
+      <c r="K509" s="184">
         <v>1606147199</v>
       </c>
-      <c r="L509" s="185">
+      <c r="L509" s="184">
         <v>-1</v>
       </c>
     </row>
@@ -34409,22 +34610,22 @@
       <c r="B510" s="146">
         <v>1</v>
       </c>
-      <c r="C510" s="194" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D510" s="195" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E510" s="194" t="s">
-        <v>1997</v>
-      </c>
-      <c r="F510" s="196" t="s">
-        <v>2088</v>
+      <c r="C510" s="193" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D510" s="194" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E510" s="193" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F510" s="195" t="s">
+        <v>2086</v>
       </c>
       <c r="G510" s="146">
         <v>21457</v>
       </c>
-      <c r="H510" s="194" t="b">
+      <c r="H510" s="193" t="b">
         <v>0</v>
       </c>
       <c r="I510" s="146">
@@ -34440,318 +34641,613 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="511" spans="1:12" s="181" customFormat="1" ht="16.5">
-      <c r="A511" s="181">
+    <row r="511" spans="1:12" s="180" customFormat="1" ht="16.5">
+      <c r="A511" s="180">
         <v>1000100</v>
       </c>
-      <c r="B511" s="181">
-        <v>1</v>
-      </c>
-      <c r="C511" s="197" t="s">
+      <c r="B511" s="180">
+        <v>1</v>
+      </c>
+      <c r="C511" s="196" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D511" s="197" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E511" s="198" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F511" s="180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G511" s="197">
+        <v>21458</v>
+      </c>
+      <c r="H511" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I511" s="180">
+        <v>1</v>
+      </c>
+      <c r="J511" s="180">
+        <v>1605571200</v>
+      </c>
+      <c r="K511" s="180">
+        <v>32503651200</v>
+      </c>
+      <c r="L511" s="180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" s="180" customFormat="1" ht="16.5">
+      <c r="A512" s="180">
+        <v>1000101</v>
+      </c>
+      <c r="B512" s="180">
+        <v>1</v>
+      </c>
+      <c r="C512" s="196" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D512" s="197" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E512" s="198" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F512" s="180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G512" s="180">
+        <v>21459</v>
+      </c>
+      <c r="H512" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I512" s="180">
+        <v>1</v>
+      </c>
+      <c r="J512" s="180">
+        <v>1605571200</v>
+      </c>
+      <c r="K512" s="180">
+        <v>32503651200</v>
+      </c>
+      <c r="L512" s="180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" s="180" customFormat="1" ht="16.5">
+      <c r="A513" s="180">
+        <v>1000102</v>
+      </c>
+      <c r="B513" s="180">
+        <v>1</v>
+      </c>
+      <c r="C513" s="196" t="s">
         <v>2006</v>
       </c>
-      <c r="D511" s="198" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E511" s="199" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F511" s="181" t="s">
+      <c r="D513" s="197" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E513" s="198" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F513" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="G511" s="198">
-        <v>21458</v>
-      </c>
-      <c r="H511" s="198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I511" s="181">
-        <v>1</v>
-      </c>
-      <c r="J511" s="181">
+      <c r="G513" s="197">
+        <v>21460</v>
+      </c>
+      <c r="H513" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I513" s="180">
+        <v>1</v>
+      </c>
+      <c r="J513" s="180">
         <v>1605571200</v>
       </c>
-      <c r="K511" s="181">
+      <c r="K513" s="180">
         <v>32503651200</v>
       </c>
-      <c r="L511" s="181">
+      <c r="L513" s="180">
         <v>-1</v>
       </c>
     </row>
-    <row r="512" spans="1:12" s="181" customFormat="1" ht="16.5">
-      <c r="A512" s="181">
-        <v>1000101</v>
-      </c>
-      <c r="B512" s="181">
-        <v>1</v>
-      </c>
-      <c r="C512" s="197" t="s">
+    <row r="514" spans="1:12" s="180" customFormat="1" ht="16.5">
+      <c r="A514" s="180">
+        <v>1000103</v>
+      </c>
+      <c r="B514" s="180">
+        <v>1</v>
+      </c>
+      <c r="C514" s="196" t="s">
         <v>2007</v>
       </c>
-      <c r="D512" s="198" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E512" s="199" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F512" s="181" t="s">
+      <c r="D514" s="197" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E514" s="198" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F514" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="G512" s="181">
-        <v>21459</v>
-      </c>
-      <c r="H512" s="198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I512" s="181">
-        <v>1</v>
-      </c>
-      <c r="J512" s="181">
+      <c r="G514" s="180">
+        <v>21461</v>
+      </c>
+      <c r="H514" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I514" s="180">
+        <v>1</v>
+      </c>
+      <c r="J514" s="180">
         <v>1605571200</v>
       </c>
-      <c r="K512" s="181">
+      <c r="K514" s="180">
         <v>32503651200</v>
       </c>
-      <c r="L512" s="181">
+      <c r="L514" s="180">
         <v>-1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" s="181" customFormat="1" ht="16.5">
-      <c r="A513" s="181">
-        <v>1000102</v>
-      </c>
-      <c r="B513" s="181">
-        <v>1</v>
-      </c>
-      <c r="C513" s="197" t="s">
+    <row r="515" spans="1:12" s="180" customFormat="1" ht="16.5">
+      <c r="A515" s="180">
+        <v>1000104</v>
+      </c>
+      <c r="B515" s="180">
+        <v>1</v>
+      </c>
+      <c r="C515" s="196" t="s">
         <v>2008</v>
       </c>
-      <c r="D513" s="198" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E513" s="199" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F513" s="181" t="s">
+      <c r="D515" s="197" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E515" s="198" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F515" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="G513" s="198">
-        <v>21460</v>
-      </c>
-      <c r="H513" s="198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I513" s="181">
-        <v>1</v>
-      </c>
-      <c r="J513" s="181">
+      <c r="G515" s="197">
+        <v>21462</v>
+      </c>
+      <c r="H515" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I515" s="180">
+        <v>1</v>
+      </c>
+      <c r="J515" s="180">
         <v>1605571200</v>
       </c>
-      <c r="K513" s="181">
+      <c r="K515" s="180">
         <v>32503651200</v>
       </c>
-      <c r="L513" s="181">
+      <c r="L515" s="180">
         <v>-1</v>
       </c>
     </row>
-    <row r="514" spans="1:12" s="181" customFormat="1" ht="16.5">
-      <c r="A514" s="181">
-        <v>1000103</v>
-      </c>
-      <c r="B514" s="181">
-        <v>1</v>
-      </c>
-      <c r="C514" s="197" t="s">
+    <row r="516" spans="1:12" s="180" customFormat="1" ht="16.5">
+      <c r="A516" s="180">
+        <v>1000105</v>
+      </c>
+      <c r="B516" s="180">
+        <v>1</v>
+      </c>
+      <c r="C516" s="196" t="s">
         <v>2009</v>
       </c>
-      <c r="D514" s="198" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E514" s="199" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F514" s="181" t="s">
+      <c r="D516" s="197" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E516" s="198" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F516" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="G514" s="181">
-        <v>21461</v>
-      </c>
-      <c r="H514" s="198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I514" s="181">
-        <v>1</v>
-      </c>
-      <c r="J514" s="181">
+      <c r="G516" s="180">
+        <v>21463</v>
+      </c>
+      <c r="H516" s="197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I516" s="180">
+        <v>1</v>
+      </c>
+      <c r="J516" s="180">
         <v>1605571200</v>
       </c>
-      <c r="K514" s="181">
+      <c r="K516" s="180">
         <v>32503651200</v>
       </c>
-      <c r="L514" s="181">
+      <c r="L516" s="180">
         <v>-1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" s="181" customFormat="1" ht="16.5">
-      <c r="A515" s="181">
-        <v>1000104</v>
-      </c>
-      <c r="B515" s="181">
-        <v>1</v>
-      </c>
-      <c r="C515" s="197" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D515" s="198" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E515" s="199" t="s">
-        <v>2102</v>
-      </c>
-      <c r="F515" s="181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G515" s="198">
-        <v>21462</v>
-      </c>
-      <c r="H515" s="198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I515" s="181">
-        <v>1</v>
-      </c>
-      <c r="J515" s="181">
+    <row r="517" spans="1:12" s="213" customFormat="1">
+      <c r="A517" s="213">
+        <v>1000106</v>
+      </c>
+      <c r="B517" s="213">
+        <v>1</v>
+      </c>
+      <c r="C517" s="234" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D517" s="235" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E517" s="235" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F517" s="235" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G517" s="213">
+        <v>21464</v>
+      </c>
+      <c r="H517" s="213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I517" s="213">
+        <v>1</v>
+      </c>
+      <c r="J517" s="213">
         <v>1605571200</v>
       </c>
-      <c r="K515" s="181">
+      <c r="K517" s="213">
         <v>32503651200</v>
       </c>
-      <c r="L515" s="181">
+      <c r="L517" s="213">
         <v>-1</v>
       </c>
     </row>
-    <row r="516" spans="1:12" s="181" customFormat="1" ht="16.5">
-      <c r="A516" s="181">
-        <v>1000105</v>
-      </c>
-      <c r="B516" s="181">
-        <v>1</v>
-      </c>
-      <c r="C516" s="197" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D516" s="198" t="s">
-        <v>2012</v>
-      </c>
-      <c r="E516" s="199" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F516" s="181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G516" s="181">
-        <v>21463</v>
-      </c>
-      <c r="H516" s="198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I516" s="181">
-        <v>1</v>
-      </c>
-      <c r="J516" s="181">
+    <row r="518" spans="1:12" s="213" customFormat="1">
+      <c r="A518" s="213">
+        <v>1000107</v>
+      </c>
+      <c r="B518" s="213">
+        <v>1</v>
+      </c>
+      <c r="C518" s="234" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D518" s="235" t="s">
+        <v>2078</v>
+      </c>
+      <c r="E518" s="235" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F518" s="235" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G518" s="235">
+        <v>21465</v>
+      </c>
+      <c r="H518" s="213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I518" s="213">
+        <v>1</v>
+      </c>
+      <c r="J518" s="213">
         <v>1605571200</v>
       </c>
-      <c r="K516" s="181">
+      <c r="K518" s="213">
         <v>32503651200</v>
       </c>
-      <c r="L516" s="181">
+      <c r="L518" s="213">
         <v>-1</v>
       </c>
     </row>
-    <row r="517" spans="1:12" s="146" customFormat="1">
-      <c r="A517" s="146">
-        <v>1000106</v>
-      </c>
-      <c r="B517" s="146">
-        <v>1</v>
-      </c>
-      <c r="C517" s="229" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D517" s="194" t="s">
-        <v>2079</v>
-      </c>
-      <c r="E517" s="194" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F517" s="194" t="s">
-        <v>2082</v>
-      </c>
-      <c r="G517" s="146">
-        <v>21464</v>
-      </c>
-      <c r="H517" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I517" s="146">
-        <v>1</v>
-      </c>
-      <c r="J517" s="146">
-        <v>1605571200</v>
-      </c>
-      <c r="K517" s="146">
-        <v>32503651200</v>
-      </c>
-      <c r="L517" s="146">
+    <row r="519" spans="1:12" s="146" customFormat="1">
+      <c r="A519" s="146">
+        <v>1000108</v>
+      </c>
+      <c r="B519" s="146">
+        <v>1</v>
+      </c>
+      <c r="C519" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D519" s="193" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E519" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F519" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G519" s="146">
+        <v>21466</v>
+      </c>
+      <c r="H519" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I519" s="146">
+        <v>1</v>
+      </c>
+      <c r="J519" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K519" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L519" s="146">
         <v>-1</v>
       </c>
     </row>
-    <row r="518" spans="1:12" s="146" customFormat="1">
-      <c r="A518" s="146">
-        <v>1000107</v>
-      </c>
-      <c r="B518" s="146">
-        <v>1</v>
-      </c>
-      <c r="C518" s="229" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D518" s="194" t="s">
-        <v>2080</v>
-      </c>
-      <c r="E518" s="194" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F518" s="194" t="s">
-        <v>2082</v>
-      </c>
-      <c r="G518" s="194">
-        <v>21465</v>
-      </c>
-      <c r="H518" s="146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I518" s="146">
-        <v>1</v>
-      </c>
-      <c r="J518" s="146">
-        <v>1605571200</v>
-      </c>
-      <c r="K518" s="146">
-        <v>32503651200</v>
-      </c>
-      <c r="L518" s="146">
+    <row r="520" spans="1:12" s="146" customFormat="1">
+      <c r="A520" s="146">
+        <v>1000109</v>
+      </c>
+      <c r="B520" s="146">
+        <v>1</v>
+      </c>
+      <c r="C520" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D520" s="193" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E520" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F520" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G520" s="193">
+        <v>21467</v>
+      </c>
+      <c r="H520" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I520" s="146">
+        <v>1</v>
+      </c>
+      <c r="J520" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K520" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L520" s="146">
         <v>-1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" s="12" customFormat="1" ht="16.5">
-      <c r="C519" s="16"/>
-      <c r="D519" s="11"/>
-      <c r="E519" s="16"/>
-      <c r="F519" s="175"/>
-    </row>
-    <row r="526" spans="1:12">
-      <c r="C526" s="48"/>
+    <row r="521" spans="1:12" s="146" customFormat="1">
+      <c r="A521" s="146">
+        <v>1000110</v>
+      </c>
+      <c r="B521" s="146">
+        <v>1</v>
+      </c>
+      <c r="C521" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D521" s="193" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E521" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F521" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G521" s="146">
+        <v>21468</v>
+      </c>
+      <c r="H521" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I521" s="146">
+        <v>1</v>
+      </c>
+      <c r="J521" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K521" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L521" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" s="146" customFormat="1">
+      <c r="A522" s="146">
+        <v>1000111</v>
+      </c>
+      <c r="B522" s="146">
+        <v>1</v>
+      </c>
+      <c r="C522" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D522" s="193" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E522" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F522" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G522" s="193">
+        <v>21469</v>
+      </c>
+      <c r="H522" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I522" s="146">
+        <v>1</v>
+      </c>
+      <c r="J522" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K522" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L522" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" s="146" customFormat="1">
+      <c r="A523" s="146">
+        <v>1000112</v>
+      </c>
+      <c r="B523" s="146">
+        <v>1</v>
+      </c>
+      <c r="C523" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D523" s="193" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E523" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F523" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G523" s="146">
+        <v>21470</v>
+      </c>
+      <c r="H523" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I523" s="146">
+        <v>1</v>
+      </c>
+      <c r="J523" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K523" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L523" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" s="146" customFormat="1">
+      <c r="A524" s="146">
+        <v>1000113</v>
+      </c>
+      <c r="B524" s="146">
+        <v>1</v>
+      </c>
+      <c r="C524" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D524" s="193" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E524" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F524" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G524" s="193">
+        <v>21471</v>
+      </c>
+      <c r="H524" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I524" s="146">
+        <v>1</v>
+      </c>
+      <c r="J524" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K524" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L524" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" s="146" customFormat="1">
+      <c r="A525" s="146">
+        <v>1000114</v>
+      </c>
+      <c r="B525" s="146">
+        <v>1</v>
+      </c>
+      <c r="C525" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D525" s="193" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E525" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F525" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G525" s="146">
+        <v>21472</v>
+      </c>
+      <c r="H525" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I525" s="146">
+        <v>1</v>
+      </c>
+      <c r="J525" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K525" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L525" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" s="146" customFormat="1">
+      <c r="A526" s="146">
+        <v>1000115</v>
+      </c>
+      <c r="B526" s="146">
+        <v>1</v>
+      </c>
+      <c r="C526" s="146" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D526" s="193" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E526" s="193" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F526" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="G526" s="193">
+        <v>21473</v>
+      </c>
+      <c r="H526" s="146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I526" s="146">
+        <v>1</v>
+      </c>
+      <c r="J526" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K526" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L526" s="146">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
@@ -34764,13 +35260,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K519"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F495" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F497" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H510" sqref="H510"/>
+      <selection pane="bottomRight" activeCell="H521" sqref="H521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -46097,11 +46593,11 @@
       </c>
       <c r="E445" s="10"/>
       <c r="F445" s="81" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G445" s="78"/>
       <c r="H445" s="81" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I445" s="19" t="s">
         <v>1264</v>
@@ -46120,11 +46616,11 @@
       </c>
       <c r="E446" s="10"/>
       <c r="F446" s="81" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="G446" s="78"/>
       <c r="H446" s="82" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="I446" s="19" t="s">
         <v>1264</v>
@@ -46523,11 +47019,11 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="81" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G463" s="78"/>
       <c r="H463" s="111" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="I463" s="19" t="s">
         <v>1650</v>
@@ -46733,7 +47229,7 @@
         <v>1715</v>
       </c>
       <c r="G472" s="107"/>
-      <c r="H472" s="176">
+      <c r="H472" s="175">
         <v>724</v>
       </c>
       <c r="I472" s="105" t="s">
@@ -46756,7 +47252,7 @@
         <v>1742</v>
       </c>
       <c r="G473" s="34"/>
-      <c r="H473" s="176">
+      <c r="H473" s="175">
         <v>724</v>
       </c>
       <c r="I473" s="13" t="s">
@@ -46779,7 +47275,7 @@
         <v>1743</v>
       </c>
       <c r="G474" s="34"/>
-      <c r="H474" s="176">
+      <c r="H474" s="175">
         <v>724</v>
       </c>
       <c r="I474" s="13" t="s">
@@ -46799,7 +47295,7 @@
       <c r="F475" s="110" t="s">
         <v>1725</v>
       </c>
-      <c r="H475" s="176">
+      <c r="H475" s="175">
         <v>724</v>
       </c>
       <c r="I475" s="14" t="s">
@@ -46819,7 +47315,7 @@
       <c r="F476" s="110" t="s">
         <v>1735</v>
       </c>
-      <c r="H476" s="176">
+      <c r="H476" s="175">
         <v>724</v>
       </c>
       <c r="I476" s="14" t="s">
@@ -46839,7 +47335,7 @@
       <c r="F477" s="110" t="s">
         <v>1737</v>
       </c>
-      <c r="H477" s="176">
+      <c r="H477" s="175">
         <v>724</v>
       </c>
       <c r="I477" s="14" t="s">
@@ -46859,7 +47355,7 @@
       <c r="F478" s="110" t="s">
         <v>1731</v>
       </c>
-      <c r="H478" s="176">
+      <c r="H478" s="175">
         <v>724</v>
       </c>
       <c r="I478" s="14" t="s">
@@ -46883,7 +47379,7 @@
         <v>1748</v>
       </c>
       <c r="I479" s="14" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -46897,10 +47393,10 @@
         <v>471</v>
       </c>
       <c r="F480" s="110" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H480" s="64" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I480" s="14" t="s">
         <v>1258</v>
@@ -46920,13 +47416,13 @@
         <v>472</v>
       </c>
       <c r="F481" s="110" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H481" s="64" t="s">
         <v>1787</v>
       </c>
-      <c r="H481" s="64" t="s">
-        <v>1788</v>
-      </c>
       <c r="I481" s="14" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="482" spans="1:9" s="133" customFormat="1">
@@ -46942,14 +47438,14 @@
       </c>
       <c r="E482" s="131"/>
       <c r="F482" s="135" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G482" s="132"/>
       <c r="H482" s="136" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="I482" s="134" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="483" spans="1:9" s="142" customFormat="1">
@@ -46965,14 +47461,14 @@
       </c>
       <c r="E483" s="139"/>
       <c r="F483" s="145" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G483" s="140"/>
       <c r="H483" s="144" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I483" s="143" t="s">
         <v>1832</v>
-      </c>
-      <c r="I483" s="143" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="484" spans="1:9" s="142" customFormat="1">
@@ -46988,14 +47484,14 @@
       </c>
       <c r="E484" s="139"/>
       <c r="F484" s="145" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G484" s="140"/>
       <c r="H484" s="141" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I484" s="143" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="485" spans="1:9" s="142" customFormat="1">
@@ -47011,14 +47507,14 @@
       </c>
       <c r="E485" s="139"/>
       <c r="F485" s="145" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G485" s="140"/>
       <c r="H485" s="144" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I485" s="143" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="142" customFormat="1">
@@ -47034,14 +47530,14 @@
       </c>
       <c r="E486" s="139"/>
       <c r="F486" s="145" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G486" s="140"/>
       <c r="H486" s="141" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I486" s="143" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="142" customFormat="1">
@@ -47057,14 +47553,14 @@
       </c>
       <c r="E487" s="139"/>
       <c r="F487" s="145" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="G487" s="140"/>
       <c r="H487" s="144" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I487" s="143" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="488" spans="1:9" s="142" customFormat="1">
@@ -47080,14 +47576,14 @@
       </c>
       <c r="E488" s="139"/>
       <c r="F488" s="145" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G488" s="140"/>
       <c r="H488" s="141" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I488" s="143" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="489" spans="1:9" s="142" customFormat="1">
@@ -47103,14 +47599,14 @@
       </c>
       <c r="E489" s="139"/>
       <c r="F489" s="145" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G489" s="140"/>
       <c r="H489" s="144" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="I489" s="143" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="490" spans="1:9" s="154" customFormat="1">
@@ -47126,16 +47622,16 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="161" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G490" s="159" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H490" s="162" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I490" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="491" spans="1:9" s="154" customFormat="1">
@@ -47151,14 +47647,14 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="161" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G491" s="159"/>
       <c r="H491" s="162" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="I491" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="492" spans="1:9" s="154" customFormat="1">
@@ -47174,14 +47670,14 @@
       </c>
       <c r="E492" s="155"/>
       <c r="F492" s="161" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G492" s="159"/>
       <c r="H492" s="160">
         <v>747</v>
       </c>
       <c r="I492" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="493" spans="1:9" s="154" customFormat="1">
@@ -47197,14 +47693,14 @@
       </c>
       <c r="E493" s="155"/>
       <c r="F493" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G493" s="159"/>
       <c r="H493" s="160">
         <v>748</v>
       </c>
       <c r="I493" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="494" spans="1:9" s="154" customFormat="1">
@@ -47220,14 +47716,14 @@
       </c>
       <c r="E494" s="155"/>
       <c r="F494" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G494" s="159"/>
       <c r="H494" s="160">
         <v>749</v>
       </c>
       <c r="I494" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="495" spans="1:9" s="154" customFormat="1">
@@ -47243,14 +47739,14 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="161" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G495" s="159"/>
       <c r="H495" s="160">
         <v>750</v>
       </c>
       <c r="I495" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="496" spans="1:9" s="154" customFormat="1">
@@ -47266,14 +47762,14 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="161" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G496" s="159"/>
       <c r="H496" s="160">
         <v>751</v>
       </c>
       <c r="I496" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="497" spans="1:9" s="154" customFormat="1">
@@ -47289,14 +47785,14 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="162" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I497" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="498" spans="1:9" s="154" customFormat="1">
@@ -47312,14 +47808,14 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="161" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="G498" s="159"/>
       <c r="H498" s="160">
         <v>757</v>
       </c>
       <c r="I498" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="499" spans="1:9" s="154" customFormat="1">
@@ -47335,14 +47831,14 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="162" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I499" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="500" spans="1:9" s="154" customFormat="1">
@@ -47358,14 +47854,14 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="162" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="I500" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="501" spans="1:9" s="154" customFormat="1">
@@ -47388,7 +47884,7 @@
         <v>767</v>
       </c>
       <c r="I501" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="502" spans="1:9" s="154" customFormat="1">
@@ -47411,7 +47907,7 @@
         <v>768</v>
       </c>
       <c r="I502" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="503" spans="1:9" s="154" customFormat="1">
@@ -47427,14 +47923,14 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G503" s="159"/>
       <c r="H503" s="160">
         <v>769</v>
       </c>
       <c r="I503" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="504" spans="1:9" s="154" customFormat="1">
@@ -47450,14 +47946,14 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G504" s="159"/>
       <c r="H504" s="160">
         <v>770</v>
       </c>
       <c r="I504" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="505" spans="1:9" s="154" customFormat="1">
@@ -47473,14 +47969,14 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G505" s="159"/>
       <c r="H505" s="160">
         <v>771</v>
       </c>
       <c r="I505" s="157" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="506" spans="1:9" s="171" customFormat="1">
@@ -47494,292 +47990,465 @@
       <c r="D506" s="169"/>
       <c r="E506" s="169"/>
       <c r="F506" s="172" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G506" s="170"/>
       <c r="H506" s="174" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="I506" s="173" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="507" spans="1:9" s="192" customFormat="1">
-      <c r="A507" s="188">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" s="191" customFormat="1">
+      <c r="A507" s="187">
         <v>506</v>
       </c>
-      <c r="B507" s="185">
+      <c r="B507" s="184">
         <v>21454</v>
       </c>
-      <c r="C507" s="188"/>
-      <c r="D507" s="188"/>
-      <c r="E507" s="188"/>
-      <c r="F507" s="189" t="s">
+      <c r="C507" s="187"/>
+      <c r="D507" s="187"/>
+      <c r="E507" s="187"/>
+      <c r="F507" s="188" t="s">
         <v>1643</v>
       </c>
-      <c r="G507" s="189" t="s">
+      <c r="G507" s="188" t="s">
         <v>968</v>
       </c>
-      <c r="H507" s="190"/>
-      <c r="I507" s="191" t="s">
+      <c r="H507" s="189"/>
+      <c r="I507" s="190" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="508" spans="1:9" s="192" customFormat="1">
-      <c r="A508" s="188">
+    <row r="508" spans="1:9" s="191" customFormat="1">
+      <c r="A508" s="187">
         <v>507</v>
       </c>
-      <c r="B508" s="185">
+      <c r="B508" s="184">
         <v>21455</v>
       </c>
-      <c r="C508" s="188"/>
-      <c r="D508" s="188"/>
-      <c r="E508" s="188"/>
-      <c r="F508" s="189" t="s">
+      <c r="C508" s="187"/>
+      <c r="D508" s="187"/>
+      <c r="E508" s="187"/>
+      <c r="F508" s="188" t="s">
         <v>1643</v>
       </c>
-      <c r="G508" s="189" t="s">
+      <c r="G508" s="188" t="s">
         <v>968</v>
       </c>
-      <c r="H508" s="190"/>
-      <c r="I508" s="191" t="s">
+      <c r="H508" s="189"/>
+      <c r="I508" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="509" spans="1:9" s="192" customFormat="1">
-      <c r="A509" s="188">
+    <row r="509" spans="1:9" s="191" customFormat="1">
+      <c r="A509" s="187">
         <v>508</v>
       </c>
-      <c r="B509" s="185">
+      <c r="B509" s="184">
         <v>21456</v>
       </c>
-      <c r="C509" s="188"/>
-      <c r="D509" s="188"/>
-      <c r="E509" s="188"/>
-      <c r="F509" s="189" t="s">
+      <c r="C509" s="187"/>
+      <c r="D509" s="187"/>
+      <c r="E509" s="187"/>
+      <c r="F509" s="188" t="s">
         <v>1643</v>
       </c>
-      <c r="G509" s="189" t="s">
+      <c r="G509" s="188" t="s">
         <v>968</v>
       </c>
-      <c r="H509" s="190"/>
-      <c r="I509" s="191" t="s">
+      <c r="H509" s="189"/>
+      <c r="I509" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="510" spans="1:9" s="184" customFormat="1">
-      <c r="A510" s="180">
+    <row r="510" spans="1:9" s="183" customFormat="1">
+      <c r="A510" s="179">
         <v>509</v>
       </c>
-      <c r="B510" s="181">
+      <c r="B510" s="180">
         <v>21457</v>
       </c>
-      <c r="C510" s="180"/>
-      <c r="D510" s="180">
+      <c r="C510" s="179"/>
+      <c r="D510" s="179">
         <v>497</v>
       </c>
-      <c r="E510" s="180"/>
-      <c r="F510" s="200" t="s">
-        <v>1999</v>
-      </c>
-      <c r="G510" s="201"/>
-      <c r="H510" s="202"/>
-      <c r="I510" s="180"/>
-    </row>
-    <row r="511" spans="1:9" s="205" customFormat="1">
-      <c r="A511" s="203">
+      <c r="E510" s="179"/>
+      <c r="F510" s="199" t="s">
+        <v>1997</v>
+      </c>
+      <c r="G510" s="200"/>
+      <c r="H510" s="201"/>
+      <c r="I510" s="179"/>
+    </row>
+    <row r="511" spans="1:9" s="204" customFormat="1">
+      <c r="A511" s="202">
         <v>510</v>
       </c>
-      <c r="B511" s="203">
+      <c r="B511" s="202">
         <v>21458</v>
       </c>
-      <c r="C511" s="203"/>
-      <c r="D511" s="203">
+      <c r="C511" s="202"/>
+      <c r="D511" s="202">
         <v>498</v>
       </c>
-      <c r="E511" s="203"/>
-      <c r="F511" s="207" t="s">
-        <v>2013</v>
-      </c>
-      <c r="G511" s="204"/>
-      <c r="H511" s="220" t="s">
+      <c r="E511" s="202"/>
+      <c r="F511" s="206" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G511" s="203"/>
+      <c r="H511" s="219" t="s">
+        <v>2061</v>
+      </c>
+      <c r="I511" s="202" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" s="204" customFormat="1">
+      <c r="A512" s="202">
+        <v>511</v>
+      </c>
+      <c r="B512" s="205">
+        <v>21459</v>
+      </c>
+      <c r="C512" s="202"/>
+      <c r="D512" s="202">
+        <v>499</v>
+      </c>
+      <c r="E512" s="202"/>
+      <c r="F512" s="206" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G512" s="203"/>
+      <c r="H512" s="219" t="s">
+        <v>2062</v>
+      </c>
+      <c r="I512" s="202" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" s="204" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A513" s="202">
+        <v>512</v>
+      </c>
+      <c r="B513" s="202">
+        <v>21460</v>
+      </c>
+      <c r="C513" s="202"/>
+      <c r="D513" s="202">
+        <v>500</v>
+      </c>
+      <c r="E513" s="202"/>
+      <c r="F513" s="206" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G513" s="203"/>
+      <c r="H513" s="219" t="s">
         <v>2063</v>
       </c>
-      <c r="I511" s="203" t="s">
+      <c r="I513" s="202" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="512" spans="1:9" s="205" customFormat="1">
-      <c r="A512" s="203">
+    <row r="514" spans="1:9" s="204" customFormat="1">
+      <c r="A514" s="202">
+        <v>513</v>
+      </c>
+      <c r="B514" s="205">
+        <v>21461</v>
+      </c>
+      <c r="C514" s="202"/>
+      <c r="D514" s="202">
+        <v>501</v>
+      </c>
+      <c r="E514" s="202"/>
+      <c r="F514" s="206" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G514" s="203"/>
+      <c r="H514" s="219" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I514" s="202" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" s="204" customFormat="1" ht="15" customHeight="1">
+      <c r="A515" s="202">
+        <v>514</v>
+      </c>
+      <c r="B515" s="202">
+        <v>21462</v>
+      </c>
+      <c r="C515" s="202"/>
+      <c r="D515" s="202">
+        <v>502</v>
+      </c>
+      <c r="E515" s="202"/>
+      <c r="F515" s="206" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G515" s="203"/>
+      <c r="H515" s="219" t="s">
+        <v>2065</v>
+      </c>
+      <c r="I515" s="202" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" s="204" customFormat="1">
+      <c r="A516" s="202">
+        <v>515</v>
+      </c>
+      <c r="B516" s="205">
+        <v>21463</v>
+      </c>
+      <c r="C516" s="202"/>
+      <c r="D516" s="202">
+        <v>503</v>
+      </c>
+      <c r="E516" s="202"/>
+      <c r="F516" s="206" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G516" s="203"/>
+      <c r="H516" s="219" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I516" s="207" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" s="225" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A517" s="222">
+        <v>516</v>
+      </c>
+      <c r="B517" s="222">
+        <v>21464</v>
+      </c>
+      <c r="C517" s="222"/>
+      <c r="D517" s="222">
+        <v>504</v>
+      </c>
+      <c r="E517" s="222"/>
+      <c r="F517" s="228" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G517" s="229"/>
+      <c r="H517" s="230" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I517" s="223" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" s="225" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A518" s="222">
+        <v>517</v>
+      </c>
+      <c r="B518" s="224">
+        <v>21465</v>
+      </c>
+      <c r="C518" s="222"/>
+      <c r="D518" s="222">
+        <v>505</v>
+      </c>
+      <c r="E518" s="222"/>
+      <c r="F518" s="228" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G518" s="229"/>
+      <c r="H518" s="230" t="s">
+        <v>2083</v>
+      </c>
+      <c r="I518" s="223" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" s="218" customFormat="1">
+      <c r="A519" s="215">
+        <v>518</v>
+      </c>
+      <c r="B519" s="213">
+        <v>21466</v>
+      </c>
+      <c r="C519" s="215"/>
+      <c r="D519" s="215">
+        <v>506</v>
+      </c>
+      <c r="E519" s="215"/>
+      <c r="F519" s="236" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G519" s="237"/>
+      <c r="H519" s="215">
+        <v>834</v>
+      </c>
+      <c r="I519" s="216" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" s="218" customFormat="1">
+      <c r="A520" s="215">
+        <v>519</v>
+      </c>
+      <c r="B520" s="235">
+        <v>21467</v>
+      </c>
+      <c r="C520" s="215"/>
+      <c r="D520" s="215">
+        <v>507</v>
+      </c>
+      <c r="E520" s="215"/>
+      <c r="F520" s="236" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G520" s="237"/>
+      <c r="H520" s="215">
+        <v>835</v>
+      </c>
+      <c r="I520" s="216" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" s="218" customFormat="1">
+      <c r="A521" s="215">
+        <v>520</v>
+      </c>
+      <c r="B521" s="213">
+        <v>21468</v>
+      </c>
+      <c r="C521" s="215"/>
+      <c r="D521" s="215">
+        <v>508</v>
+      </c>
+      <c r="E521" s="215"/>
+      <c r="F521" s="236" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G521" s="237"/>
+      <c r="H521" s="215">
+        <v>836</v>
+      </c>
+      <c r="I521" s="216" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" s="218" customFormat="1">
+      <c r="A522" s="215">
+        <v>521</v>
+      </c>
+      <c r="B522" s="235">
+        <v>21469</v>
+      </c>
+      <c r="C522" s="215"/>
+      <c r="D522" s="215">
+        <v>509</v>
+      </c>
+      <c r="E522" s="215"/>
+      <c r="F522" s="236" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G522" s="237"/>
+      <c r="H522" s="215">
+        <v>837</v>
+      </c>
+      <c r="I522" s="216" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" s="218" customFormat="1">
+      <c r="A523" s="215">
+        <v>522</v>
+      </c>
+      <c r="B523" s="213">
+        <v>21470</v>
+      </c>
+      <c r="C523" s="215"/>
+      <c r="D523" s="215">
+        <v>510</v>
+      </c>
+      <c r="E523" s="215"/>
+      <c r="F523" s="236" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G523" s="237"/>
+      <c r="H523" s="214">
+        <v>838</v>
+      </c>
+      <c r="I523" s="216" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" s="218" customFormat="1">
+      <c r="A524" s="215">
+        <v>523</v>
+      </c>
+      <c r="B524" s="235">
+        <v>21471</v>
+      </c>
+      <c r="C524" s="215"/>
+      <c r="D524" s="215">
         <v>511</v>
       </c>
-      <c r="B512" s="206">
-        <v>21459</v>
-      </c>
-      <c r="C512" s="203"/>
-      <c r="D512" s="203">
-        <v>499</v>
-      </c>
-      <c r="E512" s="203"/>
-      <c r="F512" s="207" t="s">
-        <v>2089</v>
-      </c>
-      <c r="G512" s="204"/>
-      <c r="H512" s="220" t="s">
-        <v>2064</v>
-      </c>
-      <c r="I512" s="203" t="s">
+      <c r="E524" s="215"/>
+      <c r="F524" s="236" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G524" s="237"/>
+      <c r="H524" s="215">
+        <v>839</v>
+      </c>
+      <c r="I524" s="216" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="513" spans="1:9" s="205" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A513" s="203">
+    <row r="525" spans="1:9" s="218" customFormat="1">
+      <c r="A525" s="215">
+        <v>524</v>
+      </c>
+      <c r="B525" s="213">
+        <v>21472</v>
+      </c>
+      <c r="C525" s="215"/>
+      <c r="D525" s="215">
         <v>512</v>
       </c>
-      <c r="B513" s="203">
-        <v>21460</v>
-      </c>
-      <c r="C513" s="203"/>
-      <c r="D513" s="203">
-        <v>500</v>
-      </c>
-      <c r="E513" s="203"/>
-      <c r="F513" s="207" t="s">
-        <v>2090</v>
-      </c>
-      <c r="G513" s="204"/>
-      <c r="H513" s="220" t="s">
-        <v>2065</v>
-      </c>
-      <c r="I513" s="203" t="s">
+      <c r="E525" s="215"/>
+      <c r="F525" s="236" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G525" s="237"/>
+      <c r="H525" s="215">
+        <v>840</v>
+      </c>
+      <c r="I525" s="216" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="514" spans="1:9" s="205" customFormat="1">
-      <c r="A514" s="203">
+    <row r="526" spans="1:9" s="218" customFormat="1">
+      <c r="A526" s="215">
+        <v>525</v>
+      </c>
+      <c r="B526" s="235">
+        <v>21473</v>
+      </c>
+      <c r="C526" s="215"/>
+      <c r="D526" s="215">
         <v>513</v>
       </c>
-      <c r="B514" s="206">
-        <v>21461</v>
-      </c>
-      <c r="C514" s="203"/>
-      <c r="D514" s="203">
-        <v>501</v>
-      </c>
-      <c r="E514" s="203"/>
-      <c r="F514" s="207" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G514" s="204"/>
-      <c r="H514" s="220" t="s">
-        <v>2066</v>
-      </c>
-      <c r="I514" s="203" t="s">
+      <c r="E526" s="215"/>
+      <c r="F526" s="236" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G526" s="237"/>
+      <c r="H526" s="215">
+        <v>841</v>
+      </c>
+      <c r="I526" s="216" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" s="205" customFormat="1" ht="15" customHeight="1">
-      <c r="A515" s="203">
-        <v>514</v>
-      </c>
-      <c r="B515" s="203">
-        <v>21462</v>
-      </c>
-      <c r="C515" s="203"/>
-      <c r="D515" s="203">
-        <v>502</v>
-      </c>
-      <c r="E515" s="203"/>
-      <c r="F515" s="207" t="s">
-        <v>2092</v>
-      </c>
-      <c r="G515" s="204"/>
-      <c r="H515" s="220" t="s">
-        <v>2067</v>
-      </c>
-      <c r="I515" s="203" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" s="205" customFormat="1">
-      <c r="A516" s="203">
-        <v>515</v>
-      </c>
-      <c r="B516" s="206">
-        <v>21463</v>
-      </c>
-      <c r="C516" s="203"/>
-      <c r="D516" s="203">
-        <v>503</v>
-      </c>
-      <c r="E516" s="203"/>
-      <c r="F516" s="207" t="s">
-        <v>2093</v>
-      </c>
-      <c r="G516" s="204"/>
-      <c r="H516" s="220" t="s">
-        <v>2068</v>
-      </c>
-      <c r="I516" s="208" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" s="226" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A517" s="223">
-        <v>516</v>
-      </c>
-      <c r="B517" s="223">
-        <v>21464</v>
-      </c>
-      <c r="C517" s="223"/>
-      <c r="D517" s="223">
-        <v>504</v>
-      </c>
-      <c r="E517" s="223"/>
-      <c r="F517" s="230" t="s">
-        <v>2094</v>
-      </c>
-      <c r="G517" s="231"/>
-      <c r="H517" s="232" t="s">
-        <v>2084</v>
-      </c>
-      <c r="I517" s="224" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" s="226" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A518" s="223">
-        <v>517</v>
-      </c>
-      <c r="B518" s="225">
-        <v>21465</v>
-      </c>
-      <c r="C518" s="223"/>
-      <c r="D518" s="223">
-        <v>505</v>
-      </c>
-      <c r="E518" s="223"/>
-      <c r="F518" s="230" t="s">
-        <v>2083</v>
-      </c>
-      <c r="G518" s="231"/>
-      <c r="H518" s="232" t="s">
-        <v>2085</v>
-      </c>
-      <c r="I518" s="224" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" s="6" customFormat="1">
-      <c r="A519" s="11"/>
-      <c r="B519" s="12"/>
-      <c r="C519" s="11"/>
-      <c r="D519" s="11"/>
-      <c r="E519" s="11"/>
-      <c r="F519" s="39"/>
-      <c r="G519" s="34"/>
-      <c r="H519" s="27"/>
-      <c r="I519" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -47791,11 +48460,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I777"/>
+  <dimension ref="A1:I785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C705" sqref="C705"/>
+      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D778" sqref="D778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47818,7 +48487,7 @@
         <v>660</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>661</v>
@@ -50684,7 +51353,7 @@
         <v>155</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D201" s="11">
         <v>98</v>
@@ -52963,7 +53632,7 @@
         <v>255</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D356" s="11">
         <v>166</v>
@@ -57194,7 +57863,7 @@
         <v>454</v>
       </c>
       <c r="C647" s="19" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D647" s="10">
         <v>0</v>
@@ -57387,7 +58056,7 @@
         <v>459</v>
       </c>
       <c r="C660" s="19" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D660" s="10">
         <v>0</v>
@@ -57542,7 +58211,7 @@
         <v>470</v>
       </c>
       <c r="C671" s="13" t="s">
-        <v>1749</v>
+        <v>1029</v>
       </c>
       <c r="D671" s="12">
         <v>332</v>
@@ -57654,7 +58323,7 @@
         <v>471</v>
       </c>
       <c r="C679" s="19" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D679" s="12">
         <v>0</v>
@@ -57699,7 +58368,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="143" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D682" s="139">
         <v>335</v>
@@ -57713,7 +58382,7 @@
         <v>475</v>
       </c>
       <c r="C683" s="139" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D683" s="139">
         <v>336</v>
@@ -57727,7 +58396,7 @@
         <v>476</v>
       </c>
       <c r="C684" s="143" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D684" s="139">
         <v>337</v>
@@ -57741,7 +58410,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -57769,7 +58438,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -57783,7 +58452,7 @@
         <v>480</v>
       </c>
       <c r="C688" s="143" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D688" s="139">
         <v>341</v>
@@ -57797,7 +58466,7 @@
         <v>481</v>
       </c>
       <c r="C689" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D689" s="152">
         <v>0</v>
@@ -57811,7 +58480,7 @@
         <v>482</v>
       </c>
       <c r="C690" s="157" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D690" s="152">
         <v>0</v>
@@ -57825,7 +58494,7 @@
         <v>483</v>
       </c>
       <c r="C691" s="155" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D691" s="152">
         <v>342</v>
@@ -57839,7 +58508,7 @@
         <v>484</v>
       </c>
       <c r="C692" s="157" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D692" s="152">
         <v>343</v>
@@ -57853,7 +58522,7 @@
         <v>485</v>
       </c>
       <c r="C693" s="155" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D693" s="152">
         <v>344</v>
@@ -57867,7 +58536,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D694" s="152">
         <v>345</v>
@@ -57881,7 +58550,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="155" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D695" s="152">
         <v>346</v>
@@ -57895,7 +58564,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="156" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -57909,7 +58578,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D697" s="152">
         <v>347</v>
@@ -57923,7 +58592,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D698" s="152">
         <v>348</v>
@@ -57937,7 +58606,7 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D699" s="152">
         <v>349</v>
@@ -57965,7 +58634,7 @@
         <v>493</v>
       </c>
       <c r="C701" s="157" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D701" s="152">
         <v>351</v>
@@ -57979,7 +58648,7 @@
         <v>494</v>
       </c>
       <c r="C702" s="155" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D702" s="152">
         <v>352</v>
@@ -57993,7 +58662,7 @@
         <v>495</v>
       </c>
       <c r="C703" s="155" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D703" s="152">
         <v>353</v>
@@ -58007,1032 +58676,1144 @@
         <v>496</v>
       </c>
       <c r="C704" s="157" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D704" s="152">
         <v>354</v>
       </c>
     </row>
-    <row r="705" spans="1:4" s="184" customFormat="1">
-      <c r="A705" s="180">
+    <row r="705" spans="1:4" s="183" customFormat="1">
+      <c r="A705" s="179">
         <v>704</v>
       </c>
-      <c r="B705" s="180">
+      <c r="B705" s="179">
         <v>497</v>
       </c>
-      <c r="C705" s="180" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D705" s="180">
+      <c r="C705" s="179" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D705" s="179">
         <v>355</v>
       </c>
     </row>
-    <row r="706" spans="1:4" s="205" customFormat="1">
-      <c r="A706" s="203">
+    <row r="706" spans="1:4" s="204" customFormat="1">
+      <c r="A706" s="202">
         <v>705</v>
       </c>
-      <c r="B706" s="203">
+      <c r="B706" s="202">
         <v>498</v>
       </c>
-      <c r="C706" s="208" t="s">
+      <c r="C706" s="207" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D706" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" s="204" customFormat="1">
+      <c r="A707" s="202">
+        <v>706</v>
+      </c>
+      <c r="B707" s="202">
+        <v>498</v>
+      </c>
+      <c r="C707" s="207" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D707" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" s="226" customFormat="1">
+      <c r="A708" s="207">
+        <v>707</v>
+      </c>
+      <c r="B708" s="207">
+        <v>498</v>
+      </c>
+      <c r="C708" s="207" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D708" s="227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" s="204" customFormat="1">
+      <c r="A709" s="202">
+        <v>708</v>
+      </c>
+      <c r="B709" s="202">
+        <v>498</v>
+      </c>
+      <c r="C709" s="207" t="s">
         <v>2069</v>
       </c>
-      <c r="D706" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707" spans="1:4" s="205" customFormat="1">
-      <c r="A707" s="203">
-        <v>706</v>
-      </c>
-      <c r="B707" s="203">
+      <c r="D709" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" s="204" customFormat="1">
+      <c r="A710" s="202">
+        <v>709</v>
+      </c>
+      <c r="B710" s="202">
         <v>498</v>
       </c>
-      <c r="C707" s="208" t="s">
+      <c r="C710" s="207" t="s">
         <v>2070</v>
       </c>
-      <c r="D707" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708" spans="1:4" s="227" customFormat="1">
-      <c r="A708" s="208">
-        <v>707</v>
-      </c>
-      <c r="B708" s="208">
+      <c r="D710" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" s="204" customFormat="1">
+      <c r="A711" s="202">
+        <v>710</v>
+      </c>
+      <c r="B711" s="202">
         <v>498</v>
       </c>
-      <c r="C708" s="208" t="s">
+      <c r="C711" s="207" t="s">
         <v>2074</v>
       </c>
-      <c r="D708" s="228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="1:4" s="205" customFormat="1">
-      <c r="A709" s="203">
-        <v>708</v>
-      </c>
-      <c r="B709" s="203">
+      <c r="D711" s="205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" s="204" customFormat="1">
+      <c r="A712" s="202">
+        <v>711</v>
+      </c>
+      <c r="B712" s="202">
         <v>498</v>
       </c>
-      <c r="C709" s="208" t="s">
+      <c r="C712" s="207" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D712" s="205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" s="204" customFormat="1">
+      <c r="A713" s="202">
+        <v>712</v>
+      </c>
+      <c r="B713" s="202">
+        <v>498</v>
+      </c>
+      <c r="C713" s="207" t="s">
         <v>2071</v>
       </c>
-      <c r="D709" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710" spans="1:4" s="205" customFormat="1">
-      <c r="A710" s="203">
-        <v>709</v>
-      </c>
-      <c r="B710" s="203">
+      <c r="D713" s="205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" s="204" customFormat="1">
+      <c r="A714" s="202">
+        <v>713</v>
+      </c>
+      <c r="B714" s="202">
         <v>498</v>
       </c>
-      <c r="C710" s="208" t="s">
+      <c r="C714" s="207" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D714" s="205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" s="209" customFormat="1">
+      <c r="A715" s="202">
+        <v>714</v>
+      </c>
+      <c r="B715" s="208">
+        <v>499</v>
+      </c>
+      <c r="C715" s="210" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D715" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" s="209" customFormat="1">
+      <c r="A716" s="202">
+        <v>715</v>
+      </c>
+      <c r="B716" s="208">
+        <v>499</v>
+      </c>
+      <c r="C716" s="210" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D716" s="211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" s="209" customFormat="1">
+      <c r="A717" s="207">
+        <v>716</v>
+      </c>
+      <c r="B717" s="208">
+        <v>499</v>
+      </c>
+      <c r="C717" s="210" t="s">
         <v>2072</v>
       </c>
-      <c r="D710" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="1:4" s="205" customFormat="1">
-      <c r="A711" s="203">
-        <v>710</v>
-      </c>
-      <c r="B711" s="203">
-        <v>498</v>
-      </c>
-      <c r="C711" s="208" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D711" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" s="205" customFormat="1">
-      <c r="A712" s="203">
-        <v>711</v>
-      </c>
-      <c r="B712" s="203">
-        <v>498</v>
-      </c>
-      <c r="C712" s="208" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D712" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713" spans="1:4" s="205" customFormat="1">
-      <c r="A713" s="203">
-        <v>712</v>
-      </c>
-      <c r="B713" s="203">
-        <v>498</v>
-      </c>
-      <c r="C713" s="208" t="s">
+      <c r="D717" s="211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" s="209" customFormat="1">
+      <c r="A718" s="202">
+        <v>717</v>
+      </c>
+      <c r="B718" s="208">
+        <v>499</v>
+      </c>
+      <c r="C718" s="210" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D718" s="211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" s="209" customFormat="1">
+      <c r="A719" s="202">
+        <v>718</v>
+      </c>
+      <c r="B719" s="208">
+        <v>499</v>
+      </c>
+      <c r="C719" s="210" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D719" s="211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" s="209" customFormat="1">
+      <c r="A720" s="202">
+        <v>719</v>
+      </c>
+      <c r="B720" s="208">
+        <v>499</v>
+      </c>
+      <c r="C720" s="210" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D720" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" s="209" customFormat="1">
+      <c r="A721" s="202">
+        <v>720</v>
+      </c>
+      <c r="B721" s="208">
+        <v>499</v>
+      </c>
+      <c r="C721" s="210" t="s">
         <v>2073</v>
       </c>
-      <c r="D713" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" s="205" customFormat="1">
-      <c r="A714" s="203">
-        <v>713</v>
-      </c>
-      <c r="B714" s="203">
-        <v>498</v>
-      </c>
-      <c r="C714" s="208" t="s">
+      <c r="D721" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" s="209" customFormat="1">
+      <c r="A722" s="202">
+        <v>721</v>
+      </c>
+      <c r="B722" s="208">
+        <v>499</v>
+      </c>
+      <c r="C722" s="210" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D722" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" s="209" customFormat="1">
+      <c r="A723" s="202">
+        <v>722</v>
+      </c>
+      <c r="B723" s="208">
+        <v>499</v>
+      </c>
+      <c r="C723" s="210" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D723" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" s="204" customFormat="1">
+      <c r="A724" s="202">
+        <v>723</v>
+      </c>
+      <c r="B724" s="202">
+        <v>500</v>
+      </c>
+      <c r="C724" s="207" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D724" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" s="204" customFormat="1">
+      <c r="A725" s="207">
+        <v>724</v>
+      </c>
+      <c r="B725" s="202">
+        <v>500</v>
+      </c>
+      <c r="C725" s="207" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D725" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" s="204" customFormat="1">
+      <c r="A726" s="202">
+        <v>725</v>
+      </c>
+      <c r="B726" s="202">
+        <v>500</v>
+      </c>
+      <c r="C726" s="207" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D726" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" s="204" customFormat="1">
+      <c r="A727" s="202">
+        <v>726</v>
+      </c>
+      <c r="B727" s="202">
+        <v>500</v>
+      </c>
+      <c r="C727" s="207" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D727" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" s="204" customFormat="1">
+      <c r="A728" s="202">
+        <v>727</v>
+      </c>
+      <c r="B728" s="202">
+        <v>500</v>
+      </c>
+      <c r="C728" s="207" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D728" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" s="204" customFormat="1">
+      <c r="A729" s="202">
+        <v>728</v>
+      </c>
+      <c r="B729" s="202">
+        <v>500</v>
+      </c>
+      <c r="C729" s="207" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D729" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" s="204" customFormat="1">
+      <c r="A730" s="202">
+        <v>729</v>
+      </c>
+      <c r="B730" s="202">
+        <v>500</v>
+      </c>
+      <c r="C730" s="207" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D730" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" s="204" customFormat="1">
+      <c r="A731" s="202">
+        <v>730</v>
+      </c>
+      <c r="B731" s="202">
+        <v>500</v>
+      </c>
+      <c r="C731" s="207" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D731" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" s="204" customFormat="1">
+      <c r="A732" s="202">
+        <v>731</v>
+      </c>
+      <c r="B732" s="202">
+        <v>500</v>
+      </c>
+      <c r="C732" s="207" t="s">
         <v>2096</v>
       </c>
-      <c r="D714" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715" spans="1:4" s="210" customFormat="1">
-      <c r="A715" s="203">
-        <v>714</v>
-      </c>
-      <c r="B715" s="209">
-        <v>499</v>
-      </c>
-      <c r="C715" s="211" t="s">
+      <c r="D732" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" s="209" customFormat="1">
+      <c r="A733" s="202">
+        <v>732</v>
+      </c>
+      <c r="B733" s="208">
+        <v>501</v>
+      </c>
+      <c r="C733" s="210" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D733" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" s="209" customFormat="1">
+      <c r="A734" s="207">
+        <v>733</v>
+      </c>
+      <c r="B734" s="208">
+        <v>501</v>
+      </c>
+      <c r="C734" s="210" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D734" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" s="209" customFormat="1">
+      <c r="A735" s="202">
+        <v>734</v>
+      </c>
+      <c r="B735" s="208">
+        <v>501</v>
+      </c>
+      <c r="C735" s="210" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D735" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" s="209" customFormat="1">
+      <c r="A736" s="202">
+        <v>735</v>
+      </c>
+      <c r="B736" s="208">
+        <v>501</v>
+      </c>
+      <c r="C736" s="210" t="s">
         <v>2069</v>
       </c>
-      <c r="D715" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716" spans="1:4" s="210" customFormat="1">
-      <c r="A716" s="203">
-        <v>715</v>
-      </c>
-      <c r="B716" s="209">
-        <v>499</v>
-      </c>
-      <c r="C716" s="211" t="s">
+      <c r="D736" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" s="209" customFormat="1">
+      <c r="A737" s="202">
+        <v>736</v>
+      </c>
+      <c r="B737" s="208">
+        <v>501</v>
+      </c>
+      <c r="C737" s="210" t="s">
         <v>2070</v>
       </c>
-      <c r="D716" s="212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" s="210" customFormat="1">
-      <c r="A717" s="208">
-        <v>716</v>
-      </c>
-      <c r="B717" s="209">
-        <v>499</v>
-      </c>
-      <c r="C717" s="211" t="s">
+      <c r="D737" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" s="209" customFormat="1">
+      <c r="A738" s="202">
+        <v>737</v>
+      </c>
+      <c r="B738" s="208">
+        <v>501</v>
+      </c>
+      <c r="C738" s="210" t="s">
         <v>2074</v>
       </c>
-      <c r="D717" s="212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4" s="210" customFormat="1">
-      <c r="A718" s="203">
-        <v>717</v>
-      </c>
-      <c r="B718" s="209">
-        <v>499</v>
-      </c>
-      <c r="C718" s="211" t="s">
+      <c r="D738" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" s="209" customFormat="1">
+      <c r="A739" s="202">
+        <v>738</v>
+      </c>
+      <c r="B739" s="208">
+        <v>501</v>
+      </c>
+      <c r="C739" s="210" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D739" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" s="209" customFormat="1">
+      <c r="A740" s="202">
+        <v>739</v>
+      </c>
+      <c r="B740" s="208">
+        <v>501</v>
+      </c>
+      <c r="C740" s="210" t="s">
         <v>2071</v>
       </c>
-      <c r="D718" s="212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" s="210" customFormat="1">
-      <c r="A719" s="203">
-        <v>718</v>
-      </c>
-      <c r="B719" s="209">
-        <v>499</v>
-      </c>
-      <c r="C719" s="211" t="s">
+      <c r="D740" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" s="209" customFormat="1">
+      <c r="A741" s="202">
+        <v>740</v>
+      </c>
+      <c r="B741" s="208">
+        <v>501</v>
+      </c>
+      <c r="C741" s="210" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D741" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" s="204" customFormat="1">
+      <c r="A742" s="207">
+        <v>741</v>
+      </c>
+      <c r="B742" s="202">
+        <v>502</v>
+      </c>
+      <c r="C742" s="207" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D742" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" s="204" customFormat="1">
+      <c r="A743" s="202">
+        <v>742</v>
+      </c>
+      <c r="B743" s="202">
+        <v>502</v>
+      </c>
+      <c r="C743" s="207" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D743" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" s="204" customFormat="1">
+      <c r="A744" s="202">
+        <v>743</v>
+      </c>
+      <c r="B744" s="202">
+        <v>502</v>
+      </c>
+      <c r="C744" s="207" t="s">
         <v>2072</v>
       </c>
-      <c r="D719" s="212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720" spans="1:4" s="210" customFormat="1">
-      <c r="A720" s="203">
-        <v>719</v>
-      </c>
-      <c r="B720" s="209">
-        <v>499</v>
-      </c>
-      <c r="C720" s="211" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D720" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="1:4" s="210" customFormat="1">
-      <c r="A721" s="203">
-        <v>720</v>
-      </c>
-      <c r="B721" s="209">
-        <v>499</v>
-      </c>
-      <c r="C721" s="211" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D721" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="1:4" s="210" customFormat="1">
-      <c r="A722" s="203">
-        <v>721</v>
-      </c>
-      <c r="B722" s="209">
-        <v>499</v>
-      </c>
-      <c r="C722" s="211" t="s">
+      <c r="D744" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" s="204" customFormat="1">
+      <c r="A745" s="202">
+        <v>744</v>
+      </c>
+      <c r="B745" s="202">
+        <v>502</v>
+      </c>
+      <c r="C745" s="207" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D745" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" s="204" customFormat="1">
+      <c r="A746" s="202">
+        <v>745</v>
+      </c>
+      <c r="B746" s="202">
+        <v>502</v>
+      </c>
+      <c r="C746" s="207" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D746" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" s="204" customFormat="1">
+      <c r="A747" s="202">
+        <v>746</v>
+      </c>
+      <c r="B747" s="202">
+        <v>502</v>
+      </c>
+      <c r="C747" s="207" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D747" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" s="204" customFormat="1">
+      <c r="A748" s="202">
+        <v>747</v>
+      </c>
+      <c r="B748" s="202">
+        <v>502</v>
+      </c>
+      <c r="C748" s="207" t="s">
         <v>2073</v>
       </c>
-      <c r="D722" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:4" s="210" customFormat="1">
-      <c r="A723" s="203">
-        <v>722</v>
-      </c>
-      <c r="B723" s="209">
-        <v>499</v>
-      </c>
-      <c r="C723" s="211" t="s">
-        <v>2097</v>
-      </c>
-      <c r="D723" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="1:4" s="205" customFormat="1">
-      <c r="A724" s="203">
-        <v>723</v>
-      </c>
-      <c r="B724" s="203">
-        <v>500</v>
-      </c>
-      <c r="C724" s="208" t="s">
+      <c r="D748" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" s="204" customFormat="1">
+      <c r="A749" s="202">
+        <v>748</v>
+      </c>
+      <c r="B749" s="202">
+        <v>502</v>
+      </c>
+      <c r="C749" s="207" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D749" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" s="204" customFormat="1">
+      <c r="A750" s="202">
+        <v>749</v>
+      </c>
+      <c r="B750" s="202">
+        <v>502</v>
+      </c>
+      <c r="C750" s="207" t="s">
+        <v>389</v>
+      </c>
+      <c r="D750" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" s="209" customFormat="1">
+      <c r="A751" s="207">
+        <v>750</v>
+      </c>
+      <c r="B751" s="208">
+        <v>503</v>
+      </c>
+      <c r="C751" s="210" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D751" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" s="209" customFormat="1">
+      <c r="A752" s="202">
+        <v>751</v>
+      </c>
+      <c r="B752" s="208">
+        <v>503</v>
+      </c>
+      <c r="C752" s="210" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D752" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" s="209" customFormat="1">
+      <c r="A753" s="202">
+        <v>752</v>
+      </c>
+      <c r="B753" s="208">
+        <v>503</v>
+      </c>
+      <c r="C753" s="210" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D753" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" s="209" customFormat="1">
+      <c r="A754" s="202">
+        <v>753</v>
+      </c>
+      <c r="B754" s="208">
+        <v>503</v>
+      </c>
+      <c r="C754" s="210" t="s">
         <v>2069</v>
       </c>
-      <c r="D724" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="1:4" s="205" customFormat="1">
-      <c r="A725" s="208">
-        <v>724</v>
-      </c>
-      <c r="B725" s="203">
-        <v>500</v>
-      </c>
-      <c r="C725" s="208" t="s">
+      <c r="D754" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" s="209" customFormat="1">
+      <c r="A755" s="202">
+        <v>754</v>
+      </c>
+      <c r="B755" s="208">
+        <v>503</v>
+      </c>
+      <c r="C755" s="210" t="s">
         <v>2070</v>
       </c>
-      <c r="D725" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726" spans="1:4" s="205" customFormat="1">
-      <c r="A726" s="203">
-        <v>725</v>
-      </c>
-      <c r="B726" s="203">
-        <v>500</v>
-      </c>
-      <c r="C726" s="208" t="s">
+      <c r="D755" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" s="209" customFormat="1">
+      <c r="A756" s="202">
+        <v>755</v>
+      </c>
+      <c r="B756" s="208">
+        <v>503</v>
+      </c>
+      <c r="C756" s="210" t="s">
         <v>2074</v>
       </c>
-      <c r="D726" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727" spans="1:4" s="205" customFormat="1">
-      <c r="A727" s="203">
-        <v>726</v>
-      </c>
-      <c r="B727" s="203">
-        <v>500</v>
-      </c>
-      <c r="C727" s="208" t="s">
+      <c r="D756" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" s="209" customFormat="1">
+      <c r="A757" s="202">
+        <v>756</v>
+      </c>
+      <c r="B757" s="208">
+        <v>503</v>
+      </c>
+      <c r="C757" s="210" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D757" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" s="209" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A758" s="202">
+        <v>757</v>
+      </c>
+      <c r="B758" s="208">
+        <v>503</v>
+      </c>
+      <c r="C758" s="210" t="s">
         <v>2071</v>
       </c>
-      <c r="D727" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:4" s="205" customFormat="1">
-      <c r="A728" s="203">
-        <v>727</v>
-      </c>
-      <c r="B728" s="203">
-        <v>500</v>
-      </c>
-      <c r="C728" s="208" t="s">
+      <c r="D758" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" s="209" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A759" s="207">
+        <v>758</v>
+      </c>
+      <c r="B759" s="208">
+        <v>503</v>
+      </c>
+      <c r="C759" s="210" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D759" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" s="204" customFormat="1">
+      <c r="A760" s="202">
+        <v>759</v>
+      </c>
+      <c r="B760" s="202">
+        <v>504</v>
+      </c>
+      <c r="C760" s="207" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D760" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" s="204" customFormat="1">
+      <c r="A761" s="202">
+        <v>760</v>
+      </c>
+      <c r="B761" s="202">
+        <v>504</v>
+      </c>
+      <c r="C761" s="207" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D761" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" s="204" customFormat="1">
+      <c r="A762" s="202">
+        <v>761</v>
+      </c>
+      <c r="B762" s="202">
+        <v>504</v>
+      </c>
+      <c r="C762" s="207" t="s">
         <v>2072</v>
       </c>
-      <c r="D728" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:4" s="205" customFormat="1">
-      <c r="A729" s="203">
-        <v>728</v>
-      </c>
-      <c r="B729" s="203">
-        <v>500</v>
-      </c>
-      <c r="C729" s="208" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D729" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:4" s="205" customFormat="1">
-      <c r="A730" s="203">
-        <v>729</v>
-      </c>
-      <c r="B730" s="203">
-        <v>500</v>
-      </c>
-      <c r="C730" s="208" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D730" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="1:4" s="205" customFormat="1">
-      <c r="A731" s="203">
-        <v>730</v>
-      </c>
-      <c r="B731" s="203">
-        <v>500</v>
-      </c>
-      <c r="C731" s="208" t="s">
+      <c r="D762" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" s="204" customFormat="1">
+      <c r="A763" s="202">
+        <v>762</v>
+      </c>
+      <c r="B763" s="202">
+        <v>504</v>
+      </c>
+      <c r="C763" s="207" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D763" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" s="204" customFormat="1">
+      <c r="A764" s="202">
+        <v>763</v>
+      </c>
+      <c r="B764" s="202">
+        <v>504</v>
+      </c>
+      <c r="C764" s="207" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D764" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" s="204" customFormat="1">
+      <c r="A765" s="202">
+        <v>764</v>
+      </c>
+      <c r="B765" s="202">
+        <v>504</v>
+      </c>
+      <c r="C765" s="207" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D765" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" s="204" customFormat="1">
+      <c r="A766" s="202">
+        <v>765</v>
+      </c>
+      <c r="B766" s="202">
+        <v>504</v>
+      </c>
+      <c r="C766" s="207" t="s">
         <v>2073</v>
       </c>
-      <c r="D731" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732" spans="1:4" s="205" customFormat="1">
-      <c r="A732" s="203">
-        <v>731</v>
-      </c>
-      <c r="B732" s="203">
-        <v>500</v>
-      </c>
-      <c r="C732" s="208" t="s">
+      <c r="D766" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" s="204" customFormat="1">
+      <c r="A767" s="202">
+        <v>766</v>
+      </c>
+      <c r="B767" s="202">
+        <v>504</v>
+      </c>
+      <c r="C767" s="207" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D767" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" s="204" customFormat="1">
+      <c r="A768" s="207">
+        <v>767</v>
+      </c>
+      <c r="B768" s="202">
+        <v>504</v>
+      </c>
+      <c r="C768" s="207" t="s">
         <v>2098</v>
       </c>
-      <c r="D732" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733" spans="1:4" s="210" customFormat="1">
-      <c r="A733" s="203">
-        <v>732</v>
-      </c>
-      <c r="B733" s="209">
-        <v>501</v>
-      </c>
-      <c r="C733" s="211" t="s">
+      <c r="D768" s="202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" s="209" customFormat="1">
+      <c r="A769" s="202">
+        <v>768</v>
+      </c>
+      <c r="B769" s="208">
+        <v>505</v>
+      </c>
+      <c r="C769" s="210" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D769" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" s="209" customFormat="1">
+      <c r="A770" s="202">
+        <v>769</v>
+      </c>
+      <c r="B770" s="208">
+        <v>505</v>
+      </c>
+      <c r="C770" s="210" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D770" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" s="209" customFormat="1">
+      <c r="A771" s="202">
+        <v>770</v>
+      </c>
+      <c r="B771" s="208">
+        <v>505</v>
+      </c>
+      <c r="C771" s="210" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D771" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" s="209" customFormat="1">
+      <c r="A772" s="202">
+        <v>771</v>
+      </c>
+      <c r="B772" s="208">
+        <v>505</v>
+      </c>
+      <c r="C772" s="210" t="s">
         <v>2069</v>
       </c>
-      <c r="D733" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="1:4" s="210" customFormat="1">
-      <c r="A734" s="208">
-        <v>733</v>
-      </c>
-      <c r="B734" s="209">
-        <v>501</v>
-      </c>
-      <c r="C734" s="211" t="s">
+      <c r="D772" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" s="209" customFormat="1">
+      <c r="A773" s="202">
+        <v>772</v>
+      </c>
+      <c r="B773" s="208">
+        <v>505</v>
+      </c>
+      <c r="C773" s="210" t="s">
         <v>2070</v>
       </c>
-      <c r="D734" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="1:4" s="210" customFormat="1">
-      <c r="A735" s="203">
-        <v>734</v>
-      </c>
-      <c r="B735" s="209">
-        <v>501</v>
-      </c>
-      <c r="C735" s="211" t="s">
+      <c r="D773" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" s="209" customFormat="1">
+      <c r="A774" s="202">
+        <v>773</v>
+      </c>
+      <c r="B774" s="208">
+        <v>505</v>
+      </c>
+      <c r="C774" s="210" t="s">
         <v>2074</v>
       </c>
-      <c r="D735" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736" spans="1:4" s="210" customFormat="1">
-      <c r="A736" s="203">
-        <v>735</v>
-      </c>
-      <c r="B736" s="209">
-        <v>501</v>
-      </c>
-      <c r="C736" s="211" t="s">
+      <c r="D774" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" s="209" customFormat="1">
+      <c r="A775" s="202">
+        <v>774</v>
+      </c>
+      <c r="B775" s="208">
+        <v>505</v>
+      </c>
+      <c r="C775" s="210" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D775" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" s="209" customFormat="1">
+      <c r="A776" s="207">
+        <v>775</v>
+      </c>
+      <c r="B776" s="208">
+        <v>505</v>
+      </c>
+      <c r="C776" s="210" t="s">
         <v>2071</v>
       </c>
-      <c r="D736" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737" spans="1:4" s="210" customFormat="1">
-      <c r="A737" s="203">
-        <v>736</v>
-      </c>
-      <c r="B737" s="209">
-        <v>501</v>
-      </c>
-      <c r="C737" s="211" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D737" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738" spans="1:4" s="210" customFormat="1">
-      <c r="A738" s="203">
-        <v>737</v>
-      </c>
-      <c r="B738" s="209">
-        <v>501</v>
-      </c>
-      <c r="C738" s="211" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D738" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739" spans="1:4" s="210" customFormat="1">
-      <c r="A739" s="203">
-        <v>738</v>
-      </c>
-      <c r="B739" s="209">
-        <v>501</v>
-      </c>
-      <c r="C739" s="211" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D739" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740" spans="1:4" s="210" customFormat="1">
-      <c r="A740" s="203">
-        <v>739</v>
-      </c>
-      <c r="B740" s="209">
-        <v>501</v>
-      </c>
-      <c r="C740" s="211" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D740" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741" spans="1:4" s="210" customFormat="1">
-      <c r="A741" s="203">
-        <v>740</v>
-      </c>
-      <c r="B741" s="209">
-        <v>501</v>
-      </c>
-      <c r="C741" s="211" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D741" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4" s="205" customFormat="1">
-      <c r="A742" s="208">
-        <v>741</v>
-      </c>
-      <c r="B742" s="203">
-        <v>502</v>
-      </c>
-      <c r="C742" s="208" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D742" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:4" s="205" customFormat="1">
-      <c r="A743" s="203">
-        <v>742</v>
-      </c>
-      <c r="B743" s="203">
-        <v>502</v>
-      </c>
-      <c r="C743" s="208" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D743" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="1:4" s="205" customFormat="1">
-      <c r="A744" s="203">
-        <v>743</v>
-      </c>
-      <c r="B744" s="203">
-        <v>502</v>
-      </c>
-      <c r="C744" s="208" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D744" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="1:4" s="205" customFormat="1">
-      <c r="A745" s="203">
-        <v>744</v>
-      </c>
-      <c r="B745" s="203">
-        <v>502</v>
-      </c>
-      <c r="C745" s="208" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D745" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746" spans="1:4" s="205" customFormat="1">
-      <c r="A746" s="203">
-        <v>745</v>
-      </c>
-      <c r="B746" s="203">
-        <v>502</v>
-      </c>
-      <c r="C746" s="208" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D746" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747" spans="1:4" s="205" customFormat="1">
-      <c r="A747" s="203">
-        <v>746</v>
-      </c>
-      <c r="B747" s="203">
-        <v>502</v>
-      </c>
-      <c r="C747" s="208" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D747" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4" s="205" customFormat="1">
-      <c r="A748" s="203">
-        <v>747</v>
-      </c>
-      <c r="B748" s="203">
-        <v>502</v>
-      </c>
-      <c r="C748" s="208" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D748" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749" spans="1:4" s="205" customFormat="1">
-      <c r="A749" s="203">
-        <v>748</v>
-      </c>
-      <c r="B749" s="203">
-        <v>502</v>
-      </c>
-      <c r="C749" s="208" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D749" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750" spans="1:4" s="205" customFormat="1">
-      <c r="A750" s="203">
-        <v>749</v>
-      </c>
-      <c r="B750" s="203">
-        <v>502</v>
-      </c>
-      <c r="C750" s="208" t="s">
-        <v>389</v>
-      </c>
-      <c r="D750" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751" spans="1:4" s="210" customFormat="1">
-      <c r="A751" s="208">
-        <v>750</v>
-      </c>
-      <c r="B751" s="209">
-        <v>503</v>
-      </c>
-      <c r="C751" s="211" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D751" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:4" s="210" customFormat="1">
-      <c r="A752" s="203">
-        <v>751</v>
-      </c>
-      <c r="B752" s="209">
-        <v>503</v>
-      </c>
-      <c r="C752" s="211" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D752" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="1:4" s="210" customFormat="1">
-      <c r="A753" s="203">
-        <v>752</v>
-      </c>
-      <c r="B753" s="209">
-        <v>503</v>
-      </c>
-      <c r="C753" s="211" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D753" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="1:4" s="210" customFormat="1">
-      <c r="A754" s="203">
-        <v>753</v>
-      </c>
-      <c r="B754" s="209">
-        <v>503</v>
-      </c>
-      <c r="C754" s="211" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D754" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:4" s="210" customFormat="1">
-      <c r="A755" s="203">
-        <v>754</v>
-      </c>
-      <c r="B755" s="209">
-        <v>503</v>
-      </c>
-      <c r="C755" s="211" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D755" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756" spans="1:4" s="210" customFormat="1">
-      <c r="A756" s="203">
-        <v>755</v>
-      </c>
-      <c r="B756" s="209">
-        <v>503</v>
-      </c>
-      <c r="C756" s="211" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D756" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757" spans="1:4" s="210" customFormat="1">
-      <c r="A757" s="203">
-        <v>756</v>
-      </c>
-      <c r="B757" s="209">
-        <v>503</v>
-      </c>
-      <c r="C757" s="211" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D757" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4" s="210" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A758" s="203">
-        <v>757</v>
-      </c>
-      <c r="B758" s="209">
-        <v>503</v>
-      </c>
-      <c r="C758" s="211" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D758" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759" spans="1:4" s="210" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A759" s="208">
-        <v>758</v>
-      </c>
-      <c r="B759" s="209">
-        <v>503</v>
-      </c>
-      <c r="C759" s="211" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D759" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760" spans="1:4" s="205" customFormat="1">
-      <c r="A760" s="203">
-        <v>759</v>
-      </c>
-      <c r="B760" s="203">
-        <v>504</v>
-      </c>
-      <c r="C760" s="208" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D760" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:4" s="205" customFormat="1">
-      <c r="A761" s="203">
-        <v>760</v>
-      </c>
-      <c r="B761" s="203">
-        <v>504</v>
-      </c>
-      <c r="C761" s="208" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D761" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="1:4" s="205" customFormat="1">
-      <c r="A762" s="203">
-        <v>761</v>
-      </c>
-      <c r="B762" s="203">
-        <v>504</v>
-      </c>
-      <c r="C762" s="208" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D762" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:4" s="205" customFormat="1">
-      <c r="A763" s="203">
-        <v>762</v>
-      </c>
-      <c r="B763" s="203">
-        <v>504</v>
-      </c>
-      <c r="C763" s="208" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D763" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="1:4" s="205" customFormat="1">
-      <c r="A764" s="203">
-        <v>763</v>
-      </c>
-      <c r="B764" s="203">
-        <v>504</v>
-      </c>
-      <c r="C764" s="208" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D764" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="1:4" s="205" customFormat="1">
-      <c r="A765" s="203">
-        <v>764</v>
-      </c>
-      <c r="B765" s="203">
-        <v>504</v>
-      </c>
-      <c r="C765" s="208" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D765" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766" spans="1:4" s="205" customFormat="1">
-      <c r="A766" s="203">
-        <v>765</v>
-      </c>
-      <c r="B766" s="203">
-        <v>504</v>
-      </c>
-      <c r="C766" s="208" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D766" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="1:4" s="205" customFormat="1">
-      <c r="A767" s="203">
-        <v>766</v>
-      </c>
-      <c r="B767" s="203">
-        <v>504</v>
-      </c>
-      <c r="C767" s="208" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D767" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768" spans="1:4" s="205" customFormat="1">
-      <c r="A768" s="208">
-        <v>767</v>
-      </c>
-      <c r="B768" s="203">
-        <v>504</v>
-      </c>
-      <c r="C768" s="208" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D768" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="1:4" s="210" customFormat="1">
-      <c r="A769" s="203">
-        <v>768</v>
-      </c>
-      <c r="B769" s="209">
+      <c r="D776" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" s="209" customFormat="1">
+      <c r="A777" s="202">
+        <v>776</v>
+      </c>
+      <c r="B777" s="208">
         <v>505</v>
       </c>
-      <c r="C769" s="211" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D769" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="1:4" s="210" customFormat="1">
-      <c r="A770" s="203">
-        <v>769</v>
-      </c>
-      <c r="B770" s="209">
-        <v>505</v>
-      </c>
-      <c r="C770" s="211" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D770" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="1:4" s="210" customFormat="1">
-      <c r="A771" s="203">
-        <v>770</v>
-      </c>
-      <c r="B771" s="209">
-        <v>505</v>
-      </c>
-      <c r="C771" s="211" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D771" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:4" s="210" customFormat="1">
-      <c r="A772" s="203">
-        <v>771</v>
-      </c>
-      <c r="B772" s="209">
-        <v>505</v>
-      </c>
-      <c r="C772" s="211" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D772" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="1:4" s="210" customFormat="1">
-      <c r="A773" s="203">
-        <v>772</v>
-      </c>
-      <c r="B773" s="209">
-        <v>505</v>
-      </c>
-      <c r="C773" s="211" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D773" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774" spans="1:4" s="210" customFormat="1">
-      <c r="A774" s="203">
-        <v>773</v>
-      </c>
-      <c r="B774" s="209">
-        <v>505</v>
-      </c>
-      <c r="C774" s="211" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D774" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="1:4" s="210" customFormat="1">
-      <c r="A775" s="203">
-        <v>774</v>
-      </c>
-      <c r="B775" s="209">
-        <v>505</v>
-      </c>
-      <c r="C775" s="211" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D775" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776" spans="1:4" s="210" customFormat="1">
-      <c r="A776" s="208">
-        <v>775</v>
-      </c>
-      <c r="B776" s="209">
-        <v>505</v>
-      </c>
-      <c r="C776" s="211" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D776" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777" spans="1:4" s="210" customFormat="1">
-      <c r="A777" s="203">
-        <v>776</v>
-      </c>
-      <c r="B777" s="209">
-        <v>505</v>
-      </c>
-      <c r="C777" s="211" t="s">
-        <v>2100</v>
-      </c>
-      <c r="D777" s="209">
-        <v>0</v>
+      <c r="C777" s="210" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D777" s="208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" s="149" customFormat="1">
+      <c r="A778" s="147">
+        <v>777</v>
+      </c>
+      <c r="B778" s="147">
+        <v>506</v>
+      </c>
+      <c r="C778" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D778" s="232">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" s="149" customFormat="1">
+      <c r="A779" s="192">
+        <v>778</v>
+      </c>
+      <c r="B779" s="147">
+        <v>507</v>
+      </c>
+      <c r="C779" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D779" s="232">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" s="149" customFormat="1">
+      <c r="A780" s="147">
+        <v>779</v>
+      </c>
+      <c r="B780" s="147">
+        <v>508</v>
+      </c>
+      <c r="C780" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D780" s="232">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" s="149" customFormat="1">
+      <c r="A781" s="147">
+        <v>780</v>
+      </c>
+      <c r="B781" s="147">
+        <v>509</v>
+      </c>
+      <c r="C781" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D781" s="232">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" s="149" customFormat="1">
+      <c r="A782" s="192">
+        <v>781</v>
+      </c>
+      <c r="B782" s="147">
+        <v>510</v>
+      </c>
+      <c r="C782" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D782" s="232">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" s="149" customFormat="1">
+      <c r="A783" s="147">
+        <v>782</v>
+      </c>
+      <c r="B783" s="147">
+        <v>511</v>
+      </c>
+      <c r="C783" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D783" s="232">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" s="149" customFormat="1">
+      <c r="A784" s="147">
+        <v>783</v>
+      </c>
+      <c r="B784" s="147">
+        <v>512</v>
+      </c>
+      <c r="C784" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D784" s="232">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" s="149" customFormat="1">
+      <c r="A785" s="192">
+        <v>784</v>
+      </c>
+      <c r="B785" s="147">
+        <v>513</v>
+      </c>
+      <c r="C785" s="192" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D785" s="232">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -59045,7 +59826,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M484"/>
+  <dimension ref="A1:M488"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C463" activePane="bottomRight" state="frozen"/>
@@ -64349,7 +65130,7 @@
         <v>166</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D276" s="128">
         <v>11</v>
@@ -65774,7 +66555,7 @@
         <v>1328</v>
       </c>
       <c r="D359" s="150" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -66376,7 +67157,7 @@
         <v>1583</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -66859,7 +67640,7 @@
         <v>1583</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -67386,7 +68167,7 @@
         <v>1075</v>
       </c>
       <c r="D453" s="15" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="E453" s="11">
         <v>2</v>
@@ -67403,7 +68184,7 @@
         <v>738</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E454" s="11">
         <v>3</v>
@@ -67416,11 +68197,11 @@
       <c r="B455" s="146">
         <v>334</v>
       </c>
-      <c r="C455" s="193" t="s">
-        <v>2000</v>
+      <c r="C455" s="192" t="s">
+        <v>1998</v>
       </c>
       <c r="D455" s="148" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E455" s="147">
         <v>2</v>
@@ -67435,10 +68216,10 @@
         <v>335</v>
       </c>
       <c r="C456" s="143" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E456" s="139">
         <v>3</v>
@@ -67453,10 +68234,10 @@
         <v>336</v>
       </c>
       <c r="C457" s="143" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D457" s="144" t="s">
         <v>1840</v>
-      </c>
-      <c r="D457" s="144" t="s">
-        <v>1841</v>
       </c>
       <c r="E457" s="139">
         <v>2</v>
@@ -67471,10 +68252,10 @@
         <v>337</v>
       </c>
       <c r="C458" s="143" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E458" s="139">
         <v>3</v>
@@ -67489,10 +68270,10 @@
         <v>338</v>
       </c>
       <c r="C459" s="143" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D459" s="144" t="s">
         <v>1846</v>
-      </c>
-      <c r="D459" s="144" t="s">
-        <v>1847</v>
       </c>
       <c r="E459" s="139">
         <v>2</v>
@@ -67507,10 +68288,10 @@
         <v>338</v>
       </c>
       <c r="C460" s="143" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D460" s="144" t="s">
         <v>1844</v>
-      </c>
-      <c r="D460" s="144" t="s">
-        <v>1845</v>
       </c>
       <c r="E460" s="139">
         <v>3</v>
@@ -67525,10 +68306,10 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D461" s="144" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E461" s="139">
         <v>3</v>
@@ -67543,10 +68324,10 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D462" s="144" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E462" s="139">
         <v>3</v>
@@ -67561,10 +68342,10 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D463" s="144" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E463" s="139">
         <v>3</v>
@@ -67579,10 +68360,10 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D464" s="144" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E464" s="139">
         <v>2</v>
@@ -67600,7 +68381,7 @@
         <v>730</v>
       </c>
       <c r="D465" s="162" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E465" s="155">
         <v>2</v>
@@ -67618,7 +68399,7 @@
         <v>730</v>
       </c>
       <c r="D466" s="162" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -67636,7 +68417,7 @@
         <v>730</v>
       </c>
       <c r="D467" s="162" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -67654,7 +68435,7 @@
         <v>730</v>
       </c>
       <c r="D468" s="162" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -67672,7 +68453,7 @@
         <v>730</v>
       </c>
       <c r="D469" s="162" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
@@ -67687,10 +68468,10 @@
         <v>347</v>
       </c>
       <c r="C470" s="157" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D470" s="162" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -67705,33 +68486,33 @@
         <v>348</v>
       </c>
       <c r="C471" s="157" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D471" s="160" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
       </c>
       <c r="F471" s="155"/>
     </row>
-    <row r="472" spans="1:6" s="184" customFormat="1">
-      <c r="A472" s="181">
+    <row r="472" spans="1:6" s="183" customFormat="1">
+      <c r="A472" s="180">
         <v>501</v>
       </c>
-      <c r="B472" s="181">
+      <c r="B472" s="180">
         <v>349</v>
       </c>
-      <c r="C472" s="182" t="s">
+      <c r="C472" s="181" t="s">
         <v>1583</v>
       </c>
-      <c r="D472" s="183" t="s">
-        <v>1990</v>
-      </c>
-      <c r="E472" s="180">
+      <c r="D472" s="182" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E472" s="179">
         <v>2</v>
       </c>
-      <c r="F472" s="180"/>
+      <c r="F472" s="179"/>
     </row>
     <row r="473" spans="1:6" s="154" customFormat="1">
       <c r="A473" s="152">
@@ -67744,7 +68525,7 @@
         <v>717</v>
       </c>
       <c r="D473" s="162" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E473" s="155">
         <v>3</v>
@@ -67759,10 +68540,10 @@
         <v>351</v>
       </c>
       <c r="C474" s="157" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D474" s="162" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E474" s="155">
         <v>3</v>
@@ -67777,10 +68558,10 @@
         <v>351</v>
       </c>
       <c r="C475" s="157" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D475" s="162" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E475" s="155">
         <v>3</v>
@@ -67788,7 +68569,7 @@
       <c r="F475" s="155"/>
     </row>
     <row r="476" spans="1:6" s="154" customFormat="1">
-      <c r="A476" s="181">
+      <c r="A476" s="180">
         <v>505</v>
       </c>
       <c r="B476" s="152">
@@ -67798,7 +68579,7 @@
         <v>717</v>
       </c>
       <c r="D476" s="162" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E476" s="155">
         <v>3</v>
@@ -67813,10 +68594,10 @@
         <v>353</v>
       </c>
       <c r="C477" s="157" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D477" s="162" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E477" s="155">
         <v>3</v>
@@ -67831,10 +68612,10 @@
         <v>353</v>
       </c>
       <c r="C478" s="157" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D478" s="162" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E478" s="155">
         <v>3</v>
@@ -67852,39 +68633,174 @@
         <v>1418</v>
       </c>
       <c r="D479" s="162" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E479" s="155">
         <v>3</v>
       </c>
       <c r="F479" s="155"/>
     </row>
-    <row r="480" spans="1:6" s="184" customFormat="1">
-      <c r="A480" s="181">
+    <row r="480" spans="1:6" s="183" customFormat="1">
+      <c r="A480" s="180">
         <v>509</v>
       </c>
-      <c r="B480" s="181">
+      <c r="B480" s="180">
         <v>355</v>
       </c>
-      <c r="C480" s="180" t="s">
-        <v>680</v>
-      </c>
-      <c r="D480" s="183" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E480" s="180">
+      <c r="C480" s="181" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D480" s="182" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E480" s="179">
         <v>2</v>
       </c>
-      <c r="F480" s="180"/>
-    </row>
-    <row r="482" spans="3:3">
-      <c r="C482" s="13"/>
-    </row>
-    <row r="483" spans="3:3">
-      <c r="C483" s="13"/>
-    </row>
-    <row r="484" spans="3:3">
-      <c r="C484" s="13"/>
+      <c r="F480" s="179"/>
+    </row>
+    <row r="481" spans="1:6" s="233" customFormat="1">
+      <c r="A481" s="232">
+        <v>510</v>
+      </c>
+      <c r="B481" s="232">
+        <v>356</v>
+      </c>
+      <c r="C481" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D481" s="146">
+        <v>2</v>
+      </c>
+      <c r="E481" s="194">
+        <v>2</v>
+      </c>
+      <c r="F481" s="194"/>
+    </row>
+    <row r="482" spans="1:6" s="233" customFormat="1">
+      <c r="A482" s="232">
+        <v>511</v>
+      </c>
+      <c r="B482" s="232">
+        <v>357</v>
+      </c>
+      <c r="C482" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D482" s="146">
+        <v>3</v>
+      </c>
+      <c r="E482" s="194">
+        <v>2</v>
+      </c>
+      <c r="F482" s="194"/>
+    </row>
+    <row r="483" spans="1:6" s="233" customFormat="1">
+      <c r="A483" s="232">
+        <v>512</v>
+      </c>
+      <c r="B483" s="232">
+        <v>358</v>
+      </c>
+      <c r="C483" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D483" s="146">
+        <v>4</v>
+      </c>
+      <c r="E483" s="194">
+        <v>2</v>
+      </c>
+      <c r="F483" s="194"/>
+    </row>
+    <row r="484" spans="1:6" s="233" customFormat="1">
+      <c r="A484" s="232">
+        <v>513</v>
+      </c>
+      <c r="B484" s="232">
+        <v>359</v>
+      </c>
+      <c r="C484" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D484" s="146">
+        <v>5</v>
+      </c>
+      <c r="E484" s="194">
+        <v>2</v>
+      </c>
+      <c r="F484" s="194"/>
+    </row>
+    <row r="485" spans="1:6" s="233" customFormat="1">
+      <c r="A485" s="232">
+        <v>514</v>
+      </c>
+      <c r="B485" s="232">
+        <v>360</v>
+      </c>
+      <c r="C485" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D485" s="146">
+        <v>6</v>
+      </c>
+      <c r="E485" s="194">
+        <v>2</v>
+      </c>
+      <c r="F485" s="194"/>
+    </row>
+    <row r="486" spans="1:6" s="233" customFormat="1">
+      <c r="A486" s="232">
+        <v>515</v>
+      </c>
+      <c r="B486" s="232">
+        <v>361</v>
+      </c>
+      <c r="C486" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D486" s="146">
+        <v>107</v>
+      </c>
+      <c r="E486" s="194">
+        <v>2</v>
+      </c>
+      <c r="F486" s="194"/>
+    </row>
+    <row r="487" spans="1:6" s="233" customFormat="1">
+      <c r="A487" s="232">
+        <v>516</v>
+      </c>
+      <c r="B487" s="232">
+        <v>362</v>
+      </c>
+      <c r="C487" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D487" s="146">
+        <v>108</v>
+      </c>
+      <c r="E487" s="194">
+        <v>2</v>
+      </c>
+      <c r="F487" s="194"/>
+    </row>
+    <row r="488" spans="1:6" s="233" customFormat="1">
+      <c r="A488" s="232">
+        <v>517</v>
+      </c>
+      <c r="B488" s="232">
+        <v>363</v>
+      </c>
+      <c r="C488" s="194" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D488" s="146">
+        <v>110</v>
+      </c>
+      <c r="E488" s="194">
+        <v>2</v>
+      </c>
+      <c r="F488" s="194"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -67896,13 +68812,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1245"/>
+  <dimension ref="A1:W1253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C971" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1001" sqref="F1001:F1003"/>
+      <selection pane="bottomRight" activeCell="C1257" sqref="C1257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -76157,7 +77073,7 @@
         <v>794</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -86973,7 +87889,7 @@
         <v>1586</v>
       </c>
       <c r="E925" s="15" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F925" s="11">
         <v>1</v>
@@ -86994,7 +87910,7 @@
         <v>1586</v>
       </c>
       <c r="E926" s="15" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F926" s="11">
         <v>1</v>
@@ -87015,7 +87931,7 @@
         <v>1586</v>
       </c>
       <c r="E927" s="15" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F927" s="11">
         <v>1</v>
@@ -87036,7 +87952,7 @@
         <v>1586</v>
       </c>
       <c r="E928" s="15" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F928" s="11">
         <v>1</v>
@@ -87057,7 +87973,7 @@
         <v>1586</v>
       </c>
       <c r="E929" s="15" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="F929" s="11">
         <v>1</v>
@@ -87078,7 +87994,7 @@
         <v>1586</v>
       </c>
       <c r="E930" s="15" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F930" s="11">
         <v>1</v>
@@ -87099,7 +88015,7 @@
         <v>1586</v>
       </c>
       <c r="E931" s="15" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F931" s="11">
         <v>1</v>
@@ -87120,7 +88036,7 @@
         <v>1586</v>
       </c>
       <c r="E932" s="15" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F932" s="11">
         <v>1</v>
@@ -87141,7 +88057,7 @@
         <v>1586</v>
       </c>
       <c r="E933" s="15" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F933" s="11">
         <v>1</v>
@@ -87162,7 +88078,7 @@
         <v>1586</v>
       </c>
       <c r="E934" s="15" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F934" s="11">
         <v>1</v>
@@ -87183,7 +88099,7 @@
         <v>1586</v>
       </c>
       <c r="E935" s="15" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F935" s="11">
         <v>1</v>
@@ -87204,7 +88120,7 @@
         <v>1586</v>
       </c>
       <c r="E936" s="15" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F936" s="11">
         <v>1</v>
@@ -87225,7 +88141,7 @@
         <v>1586</v>
       </c>
       <c r="E937" s="15" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F937" s="11">
         <v>1</v>
@@ -87246,7 +88162,7 @@
         <v>1586</v>
       </c>
       <c r="E938" s="15" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F938" s="11">
         <v>1</v>
@@ -87267,7 +88183,7 @@
         <v>1586</v>
       </c>
       <c r="E939" s="15" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F939" s="11">
         <v>1</v>
@@ -90238,7 +91154,7 @@
         <v>876</v>
       </c>
       <c r="E1095" s="64" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F1095" s="1">
         <v>1</v>
@@ -90255,7 +91171,7 @@
         <v>876</v>
       </c>
       <c r="E1096" s="64" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F1096" s="1">
         <v>1</v>
@@ -90272,7 +91188,7 @@
         <v>876</v>
       </c>
       <c r="E1097" s="64" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F1097" s="1">
         <v>1</v>
@@ -90287,7 +91203,7 @@
       </c>
       <c r="C1098" s="10"/>
       <c r="D1098" s="19" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E1098" s="10">
         <v>32500</v>
@@ -90308,7 +91224,7 @@
       </c>
       <c r="C1099" s="10"/>
       <c r="D1099" s="19" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E1099" s="10">
         <v>10000</v>
@@ -90328,10 +91244,10 @@
         <v>730</v>
       </c>
       <c r="D1100" s="14" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E1100" s="64" t="s">
         <v>1770</v>
-      </c>
-      <c r="E1100" s="64" t="s">
-        <v>1771</v>
       </c>
       <c r="F1100" s="1">
         <v>1</v>
@@ -90348,7 +91264,7 @@
         <v>772</v>
       </c>
       <c r="E1101" s="64" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F1101" s="1">
         <v>400</v>
@@ -90365,7 +91281,7 @@
         <v>772</v>
       </c>
       <c r="E1102" s="64" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F1102" s="1">
         <v>350</v>
@@ -90382,7 +91298,7 @@
         <v>772</v>
       </c>
       <c r="E1103" s="64" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F1103" s="1">
         <v>100</v>
@@ -90399,7 +91315,7 @@
         <v>772</v>
       </c>
       <c r="E1104" s="64" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F1104" s="1">
         <v>50</v>
@@ -90416,7 +91332,7 @@
         <v>772</v>
       </c>
       <c r="E1105" s="64" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F1105" s="1">
         <v>30</v>
@@ -90430,10 +91346,10 @@
         <v>731</v>
       </c>
       <c r="D1106" s="14" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E1106" s="64" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="F1106" s="1">
         <v>20</v>
@@ -90447,10 +91363,10 @@
         <v>732</v>
       </c>
       <c r="D1107" s="14" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E1107" s="64" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F1107" s="1">
         <v>80</v>
@@ -90464,10 +91380,10 @@
         <v>732</v>
       </c>
       <c r="D1108" s="14" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E1108" s="64" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F1108" s="1">
         <v>15</v>
@@ -90481,10 +91397,10 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E1109" s="64" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F1109" s="1">
         <v>5</v>
@@ -90502,7 +91418,7 @@
         <v>772</v>
       </c>
       <c r="E1110" s="136" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F1110" s="131">
         <v>1</v>
@@ -90523,7 +91439,7 @@
         <v>772</v>
       </c>
       <c r="E1111" s="136" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F1111" s="131">
         <v>1</v>
@@ -90544,7 +91460,7 @@
         <v>772</v>
       </c>
       <c r="E1112" s="136" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F1112" s="131">
         <v>1</v>
@@ -90586,7 +91502,7 @@
         <v>876</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -90604,10 +91520,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1115" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -90628,7 +91544,7 @@
         <v>876</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -90646,10 +91562,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1117" s="162" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -90670,7 +91586,7 @@
         <v>876</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -90688,10 +91604,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1119" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -90712,7 +91628,7 @@
         <v>876</v>
       </c>
       <c r="E1120" s="162" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -90730,10 +91646,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1121" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -90754,7 +91670,7 @@
         <v>876</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -90772,10 +91688,10 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1123" s="162" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1123" s="155">
         <v>1</v>
@@ -90796,7 +91712,7 @@
         <v>876</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -90814,10 +91730,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1125" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -90838,7 +91754,7 @@
         <v>876</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -90856,10 +91772,10 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1127" s="162" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1127" s="155">
         <v>1</v>
@@ -90880,7 +91796,7 @@
         <v>876</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -90898,10 +91814,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -90922,7 +91838,7 @@
         <v>876</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -90940,10 +91856,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -90964,7 +91880,7 @@
         <v>876</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -90982,10 +91898,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -91006,7 +91922,7 @@
         <v>876</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -91024,10 +91940,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1135" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -91048,7 +91964,7 @@
         <v>876</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -91066,10 +91982,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1137" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -91090,7 +92006,7 @@
         <v>876</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -91108,10 +92024,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1139" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -91132,7 +92048,7 @@
         <v>876</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -91150,10 +92066,10 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1141" s="162" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1141" s="155">
         <v>1</v>
@@ -91174,7 +92090,7 @@
         <v>876</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -91192,10 +92108,10 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1143" s="162" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1143" s="155">
         <v>1</v>
@@ -91216,7 +92132,7 @@
         <v>876</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -91234,10 +92150,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1145" s="162" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -91258,7 +92174,7 @@
         <v>876</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -91276,10 +92192,10 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1147" s="162" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1147" s="155">
         <v>1</v>
@@ -91300,7 +92216,7 @@
         <v>876</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -91318,10 +92234,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -91342,7 +92258,7 @@
         <v>876</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -91360,10 +92276,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -91384,7 +92300,7 @@
         <v>876</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -91402,10 +92318,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -91426,7 +92342,7 @@
         <v>876</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -91444,10 +92360,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -91468,7 +92384,7 @@
         <v>876</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -91486,10 +92402,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -91510,7 +92426,7 @@
         <v>876</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -91528,10 +92444,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -91552,7 +92468,7 @@
         <v>876</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -91570,10 +92486,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -91594,7 +92510,7 @@
         <v>876</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -91612,10 +92528,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -91636,7 +92552,7 @@
         <v>876</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -91654,10 +92570,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -91678,7 +92594,7 @@
         <v>876</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -91696,10 +92612,10 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1167" s="162" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="F1167" s="155">
         <v>1</v>
@@ -91720,7 +92636,7 @@
         <v>876</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -91738,10 +92654,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -91762,7 +92678,7 @@
         <v>876</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -91780,10 +92696,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -91804,7 +92720,7 @@
         <v>876</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -91822,10 +92738,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -91846,7 +92762,7 @@
         <v>876</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -91864,10 +92780,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -91888,7 +92804,7 @@
         <v>876</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -91906,10 +92822,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -91930,7 +92846,7 @@
         <v>876</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -91948,10 +92864,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -91972,7 +92888,7 @@
         <v>876</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -91990,10 +92906,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -92011,10 +92927,10 @@
       </c>
       <c r="C1182" s="155"/>
       <c r="D1182" s="157" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -92032,10 +92948,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -92044,26 +92960,26 @@
       <c r="H1183" s="155"/>
       <c r="I1183" s="155"/>
     </row>
-    <row r="1184" spans="1:9" s="179" customFormat="1">
-      <c r="A1184" s="177">
+    <row r="1184" spans="1:9" s="178" customFormat="1">
+      <c r="A1184" s="176">
         <v>1183</v>
       </c>
-      <c r="B1184" s="178">
+      <c r="B1184" s="177">
         <v>772</v>
       </c>
-      <c r="C1184" s="178"/>
-      <c r="D1184" s="178" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E1184" s="213" t="s">
-        <v>1988</v>
-      </c>
-      <c r="F1184" s="178">
-        <v>1</v>
-      </c>
-      <c r="G1184" s="178"/>
-      <c r="H1184" s="178"/>
-      <c r="I1184" s="178"/>
+      <c r="C1184" s="177"/>
+      <c r="D1184" s="177" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E1184" s="212" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F1184" s="177">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="177"/>
+      <c r="H1184" s="177"/>
+      <c r="I1184" s="177"/>
     </row>
     <row r="1185" spans="1:9" s="171" customFormat="1">
       <c r="A1185" s="166">
@@ -92077,7 +92993,7 @@
         <v>876</v>
       </c>
       <c r="E1185" s="174" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F1185" s="169">
         <v>1</v>
@@ -92098,7 +93014,7 @@
         <v>757</v>
       </c>
       <c r="E1186" s="174" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F1186" s="169">
         <v>1</v>
@@ -92119,7 +93035,7 @@
         <v>757</v>
       </c>
       <c r="E1187" s="174" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F1187" s="169">
         <v>1</v>
@@ -92140,7 +93056,7 @@
         <v>757</v>
       </c>
       <c r="E1188" s="174" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F1188" s="169">
         <v>1</v>
@@ -92158,10 +93074,10 @@
       </c>
       <c r="C1189" s="173"/>
       <c r="D1189" s="169" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E1189" s="174" t="s">
         <v>1965</v>
-      </c>
-      <c r="E1189" s="174" t="s">
-        <v>1966</v>
       </c>
       <c r="F1189" s="169">
         <v>1</v>
@@ -92171,18 +93087,18 @@
       <c r="I1189" s="169"/>
     </row>
     <row r="1190" spans="1:9" s="95" customFormat="1">
-      <c r="A1190" s="221">
+      <c r="A1190" s="220">
         <v>1189</v>
       </c>
-      <c r="B1190" s="222">
+      <c r="B1190" s="221">
         <v>778</v>
       </c>
       <c r="C1190" s="93"/>
       <c r="D1190" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1190" s="150" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F1190" s="93">
         <v>1</v>
@@ -92192,7 +93108,7 @@
       <c r="I1190" s="93"/>
     </row>
     <row r="1191" spans="1:9" s="95" customFormat="1">
-      <c r="A1191" s="221">
+      <c r="A1191" s="220">
         <v>1190</v>
       </c>
       <c r="B1191" s="93">
@@ -92200,10 +93116,10 @@
       </c>
       <c r="C1191" s="93"/>
       <c r="D1191" s="94" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1191" s="150" t="s">
         <v>2015</v>
-      </c>
-      <c r="E1191" s="150" t="s">
-        <v>2017</v>
       </c>
       <c r="F1191" s="93">
         <v>1</v>
@@ -92213,7 +93129,7 @@
       <c r="I1191" s="93"/>
     </row>
     <row r="1192" spans="1:9" s="95" customFormat="1">
-      <c r="A1192" s="221">
+      <c r="A1192" s="220">
         <v>1191</v>
       </c>
       <c r="B1192" s="93">
@@ -92221,10 +93137,10 @@
       </c>
       <c r="C1192" s="93"/>
       <c r="D1192" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1192" s="150" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F1192" s="93">
         <v>1</v>
@@ -92234,7 +93150,7 @@
       <c r="I1192" s="93"/>
     </row>
     <row r="1193" spans="1:9" s="95" customFormat="1">
-      <c r="A1193" s="221">
+      <c r="A1193" s="220">
         <v>1192</v>
       </c>
       <c r="B1193" s="93">
@@ -92242,10 +93158,10 @@
       </c>
       <c r="C1193" s="93"/>
       <c r="D1193" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1193" s="150" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F1193" s="93">
         <v>1</v>
@@ -92255,7 +93171,7 @@
       <c r="I1193" s="93"/>
     </row>
     <row r="1194" spans="1:9" s="95" customFormat="1">
-      <c r="A1194" s="221">
+      <c r="A1194" s="220">
         <v>1193</v>
       </c>
       <c r="B1194" s="93">
@@ -92263,10 +93179,10 @@
       </c>
       <c r="C1194" s="93"/>
       <c r="D1194" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1194" s="150" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F1194" s="93">
         <v>1</v>
@@ -92276,7 +93192,7 @@
       <c r="I1194" s="93"/>
     </row>
     <row r="1195" spans="1:9" s="95" customFormat="1">
-      <c r="A1195" s="221">
+      <c r="A1195" s="220">
         <v>1194</v>
       </c>
       <c r="B1195" s="93">
@@ -92284,10 +93200,10 @@
       </c>
       <c r="C1195" s="93"/>
       <c r="D1195" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1195" s="150" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F1195" s="93">
         <v>1</v>
@@ -92297,18 +93213,18 @@
       <c r="I1195" s="93"/>
     </row>
     <row r="1196" spans="1:9" s="95" customFormat="1">
-      <c r="A1196" s="221">
+      <c r="A1196" s="220">
         <v>1195</v>
       </c>
-      <c r="B1196" s="222">
+      <c r="B1196" s="221">
         <v>784</v>
       </c>
       <c r="C1196" s="93"/>
       <c r="D1196" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1196" s="150" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F1196" s="93">
         <v>1</v>
@@ -92317,155 +93233,155 @@
       <c r="H1196" s="93"/>
       <c r="I1196" s="93"/>
     </row>
-    <row r="1197" spans="1:9" s="219" customFormat="1">
-      <c r="A1197" s="214">
+    <row r="1197" spans="1:9" s="218" customFormat="1">
+      <c r="A1197" s="213">
         <v>1196</v>
       </c>
-      <c r="B1197" s="216">
+      <c r="B1197" s="215">
         <v>785</v>
       </c>
-      <c r="C1197" s="216"/>
-      <c r="D1197" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1197" s="218" t="s">
+      <c r="C1197" s="215"/>
+      <c r="D1197" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1197" s="217" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F1197" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1197" s="215"/>
+      <c r="H1197" s="215"/>
+      <c r="I1197" s="215"/>
+    </row>
+    <row r="1198" spans="1:9" s="218" customFormat="1">
+      <c r="A1198" s="213">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="215">
+        <v>786</v>
+      </c>
+      <c r="C1198" s="215"/>
+      <c r="D1198" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1198" s="217" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F1198" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1198" s="215"/>
+      <c r="H1198" s="215"/>
+      <c r="I1198" s="215"/>
+    </row>
+    <row r="1199" spans="1:9" s="218" customFormat="1">
+      <c r="A1199" s="213">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="215">
+        <v>787</v>
+      </c>
+      <c r="C1199" s="215"/>
+      <c r="D1199" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1199" s="217" t="s">
         <v>2023</v>
       </c>
-      <c r="F1197" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1197" s="216"/>
-      <c r="H1197" s="216"/>
-      <c r="I1197" s="216"/>
-    </row>
-    <row r="1198" spans="1:9" s="219" customFormat="1">
-      <c r="A1198" s="214">
-        <v>1197</v>
-      </c>
-      <c r="B1198" s="216">
-        <v>786</v>
-      </c>
-      <c r="C1198" s="216"/>
-      <c r="D1198" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1198" s="218" t="s">
+      <c r="F1199" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="215"/>
+      <c r="H1199" s="215"/>
+      <c r="I1199" s="215"/>
+    </row>
+    <row r="1200" spans="1:9" s="218" customFormat="1">
+      <c r="A1200" s="213">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="215">
+        <v>788</v>
+      </c>
+      <c r="C1200" s="215"/>
+      <c r="D1200" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1200" s="217" t="s">
         <v>2024</v>
       </c>
-      <c r="F1198" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1198" s="216"/>
-      <c r="H1198" s="216"/>
-      <c r="I1198" s="216"/>
-    </row>
-    <row r="1199" spans="1:9" s="219" customFormat="1">
-      <c r="A1199" s="214">
-        <v>1198</v>
-      </c>
-      <c r="B1199" s="216">
-        <v>787</v>
-      </c>
-      <c r="C1199" s="216"/>
-      <c r="D1199" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1199" s="218" t="s">
+      <c r="F1200" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1200" s="215"/>
+      <c r="H1200" s="215"/>
+      <c r="I1200" s="215"/>
+    </row>
+    <row r="1201" spans="1:9" s="218" customFormat="1">
+      <c r="A1201" s="213">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="215">
+        <v>789</v>
+      </c>
+      <c r="C1201" s="215"/>
+      <c r="D1201" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1201" s="217" t="s">
         <v>2025</v>
       </c>
-      <c r="F1199" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1199" s="216"/>
-      <c r="H1199" s="216"/>
-      <c r="I1199" s="216"/>
-    </row>
-    <row r="1200" spans="1:9" s="219" customFormat="1">
-      <c r="A1200" s="214">
-        <v>1199</v>
-      </c>
-      <c r="B1200" s="216">
-        <v>788</v>
-      </c>
-      <c r="C1200" s="216"/>
-      <c r="D1200" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1200" s="218" t="s">
+      <c r="F1201" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1201" s="215"/>
+      <c r="H1201" s="215"/>
+      <c r="I1201" s="215"/>
+    </row>
+    <row r="1202" spans="1:9" s="218" customFormat="1">
+      <c r="A1202" s="213">
+        <v>1201</v>
+      </c>
+      <c r="B1202" s="214">
+        <v>790</v>
+      </c>
+      <c r="C1202" s="215"/>
+      <c r="D1202" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1202" s="217" t="s">
         <v>2026</v>
       </c>
-      <c r="F1200" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1200" s="216"/>
-      <c r="H1200" s="216"/>
-      <c r="I1200" s="216"/>
-    </row>
-    <row r="1201" spans="1:9" s="219" customFormat="1">
-      <c r="A1201" s="214">
-        <v>1200</v>
-      </c>
-      <c r="B1201" s="216">
-        <v>789</v>
-      </c>
-      <c r="C1201" s="216"/>
-      <c r="D1201" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1201" s="218" t="s">
+      <c r="F1202" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1202" s="215"/>
+      <c r="H1202" s="215"/>
+      <c r="I1202" s="215"/>
+    </row>
+    <row r="1203" spans="1:9" s="218" customFormat="1">
+      <c r="A1203" s="213">
+        <v>1202</v>
+      </c>
+      <c r="B1203" s="215">
+        <v>791</v>
+      </c>
+      <c r="C1203" s="215"/>
+      <c r="D1203" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1203" s="217" t="s">
         <v>2027</v>
       </c>
-      <c r="F1201" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1201" s="216"/>
-      <c r="H1201" s="216"/>
-      <c r="I1201" s="216"/>
-    </row>
-    <row r="1202" spans="1:9" s="219" customFormat="1">
-      <c r="A1202" s="214">
-        <v>1201</v>
-      </c>
-      <c r="B1202" s="215">
-        <v>790</v>
-      </c>
-      <c r="C1202" s="216"/>
-      <c r="D1202" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1202" s="218" t="s">
-        <v>2028</v>
-      </c>
-      <c r="F1202" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1202" s="216"/>
-      <c r="H1202" s="216"/>
-      <c r="I1202" s="216"/>
-    </row>
-    <row r="1203" spans="1:9" s="219" customFormat="1">
-      <c r="A1203" s="214">
-        <v>1202</v>
-      </c>
-      <c r="B1203" s="216">
-        <v>791</v>
-      </c>
-      <c r="C1203" s="216"/>
-      <c r="D1203" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1203" s="218" t="s">
-        <v>2029</v>
-      </c>
-      <c r="F1203" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1203" s="216"/>
-      <c r="H1203" s="216"/>
-      <c r="I1203" s="216"/>
+      <c r="F1203" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1203" s="215"/>
+      <c r="H1203" s="215"/>
+      <c r="I1203" s="215"/>
     </row>
     <row r="1204" spans="1:9" s="95" customFormat="1">
-      <c r="A1204" s="221">
+      <c r="A1204" s="220">
         <v>1203</v>
       </c>
       <c r="B1204" s="93">
@@ -92473,10 +93389,10 @@
       </c>
       <c r="C1204" s="93"/>
       <c r="D1204" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1204" s="150" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="F1204" s="93">
         <v>1</v>
@@ -92486,7 +93402,7 @@
       <c r="I1204" s="93"/>
     </row>
     <row r="1205" spans="1:9" s="95" customFormat="1">
-      <c r="A1205" s="221">
+      <c r="A1205" s="220">
         <v>1204</v>
       </c>
       <c r="B1205" s="93">
@@ -92494,10 +93410,10 @@
       </c>
       <c r="C1205" s="93"/>
       <c r="D1205" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1205" s="150" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="F1205" s="93">
         <v>1</v>
@@ -92507,7 +93423,7 @@
       <c r="I1205" s="93"/>
     </row>
     <row r="1206" spans="1:9" s="95" customFormat="1">
-      <c r="A1206" s="221">
+      <c r="A1206" s="220">
         <v>1205</v>
       </c>
       <c r="B1206" s="93">
@@ -92515,10 +93431,10 @@
       </c>
       <c r="C1206" s="93"/>
       <c r="D1206" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1206" s="150" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F1206" s="93">
         <v>1</v>
@@ -92528,7 +93444,7 @@
       <c r="I1206" s="93"/>
     </row>
     <row r="1207" spans="1:9" s="95" customFormat="1">
-      <c r="A1207" s="221">
+      <c r="A1207" s="220">
         <v>1206</v>
       </c>
       <c r="B1207" s="93">
@@ -92536,10 +93452,10 @@
       </c>
       <c r="C1207" s="93"/>
       <c r="D1207" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1207" s="150" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="F1207" s="93">
         <v>1</v>
@@ -92549,18 +93465,18 @@
       <c r="I1207" s="93"/>
     </row>
     <row r="1208" spans="1:9" s="95" customFormat="1">
-      <c r="A1208" s="221">
+      <c r="A1208" s="220">
         <v>1207</v>
       </c>
-      <c r="B1208" s="222">
+      <c r="B1208" s="221">
         <v>796</v>
       </c>
       <c r="C1208" s="93"/>
       <c r="D1208" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1208" s="150" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F1208" s="93">
         <v>1</v>
@@ -92570,7 +93486,7 @@
       <c r="I1208" s="93"/>
     </row>
     <row r="1209" spans="1:9" s="95" customFormat="1">
-      <c r="A1209" s="221">
+      <c r="A1209" s="220">
         <v>1208</v>
       </c>
       <c r="B1209" s="93">
@@ -92578,10 +93494,10 @@
       </c>
       <c r="C1209" s="93"/>
       <c r="D1209" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1209" s="150" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="F1209" s="93">
         <v>1</v>
@@ -92591,7 +93507,7 @@
       <c r="I1209" s="93"/>
     </row>
     <row r="1210" spans="1:9" s="95" customFormat="1">
-      <c r="A1210" s="221">
+      <c r="A1210" s="220">
         <v>1209</v>
       </c>
       <c r="B1210" s="93">
@@ -92599,10 +93515,10 @@
       </c>
       <c r="C1210" s="93"/>
       <c r="D1210" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1210" s="150" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="F1210" s="93">
         <v>1</v>
@@ -92611,155 +93527,155 @@
       <c r="H1210" s="93"/>
       <c r="I1210" s="93"/>
     </row>
-    <row r="1211" spans="1:9" s="219" customFormat="1">
-      <c r="A1211" s="214">
+    <row r="1211" spans="1:9" s="218" customFormat="1">
+      <c r="A1211" s="213">
         <v>1210</v>
       </c>
-      <c r="B1211" s="216">
+      <c r="B1211" s="215">
         <v>799</v>
       </c>
-      <c r="C1211" s="216"/>
-      <c r="D1211" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1211" s="218" t="s">
+      <c r="C1211" s="215"/>
+      <c r="D1211" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1211" s="217" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F1211" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1211" s="215"/>
+      <c r="H1211" s="215"/>
+      <c r="I1211" s="215"/>
+    </row>
+    <row r="1212" spans="1:9" s="218" customFormat="1">
+      <c r="A1212" s="213">
+        <v>1211</v>
+      </c>
+      <c r="B1212" s="215">
+        <v>800</v>
+      </c>
+      <c r="C1212" s="215"/>
+      <c r="D1212" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1212" s="217" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1212" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1212" s="215"/>
+      <c r="H1212" s="215"/>
+      <c r="I1212" s="215"/>
+    </row>
+    <row r="1213" spans="1:9" s="218" customFormat="1">
+      <c r="A1213" s="213">
+        <v>1212</v>
+      </c>
+      <c r="B1213" s="215">
+        <v>801</v>
+      </c>
+      <c r="C1213" s="215"/>
+      <c r="D1213" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1213" s="217" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1213" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1213" s="215"/>
+      <c r="H1213" s="215"/>
+      <c r="I1213" s="215"/>
+    </row>
+    <row r="1214" spans="1:9" s="218" customFormat="1">
+      <c r="A1214" s="213">
+        <v>1213</v>
+      </c>
+      <c r="B1214" s="214">
+        <v>802</v>
+      </c>
+      <c r="C1214" s="215"/>
+      <c r="D1214" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1214" s="217" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F1214" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1214" s="215"/>
+      <c r="H1214" s="215"/>
+      <c r="I1214" s="215"/>
+    </row>
+    <row r="1215" spans="1:9" s="218" customFormat="1">
+      <c r="A1215" s="213">
+        <v>1214</v>
+      </c>
+      <c r="B1215" s="215">
+        <v>803</v>
+      </c>
+      <c r="C1215" s="215"/>
+      <c r="D1215" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1215" s="217" t="s">
         <v>2036</v>
       </c>
-      <c r="F1211" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1211" s="216"/>
-      <c r="H1211" s="216"/>
-      <c r="I1211" s="216"/>
-    </row>
-    <row r="1212" spans="1:9" s="219" customFormat="1">
-      <c r="A1212" s="214">
-        <v>1211</v>
-      </c>
-      <c r="B1212" s="216">
-        <v>800</v>
-      </c>
-      <c r="C1212" s="216"/>
-      <c r="D1212" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1212" s="218" t="s">
+      <c r="F1215" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1215" s="215"/>
+      <c r="H1215" s="215"/>
+      <c r="I1215" s="215"/>
+    </row>
+    <row r="1216" spans="1:9" s="218" customFormat="1">
+      <c r="A1216" s="213">
+        <v>1215</v>
+      </c>
+      <c r="B1216" s="215">
+        <v>804</v>
+      </c>
+      <c r="C1216" s="215"/>
+      <c r="D1216" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1216" s="217" t="s">
         <v>2037</v>
       </c>
-      <c r="F1212" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1212" s="216"/>
-      <c r="H1212" s="216"/>
-      <c r="I1212" s="216"/>
-    </row>
-    <row r="1213" spans="1:9" s="219" customFormat="1">
-      <c r="A1213" s="214">
-        <v>1212</v>
-      </c>
-      <c r="B1213" s="216">
-        <v>801</v>
-      </c>
-      <c r="C1213" s="216"/>
-      <c r="D1213" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1213" s="218" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F1213" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1213" s="216"/>
-      <c r="H1213" s="216"/>
-      <c r="I1213" s="216"/>
-    </row>
-    <row r="1214" spans="1:9" s="219" customFormat="1">
-      <c r="A1214" s="214">
-        <v>1213</v>
-      </c>
-      <c r="B1214" s="215">
-        <v>802</v>
-      </c>
-      <c r="C1214" s="216"/>
-      <c r="D1214" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1214" s="218" t="s">
-        <v>2033</v>
-      </c>
-      <c r="F1214" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1214" s="216"/>
-      <c r="H1214" s="216"/>
-      <c r="I1214" s="216"/>
-    </row>
-    <row r="1215" spans="1:9" s="219" customFormat="1">
-      <c r="A1215" s="214">
-        <v>1214</v>
-      </c>
-      <c r="B1215" s="216">
-        <v>803</v>
-      </c>
-      <c r="C1215" s="216"/>
-      <c r="D1215" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1215" s="218" t="s">
+      <c r="F1216" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1216" s="215"/>
+      <c r="H1216" s="215"/>
+      <c r="I1216" s="215"/>
+    </row>
+    <row r="1217" spans="1:9" s="218" customFormat="1">
+      <c r="A1217" s="213">
+        <v>1216</v>
+      </c>
+      <c r="B1217" s="215">
+        <v>805</v>
+      </c>
+      <c r="C1217" s="215"/>
+      <c r="D1217" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1217" s="217" t="s">
         <v>2038</v>
       </c>
-      <c r="F1215" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1215" s="216"/>
-      <c r="H1215" s="216"/>
-      <c r="I1215" s="216"/>
-    </row>
-    <row r="1216" spans="1:9" s="219" customFormat="1">
-      <c r="A1216" s="214">
-        <v>1215</v>
-      </c>
-      <c r="B1216" s="216">
-        <v>804</v>
-      </c>
-      <c r="C1216" s="216"/>
-      <c r="D1216" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1216" s="218" t="s">
-        <v>2039</v>
-      </c>
-      <c r="F1216" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1216" s="216"/>
-      <c r="H1216" s="216"/>
-      <c r="I1216" s="216"/>
-    </row>
-    <row r="1217" spans="1:9" s="219" customFormat="1">
-      <c r="A1217" s="214">
-        <v>1216</v>
-      </c>
-      <c r="B1217" s="216">
-        <v>805</v>
-      </c>
-      <c r="C1217" s="216"/>
-      <c r="D1217" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1217" s="218" t="s">
-        <v>2040</v>
-      </c>
-      <c r="F1217" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1217" s="216"/>
-      <c r="H1217" s="216"/>
-      <c r="I1217" s="216"/>
+      <c r="F1217" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1217" s="215"/>
+      <c r="H1217" s="215"/>
+      <c r="I1217" s="215"/>
     </row>
     <row r="1218" spans="1:9" s="95" customFormat="1">
-      <c r="A1218" s="221">
+      <c r="A1218" s="220">
         <v>1217</v>
       </c>
       <c r="B1218" s="93">
@@ -92767,10 +93683,10 @@
       </c>
       <c r="C1218" s="93"/>
       <c r="D1218" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1218" s="150" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="F1218" s="93">
         <v>1</v>
@@ -92780,7 +93696,7 @@
       <c r="I1218" s="93"/>
     </row>
     <row r="1219" spans="1:9" s="95" customFormat="1">
-      <c r="A1219" s="221">
+      <c r="A1219" s="220">
         <v>1218</v>
       </c>
       <c r="B1219" s="93">
@@ -92788,10 +93704,10 @@
       </c>
       <c r="C1219" s="93"/>
       <c r="D1219" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1219" s="150" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="F1219" s="93">
         <v>1</v>
@@ -92801,18 +93717,18 @@
       <c r="I1219" s="93"/>
     </row>
     <row r="1220" spans="1:9" s="95" customFormat="1">
-      <c r="A1220" s="221">
+      <c r="A1220" s="220">
         <v>1219</v>
       </c>
-      <c r="B1220" s="222">
+      <c r="B1220" s="221">
         <v>808</v>
       </c>
       <c r="C1220" s="93"/>
       <c r="D1220" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1220" s="150" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="F1220" s="93">
         <v>1</v>
@@ -92822,7 +93738,7 @@
       <c r="I1220" s="93"/>
     </row>
     <row r="1221" spans="1:9" s="95" customFormat="1">
-      <c r="A1221" s="221">
+      <c r="A1221" s="220">
         <v>1220</v>
       </c>
       <c r="B1221" s="93">
@@ -92830,10 +93746,10 @@
       </c>
       <c r="C1221" s="93"/>
       <c r="D1221" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1221" s="150" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="F1221" s="93">
         <v>1</v>
@@ -92843,7 +93759,7 @@
       <c r="I1221" s="93"/>
     </row>
     <row r="1222" spans="1:9" s="95" customFormat="1">
-      <c r="A1222" s="221">
+      <c r="A1222" s="220">
         <v>1221</v>
       </c>
       <c r="B1222" s="93">
@@ -92851,10 +93767,10 @@
       </c>
       <c r="C1222" s="93"/>
       <c r="D1222" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1222" s="150" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="F1222" s="93">
         <v>1</v>
@@ -92864,7 +93780,7 @@
       <c r="I1222" s="93"/>
     </row>
     <row r="1223" spans="1:9" s="95" customFormat="1">
-      <c r="A1223" s="221">
+      <c r="A1223" s="220">
         <v>1222</v>
       </c>
       <c r="B1223" s="93">
@@ -92872,10 +93788,10 @@
       </c>
       <c r="C1223" s="93"/>
       <c r="D1223" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1223" s="150" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="F1223" s="93">
         <v>1</v>
@@ -92885,7 +93801,7 @@
       <c r="I1223" s="93"/>
     </row>
     <row r="1224" spans="1:9" s="95" customFormat="1">
-      <c r="A1224" s="221">
+      <c r="A1224" s="220">
         <v>1223</v>
       </c>
       <c r="B1224" s="93">
@@ -92893,10 +93809,10 @@
       </c>
       <c r="C1224" s="93"/>
       <c r="D1224" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1224" s="150" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="F1224" s="93">
         <v>1</v>
@@ -92905,166 +93821,166 @@
       <c r="H1224" s="93"/>
       <c r="I1224" s="93"/>
     </row>
-    <row r="1225" spans="1:9" s="219" customFormat="1">
-      <c r="A1225" s="214">
+    <row r="1225" spans="1:9" s="218" customFormat="1">
+      <c r="A1225" s="213">
         <v>1224</v>
       </c>
-      <c r="B1225" s="216">
+      <c r="B1225" s="215">
         <v>813</v>
       </c>
-      <c r="C1225" s="216"/>
-      <c r="D1225" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1225" s="218" t="s">
+      <c r="C1225" s="215"/>
+      <c r="D1225" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1225" s="217" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F1225" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1225" s="215"/>
+      <c r="H1225" s="215"/>
+      <c r="I1225" s="215"/>
+    </row>
+    <row r="1226" spans="1:9" s="218" customFormat="1">
+      <c r="A1226" s="213">
+        <v>1225</v>
+      </c>
+      <c r="B1226" s="214">
+        <v>814</v>
+      </c>
+      <c r="C1226" s="215"/>
+      <c r="D1226" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1226" s="217" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F1226" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1226" s="215"/>
+      <c r="H1226" s="215"/>
+      <c r="I1226" s="215"/>
+    </row>
+    <row r="1227" spans="1:9" s="218" customFormat="1">
+      <c r="A1227" s="213">
+        <v>1226</v>
+      </c>
+      <c r="B1227" s="215">
+        <v>815</v>
+      </c>
+      <c r="C1227" s="215"/>
+      <c r="D1227" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1227" s="217" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1227" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1227" s="215"/>
+      <c r="H1227" s="215"/>
+      <c r="I1227" s="215"/>
+    </row>
+    <row r="1228" spans="1:9" s="218" customFormat="1">
+      <c r="A1228" s="213">
+        <v>1227</v>
+      </c>
+      <c r="B1228" s="215">
+        <v>816</v>
+      </c>
+      <c r="C1228" s="215"/>
+      <c r="D1228" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1228" s="217" t="s">
         <v>2046</v>
       </c>
-      <c r="F1225" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1225" s="216"/>
-      <c r="H1225" s="216"/>
-      <c r="I1225" s="216"/>
-    </row>
-    <row r="1226" spans="1:9" s="219" customFormat="1">
-      <c r="A1226" s="214">
-        <v>1225</v>
-      </c>
-      <c r="B1226" s="215">
-        <v>814</v>
-      </c>
-      <c r="C1226" s="216"/>
-      <c r="D1226" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1226" s="218" t="s">
+      <c r="F1228" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1228" s="215"/>
+      <c r="H1228" s="215"/>
+      <c r="I1228" s="215"/>
+    </row>
+    <row r="1229" spans="1:9" s="218" customFormat="1">
+      <c r="A1229" s="213">
+        <v>1228</v>
+      </c>
+      <c r="B1229" s="215">
+        <v>817</v>
+      </c>
+      <c r="C1229" s="215"/>
+      <c r="D1229" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1229" s="217" t="s">
         <v>2047</v>
       </c>
-      <c r="F1226" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1226" s="216"/>
-      <c r="H1226" s="216"/>
-      <c r="I1226" s="216"/>
-    </row>
-    <row r="1227" spans="1:9" s="219" customFormat="1">
-      <c r="A1227" s="214">
-        <v>1226</v>
-      </c>
-      <c r="B1227" s="216">
-        <v>815</v>
-      </c>
-      <c r="C1227" s="216"/>
-      <c r="D1227" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1227" s="218" t="s">
-        <v>2039</v>
-      </c>
-      <c r="F1227" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1227" s="216"/>
-      <c r="H1227" s="216"/>
-      <c r="I1227" s="216"/>
-    </row>
-    <row r="1228" spans="1:9" s="219" customFormat="1">
-      <c r="A1228" s="214">
-        <v>1227</v>
-      </c>
-      <c r="B1228" s="216">
-        <v>816</v>
-      </c>
-      <c r="C1228" s="216"/>
-      <c r="D1228" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1228" s="218" t="s">
+      <c r="F1229" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1229" s="215"/>
+      <c r="H1229" s="215"/>
+      <c r="I1229" s="215"/>
+    </row>
+    <row r="1230" spans="1:9" s="218" customFormat="1">
+      <c r="A1230" s="213">
+        <v>1229</v>
+      </c>
+      <c r="B1230" s="215">
+        <v>818</v>
+      </c>
+      <c r="C1230" s="215"/>
+      <c r="D1230" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1230" s="217" t="s">
         <v>2048</v>
       </c>
-      <c r="F1228" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1228" s="216"/>
-      <c r="H1228" s="216"/>
-      <c r="I1228" s="216"/>
-    </row>
-    <row r="1229" spans="1:9" s="219" customFormat="1">
-      <c r="A1229" s="214">
-        <v>1228</v>
-      </c>
-      <c r="B1229" s="216">
-        <v>817</v>
-      </c>
-      <c r="C1229" s="216"/>
-      <c r="D1229" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1229" s="218" t="s">
+      <c r="F1230" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1230" s="215"/>
+      <c r="H1230" s="215"/>
+      <c r="I1230" s="215"/>
+    </row>
+    <row r="1231" spans="1:9" s="218" customFormat="1">
+      <c r="A1231" s="213">
+        <v>1230</v>
+      </c>
+      <c r="B1231" s="215">
+        <v>819</v>
+      </c>
+      <c r="C1231" s="215"/>
+      <c r="D1231" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1231" s="217" t="s">
         <v>2049</v>
       </c>
-      <c r="F1229" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1229" s="216"/>
-      <c r="H1229" s="216"/>
-      <c r="I1229" s="216"/>
-    </row>
-    <row r="1230" spans="1:9" s="219" customFormat="1">
-      <c r="A1230" s="214">
-        <v>1229</v>
-      </c>
-      <c r="B1230" s="216">
-        <v>818</v>
-      </c>
-      <c r="C1230" s="216"/>
-      <c r="D1230" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1230" s="218" t="s">
-        <v>2050</v>
-      </c>
-      <c r="F1230" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1230" s="216"/>
-      <c r="H1230" s="216"/>
-      <c r="I1230" s="216"/>
-    </row>
-    <row r="1231" spans="1:9" s="219" customFormat="1">
-      <c r="A1231" s="214">
-        <v>1230</v>
-      </c>
-      <c r="B1231" s="216">
-        <v>819</v>
-      </c>
-      <c r="C1231" s="216"/>
-      <c r="D1231" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1231" s="218" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F1231" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1231" s="216"/>
-      <c r="H1231" s="216"/>
-      <c r="I1231" s="216"/>
+      <c r="F1231" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1231" s="215"/>
+      <c r="H1231" s="215"/>
+      <c r="I1231" s="215"/>
     </row>
     <row r="1232" spans="1:9" s="95" customFormat="1">
-      <c r="A1232" s="221">
+      <c r="A1232" s="220">
         <v>1231</v>
       </c>
-      <c r="B1232" s="222">
+      <c r="B1232" s="221">
         <v>820</v>
       </c>
       <c r="C1232" s="93"/>
       <c r="D1232" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1232" s="150" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="F1232" s="93">
         <v>1</v>
@@ -93074,7 +93990,7 @@
       <c r="I1232" s="93"/>
     </row>
     <row r="1233" spans="1:9" s="95" customFormat="1">
-      <c r="A1233" s="221">
+      <c r="A1233" s="220">
         <v>1232</v>
       </c>
       <c r="B1233" s="93">
@@ -93082,10 +93998,10 @@
       </c>
       <c r="C1233" s="93"/>
       <c r="D1233" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1233" s="150" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="F1233" s="93">
         <v>1</v>
@@ -93095,7 +94011,7 @@
       <c r="I1233" s="93"/>
     </row>
     <row r="1234" spans="1:9" s="95" customFormat="1">
-      <c r="A1234" s="221">
+      <c r="A1234" s="220">
         <v>1233</v>
       </c>
       <c r="B1234" s="93">
@@ -93103,10 +94019,10 @@
       </c>
       <c r="C1234" s="93"/>
       <c r="D1234" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1234" s="150" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="F1234" s="93">
         <v>1</v>
@@ -93116,7 +94032,7 @@
       <c r="I1234" s="93"/>
     </row>
     <row r="1235" spans="1:9" s="95" customFormat="1">
-      <c r="A1235" s="221">
+      <c r="A1235" s="220">
         <v>1234</v>
       </c>
       <c r="B1235" s="93">
@@ -93124,10 +94040,10 @@
       </c>
       <c r="C1235" s="93"/>
       <c r="D1235" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1235" s="150" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="F1235" s="93">
         <v>1</v>
@@ -93137,7 +94053,7 @@
       <c r="I1235" s="93"/>
     </row>
     <row r="1236" spans="1:9" s="95" customFormat="1">
-      <c r="A1236" s="221">
+      <c r="A1236" s="220">
         <v>1235</v>
       </c>
       <c r="B1236" s="93">
@@ -93145,10 +94061,10 @@
       </c>
       <c r="C1236" s="93"/>
       <c r="D1236" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1236" s="150" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="F1236" s="93">
         <v>1</v>
@@ -93158,7 +94074,7 @@
       <c r="I1236" s="93"/>
     </row>
     <row r="1237" spans="1:9" s="95" customFormat="1">
-      <c r="A1237" s="221">
+      <c r="A1237" s="220">
         <v>1236</v>
       </c>
       <c r="B1237" s="93">
@@ -93166,10 +94082,10 @@
       </c>
       <c r="C1237" s="93"/>
       <c r="D1237" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1237" s="150" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="F1237" s="93">
         <v>1</v>
@@ -93179,18 +94095,18 @@
       <c r="I1237" s="93"/>
     </row>
     <row r="1238" spans="1:9" s="95" customFormat="1">
-      <c r="A1238" s="221">
+      <c r="A1238" s="220">
         <v>1237</v>
       </c>
-      <c r="B1238" s="222">
+      <c r="B1238" s="221">
         <v>826</v>
       </c>
       <c r="C1238" s="93"/>
       <c r="D1238" s="94" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E1238" s="150" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="F1238" s="93">
         <v>1</v>
@@ -93199,152 +94115,320 @@
       <c r="H1238" s="93"/>
       <c r="I1238" s="93"/>
     </row>
-    <row r="1239" spans="1:9" s="219" customFormat="1">
-      <c r="A1239" s="214">
+    <row r="1239" spans="1:9" s="218" customFormat="1">
+      <c r="A1239" s="213">
         <v>1238</v>
       </c>
-      <c r="B1239" s="216">
+      <c r="B1239" s="215">
         <v>827</v>
       </c>
-      <c r="C1239" s="216"/>
-      <c r="D1239" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1239" s="218" t="s">
+      <c r="C1239" s="215"/>
+      <c r="D1239" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1239" s="217" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F1239" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1239" s="215"/>
+      <c r="H1239" s="215"/>
+      <c r="I1239" s="215"/>
+    </row>
+    <row r="1240" spans="1:9" s="218" customFormat="1">
+      <c r="A1240" s="213">
+        <v>1239</v>
+      </c>
+      <c r="B1240" s="215">
+        <v>828</v>
+      </c>
+      <c r="C1240" s="215"/>
+      <c r="D1240" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1240" s="217" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1240" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1240" s="215"/>
+      <c r="H1240" s="215"/>
+      <c r="I1240" s="215"/>
+    </row>
+    <row r="1241" spans="1:9" s="218" customFormat="1">
+      <c r="A1241" s="213">
+        <v>1240</v>
+      </c>
+      <c r="B1241" s="215">
+        <v>829</v>
+      </c>
+      <c r="C1241" s="215"/>
+      <c r="D1241" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1241" s="217" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F1241" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1241" s="215"/>
+      <c r="H1241" s="215"/>
+      <c r="I1241" s="215"/>
+    </row>
+    <row r="1242" spans="1:9" s="218" customFormat="1">
+      <c r="A1242" s="213">
+        <v>1241</v>
+      </c>
+      <c r="B1242" s="215">
+        <v>830</v>
+      </c>
+      <c r="C1242" s="215"/>
+      <c r="D1242" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1242" s="217" t="s">
         <v>2058</v>
       </c>
-      <c r="F1239" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1239" s="216"/>
-      <c r="H1239" s="216"/>
-      <c r="I1239" s="216"/>
-    </row>
-    <row r="1240" spans="1:9" s="219" customFormat="1">
-      <c r="A1240" s="214">
-        <v>1239</v>
-      </c>
-      <c r="B1240" s="216">
-        <v>828</v>
-      </c>
-      <c r="C1240" s="216"/>
-      <c r="D1240" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1240" s="218" t="s">
-        <v>2045</v>
-      </c>
-      <c r="F1240" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1240" s="216"/>
-      <c r="H1240" s="216"/>
-      <c r="I1240" s="216"/>
-    </row>
-    <row r="1241" spans="1:9" s="219" customFormat="1">
-      <c r="A1241" s="214">
-        <v>1240</v>
-      </c>
-      <c r="B1241" s="216">
-        <v>829</v>
-      </c>
-      <c r="C1241" s="216"/>
-      <c r="D1241" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1241" s="218" t="s">
+      <c r="F1242" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1242" s="215"/>
+      <c r="H1242" s="215"/>
+      <c r="I1242" s="215"/>
+    </row>
+    <row r="1243" spans="1:9" s="218" customFormat="1">
+      <c r="A1243" s="213">
+        <v>1242</v>
+      </c>
+      <c r="B1243" s="215">
+        <v>831</v>
+      </c>
+      <c r="C1243" s="215"/>
+      <c r="D1243" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1243" s="217" t="s">
         <v>2059</v>
       </c>
-      <c r="F1241" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1241" s="216"/>
-      <c r="H1241" s="216"/>
-      <c r="I1241" s="216"/>
-    </row>
-    <row r="1242" spans="1:9" s="219" customFormat="1">
-      <c r="A1242" s="214">
-        <v>1241</v>
-      </c>
-      <c r="B1242" s="216">
-        <v>830</v>
-      </c>
-      <c r="C1242" s="216"/>
-      <c r="D1242" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1242" s="218" t="s">
+      <c r="F1243" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1243" s="215"/>
+      <c r="H1243" s="215"/>
+      <c r="I1243" s="215"/>
+    </row>
+    <row r="1244" spans="1:9" s="218" customFormat="1">
+      <c r="A1244" s="213">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="214">
+        <v>832</v>
+      </c>
+      <c r="C1244" s="215"/>
+      <c r="D1244" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1244" s="217" t="s">
         <v>2060</v>
       </c>
-      <c r="F1242" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1242" s="216"/>
-      <c r="H1242" s="216"/>
-      <c r="I1242" s="216"/>
-    </row>
-    <row r="1243" spans="1:9" s="219" customFormat="1">
-      <c r="A1243" s="214">
-        <v>1242</v>
-      </c>
-      <c r="B1243" s="216">
-        <v>831</v>
-      </c>
-      <c r="C1243" s="216"/>
-      <c r="D1243" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1243" s="218" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F1243" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1243" s="216"/>
-      <c r="H1243" s="216"/>
-      <c r="I1243" s="216"/>
-    </row>
-    <row r="1244" spans="1:9" s="219" customFormat="1">
-      <c r="A1244" s="214">
-        <v>1243</v>
-      </c>
-      <c r="B1244" s="215">
-        <v>832</v>
-      </c>
-      <c r="C1244" s="216"/>
-      <c r="D1244" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1244" s="218" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F1244" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1244" s="216"/>
-      <c r="H1244" s="216"/>
-      <c r="I1244" s="216"/>
-    </row>
-    <row r="1245" spans="1:9" s="219" customFormat="1">
-      <c r="A1245" s="214">
+      <c r="F1244" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1244" s="215"/>
+      <c r="H1244" s="215"/>
+      <c r="I1244" s="215"/>
+    </row>
+    <row r="1245" spans="1:9" s="218" customFormat="1">
+      <c r="A1245" s="213">
         <v>1244</v>
       </c>
-      <c r="B1245" s="216">
+      <c r="B1245" s="215">
         <v>833</v>
       </c>
-      <c r="C1245" s="216"/>
-      <c r="D1245" s="217" t="s">
-        <v>2015</v>
-      </c>
-      <c r="E1245" s="218" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F1245" s="216">
-        <v>1</v>
-      </c>
-      <c r="G1245" s="216"/>
-      <c r="H1245" s="216"/>
-      <c r="I1245" s="216"/>
+      <c r="C1245" s="215"/>
+      <c r="D1245" s="216" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E1245" s="217" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F1245" s="215">
+        <v>1</v>
+      </c>
+      <c r="G1245" s="215"/>
+      <c r="H1245" s="215"/>
+      <c r="I1245" s="215"/>
+    </row>
+    <row r="1246" spans="1:9" s="142" customFormat="1">
+      <c r="A1246" s="137">
+        <v>1245</v>
+      </c>
+      <c r="B1246" s="139">
+        <v>834</v>
+      </c>
+      <c r="C1246" s="139"/>
+      <c r="D1246" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1246" s="144" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F1246" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1246" s="139"/>
+      <c r="H1246" s="139"/>
+      <c r="I1246" s="139"/>
+    </row>
+    <row r="1247" spans="1:9" s="142" customFormat="1">
+      <c r="A1247" s="137">
+        <v>1246</v>
+      </c>
+      <c r="B1247" s="139">
+        <v>835</v>
+      </c>
+      <c r="C1247" s="139"/>
+      <c r="D1247" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1247" s="144" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F1247" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1247" s="139"/>
+      <c r="H1247" s="139"/>
+      <c r="I1247" s="139"/>
+    </row>
+    <row r="1248" spans="1:9" s="142" customFormat="1">
+      <c r="A1248" s="137">
+        <v>1247</v>
+      </c>
+      <c r="B1248" s="139">
+        <v>836</v>
+      </c>
+      <c r="C1248" s="139"/>
+      <c r="D1248" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1248" s="144" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F1248" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1248" s="139"/>
+      <c r="H1248" s="139"/>
+      <c r="I1248" s="139"/>
+    </row>
+    <row r="1249" spans="1:9" s="142" customFormat="1">
+      <c r="A1249" s="137">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="139">
+        <v>837</v>
+      </c>
+      <c r="C1249" s="139"/>
+      <c r="D1249" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1249" s="144" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F1249" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1249" s="139"/>
+      <c r="H1249" s="139"/>
+      <c r="I1249" s="139"/>
+    </row>
+    <row r="1250" spans="1:9" s="142" customFormat="1">
+      <c r="A1250" s="137">
+        <v>1249</v>
+      </c>
+      <c r="B1250" s="231">
+        <v>838</v>
+      </c>
+      <c r="C1250" s="139"/>
+      <c r="D1250" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1250" s="144" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F1250" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1250" s="139"/>
+      <c r="H1250" s="139"/>
+      <c r="I1250" s="139"/>
+    </row>
+    <row r="1251" spans="1:9" s="142" customFormat="1">
+      <c r="A1251" s="137">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="139">
+        <v>839</v>
+      </c>
+      <c r="C1251" s="139"/>
+      <c r="D1251" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1251" s="144" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F1251" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1251" s="139"/>
+      <c r="H1251" s="139"/>
+      <c r="I1251" s="139"/>
+    </row>
+    <row r="1252" spans="1:9" s="142" customFormat="1">
+      <c r="A1252" s="137">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="139">
+        <v>840</v>
+      </c>
+      <c r="C1252" s="139"/>
+      <c r="D1252" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1252" s="144" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F1252" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1252" s="139"/>
+      <c r="H1252" s="139"/>
+      <c r="I1252" s="139"/>
+    </row>
+    <row r="1253" spans="1:9" s="142" customFormat="1">
+      <c r="A1253" s="137">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="139">
+        <v>841</v>
+      </c>
+      <c r="C1253" s="139"/>
+      <c r="D1253" s="143" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E1253" s="144" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F1253" s="139">
+        <v>1</v>
+      </c>
+      <c r="G1253" s="139"/>
+      <c r="H1253" s="139"/>
+      <c r="I1253" s="139"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -93466,7 +94550,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>848</v>

--- a/config_11.24/task_zajindan_server.xlsx
+++ b/config_11.24/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6912" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="2140">
   <si>
     <t>id|任务id</t>
   </si>
@@ -13578,6 +13578,79 @@
   </si>
   <si>
     <t>p_xrqtl_new</t>
+  </si>
+  <si>
+    <t>火鸡掉落</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏掉落火鸡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,-1</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gej_hj</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13927,7 +14000,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14580,6 +14653,12 @@
     <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14864,13 +14943,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T526"/>
+  <dimension ref="A1:T527"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D500" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G512" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D525" sqref="D525"/>
+      <selection pane="bottomRight" activeCell="G527" sqref="G527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -35208,10 +35287,10 @@
         <v>2111</v>
       </c>
       <c r="E526" s="191" t="s">
-        <v>2103</v>
+        <v>2130</v>
       </c>
       <c r="F526" s="191" t="s">
-        <v>854</v>
+        <v>2132</v>
       </c>
       <c r="G526" s="191">
         <v>21473</v>
@@ -35229,6 +35308,44 @@
         <v>1606751999</v>
       </c>
       <c r="L526" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" s="236" customFormat="1">
+      <c r="A527" s="137">
+        <v>1000116</v>
+      </c>
+      <c r="B527" s="236">
+        <v>1</v>
+      </c>
+      <c r="C527" s="236" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D527" s="236" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E527" s="236" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F527" s="236" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G527" s="146">
+        <v>21474</v>
+      </c>
+      <c r="H527" s="236" t="b">
+        <v>0</v>
+      </c>
+      <c r="I527" s="236">
+        <v>1</v>
+      </c>
+      <c r="J527" s="146">
+        <v>1606147200</v>
+      </c>
+      <c r="K527" s="146">
+        <v>1606751999</v>
+      </c>
+      <c r="L527" s="146">
         <v>-1</v>
       </c>
     </row>
@@ -35246,10 +35363,10 @@
   <dimension ref="A1:K527"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C497" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D524" sqref="D524"/>
+      <selection pane="bottomRight" activeCell="H527" sqref="H527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -48451,14 +48568,37 @@
         <v>841</v>
       </c>
       <c r="I526" s="214" t="s">
-        <v>387</v>
+        <v>2136</v>
       </c>
       <c r="J526" s="216">
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
-      <c r="J527" s="6"/>
+    <row r="527" spans="1:10" s="142" customFormat="1">
+      <c r="A527" s="139">
+        <v>526</v>
+      </c>
+      <c r="B527" s="138">
+        <v>21474</v>
+      </c>
+      <c r="C527" s="139"/>
+      <c r="D527" s="139">
+        <v>514</v>
+      </c>
+      <c r="E527" s="139"/>
+      <c r="F527" s="145" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G527" s="140"/>
+      <c r="H527" s="144" t="s">
+        <v>2135</v>
+      </c>
+      <c r="I527" s="143" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J527" s="142">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -48470,11 +48610,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I785"/>
+  <dimension ref="A1:I792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D783" sqref="D783"/>
+      <selection pane="bottomLeft" activeCell="E795" sqref="E795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59826,6 +59966,104 @@
         <v>363</v>
       </c>
     </row>
+    <row r="786" spans="1:4" s="142" customFormat="1">
+      <c r="A786" s="139">
+        <v>785</v>
+      </c>
+      <c r="B786" s="139">
+        <v>514</v>
+      </c>
+      <c r="C786" s="143" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D786" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" s="142" customFormat="1">
+      <c r="A787" s="143">
+        <v>786</v>
+      </c>
+      <c r="B787" s="139">
+        <v>514</v>
+      </c>
+      <c r="C787" s="143" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D787" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" s="142" customFormat="1">
+      <c r="A788" s="139">
+        <v>787</v>
+      </c>
+      <c r="B788" s="139">
+        <v>514</v>
+      </c>
+      <c r="C788" s="143" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D788" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" s="142" customFormat="1">
+      <c r="A789" s="139">
+        <v>788</v>
+      </c>
+      <c r="B789" s="139">
+        <v>514</v>
+      </c>
+      <c r="C789" s="143" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D789" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" s="142" customFormat="1">
+      <c r="A790" s="143">
+        <v>789</v>
+      </c>
+      <c r="B790" s="139">
+        <v>514</v>
+      </c>
+      <c r="C790" s="143" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D790" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" s="142" customFormat="1">
+      <c r="A791" s="139">
+        <v>790</v>
+      </c>
+      <c r="B791" s="139">
+        <v>514</v>
+      </c>
+      <c r="C791" s="143" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D791" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" s="142" customFormat="1">
+      <c r="A792" s="143">
+        <v>791</v>
+      </c>
+      <c r="B792" s="139">
+        <v>514</v>
+      </c>
+      <c r="C792" s="143" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D792" s="236">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59836,13 +60074,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M488"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C457" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D488" sqref="D488"/>
+      <selection pane="bottomRight" activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -68812,6 +69050,46 @@
       </c>
       <c r="F488" s="192"/>
     </row>
+    <row r="489" spans="1:6">
+      <c r="A489" s="237"/>
+      <c r="B489" s="237"/>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" s="237"/>
+      <c r="B490" s="237"/>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" s="237"/>
+      <c r="B491" s="237"/>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" s="237"/>
+      <c r="B492" s="237"/>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" s="237"/>
+      <c r="B493" s="237"/>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" s="237"/>
+      <c r="B494" s="237"/>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" s="237"/>
+      <c r="B495" s="237"/>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" s="237"/>
+      <c r="B496" s="237"/>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="237"/>
+      <c r="B497" s="237"/>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="237"/>
+      <c r="B498" s="237"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -68822,13 +69100,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1253"/>
+  <dimension ref="A1:W1254"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1223" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1247" sqref="C1247"/>
+      <selection pane="bottomRight" activeCell="C1256" sqref="C1256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -94439,6 +94717,23 @@
       <c r="G1253" s="139"/>
       <c r="H1253" s="139"/>
       <c r="I1253" s="139"/>
+    </row>
+    <row r="1254" spans="1:9">
+      <c r="A1254" s="7">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>842</v>
+      </c>
+      <c r="D1254" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E1254" s="64" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_11.24/task_zajindan_server.xlsx
+++ b/config_11.24/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -14946,10 +14946,10 @@
   <dimension ref="A1:T527"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G512" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E512" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G527" sqref="G527"/>
+      <selection pane="bottomRight" activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -48612,9 +48612,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I792"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E795" sqref="E795"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L770" sqref="L770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -58832,7 +58832,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="705" spans="1:4" s="181" customFormat="1">
+    <row r="705" spans="1:5" s="181" customFormat="1">
       <c r="A705" s="177">
         <v>704</v>
       </c>
@@ -58846,7 +58846,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="706" spans="1:4" s="202" customFormat="1">
+    <row r="706" spans="1:5" s="202" customFormat="1">
       <c r="A706" s="200">
         <v>705</v>
       </c>
@@ -58860,7 +58860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" s="202" customFormat="1">
+    <row r="707" spans="1:5" s="202" customFormat="1">
       <c r="A707" s="200">
         <v>706</v>
       </c>
@@ -58874,7 +58874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" s="224" customFormat="1">
+    <row r="708" spans="1:5" s="224" customFormat="1">
       <c r="A708" s="205">
         <v>707</v>
       </c>
@@ -58888,7 +58888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" s="202" customFormat="1">
+    <row r="709" spans="1:5" s="202" customFormat="1">
       <c r="A709" s="200">
         <v>708</v>
       </c>
@@ -58902,7 +58902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" s="202" customFormat="1">
+    <row r="710" spans="1:5" s="202" customFormat="1">
       <c r="A710" s="200">
         <v>709</v>
       </c>
@@ -58915,8 +58915,11 @@
       <c r="D710" s="200">
         <v>0</v>
       </c>
-    </row>
-    <row r="711" spans="1:4" s="202" customFormat="1">
+      <c r="E710" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" s="202" customFormat="1">
       <c r="A711" s="200">
         <v>710</v>
       </c>
@@ -58930,7 +58933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" s="202" customFormat="1">
+    <row r="712" spans="1:5" s="202" customFormat="1">
       <c r="A712" s="200">
         <v>711</v>
       </c>
@@ -58944,7 +58947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" s="202" customFormat="1">
+    <row r="713" spans="1:5" s="202" customFormat="1">
       <c r="A713" s="200">
         <v>712</v>
       </c>
@@ -58958,7 +58961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" s="202" customFormat="1">
+    <row r="714" spans="1:5" s="202" customFormat="1">
       <c r="A714" s="200">
         <v>713</v>
       </c>
@@ -58972,7 +58975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" s="207" customFormat="1">
+    <row r="715" spans="1:5" s="207" customFormat="1">
       <c r="A715" s="200">
         <v>714</v>
       </c>
@@ -58986,7 +58989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" s="207" customFormat="1">
+    <row r="716" spans="1:5" s="207" customFormat="1">
       <c r="A716" s="200">
         <v>715</v>
       </c>
@@ -59000,7 +59003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" s="207" customFormat="1">
+    <row r="717" spans="1:5" s="207" customFormat="1">
       <c r="A717" s="205">
         <v>716</v>
       </c>
@@ -59014,7 +59017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" s="207" customFormat="1">
+    <row r="718" spans="1:5" s="207" customFormat="1">
       <c r="A718" s="200">
         <v>717</v>
       </c>
@@ -59028,7 +59031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" s="207" customFormat="1">
+    <row r="719" spans="1:5" s="207" customFormat="1">
       <c r="A719" s="200">
         <v>718</v>
       </c>
@@ -59041,8 +59044,11 @@
       <c r="D719" s="209">
         <v>0</v>
       </c>
-    </row>
-    <row r="720" spans="1:4" s="207" customFormat="1">
+      <c r="E719" s="207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" s="207" customFormat="1">
       <c r="A720" s="200">
         <v>719</v>
       </c>
@@ -59056,7 +59062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:4" s="207" customFormat="1">
+    <row r="721" spans="1:5" s="207" customFormat="1">
       <c r="A721" s="200">
         <v>720</v>
       </c>
@@ -59070,7 +59076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" s="207" customFormat="1">
+    <row r="722" spans="1:5" s="207" customFormat="1">
       <c r="A722" s="200">
         <v>721</v>
       </c>
@@ -59084,7 +59090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" s="207" customFormat="1">
+    <row r="723" spans="1:5" s="207" customFormat="1">
       <c r="A723" s="200">
         <v>722</v>
       </c>
@@ -59098,7 +59104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" s="202" customFormat="1">
+    <row r="724" spans="1:5" s="202" customFormat="1">
       <c r="A724" s="200">
         <v>723</v>
       </c>
@@ -59112,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" s="202" customFormat="1">
+    <row r="725" spans="1:5" s="202" customFormat="1">
       <c r="A725" s="205">
         <v>724</v>
       </c>
@@ -59126,7 +59132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" s="202" customFormat="1">
+    <row r="726" spans="1:5" s="202" customFormat="1">
       <c r="A726" s="200">
         <v>725</v>
       </c>
@@ -59140,7 +59146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" s="202" customFormat="1">
+    <row r="727" spans="1:5" s="202" customFormat="1">
       <c r="A727" s="200">
         <v>726</v>
       </c>
@@ -59154,7 +59160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" s="202" customFormat="1">
+    <row r="728" spans="1:5" s="202" customFormat="1">
       <c r="A728" s="200">
         <v>727</v>
       </c>
@@ -59167,8 +59173,11 @@
       <c r="D728" s="200">
         <v>0</v>
       </c>
-    </row>
-    <row r="729" spans="1:4" s="202" customFormat="1">
+      <c r="E728" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" s="202" customFormat="1">
       <c r="A729" s="200">
         <v>728</v>
       </c>
@@ -59182,7 +59191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" s="202" customFormat="1">
+    <row r="730" spans="1:5" s="202" customFormat="1">
       <c r="A730" s="200">
         <v>729</v>
       </c>
@@ -59196,7 +59205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" s="202" customFormat="1">
+    <row r="731" spans="1:5" s="202" customFormat="1">
       <c r="A731" s="200">
         <v>730</v>
       </c>
@@ -59210,7 +59219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" s="202" customFormat="1">
+    <row r="732" spans="1:5" s="202" customFormat="1">
       <c r="A732" s="200">
         <v>731</v>
       </c>
@@ -59224,7 +59233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:4" s="207" customFormat="1">
+    <row r="733" spans="1:5" s="207" customFormat="1">
       <c r="A733" s="200">
         <v>732</v>
       </c>
@@ -59238,7 +59247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:4" s="207" customFormat="1">
+    <row r="734" spans="1:5" s="207" customFormat="1">
       <c r="A734" s="205">
         <v>733</v>
       </c>
@@ -59252,7 +59261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" s="207" customFormat="1">
+    <row r="735" spans="1:5" s="207" customFormat="1">
       <c r="A735" s="200">
         <v>734</v>
       </c>
@@ -59266,7 +59275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" s="207" customFormat="1">
+    <row r="736" spans="1:5" s="207" customFormat="1">
       <c r="A736" s="200">
         <v>735</v>
       </c>
@@ -59280,7 +59289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:4" s="207" customFormat="1">
+    <row r="737" spans="1:5" s="207" customFormat="1">
       <c r="A737" s="200">
         <v>736</v>
       </c>
@@ -59293,8 +59302,11 @@
       <c r="D737" s="206">
         <v>0</v>
       </c>
-    </row>
-    <row r="738" spans="1:4" s="207" customFormat="1">
+      <c r="E737" s="207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" s="207" customFormat="1">
       <c r="A738" s="200">
         <v>737</v>
       </c>
@@ -59308,7 +59320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:4" s="207" customFormat="1">
+    <row r="739" spans="1:5" s="207" customFormat="1">
       <c r="A739" s="200">
         <v>738</v>
       </c>
@@ -59322,7 +59334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" s="207" customFormat="1">
+    <row r="740" spans="1:5" s="207" customFormat="1">
       <c r="A740" s="200">
         <v>739</v>
       </c>
@@ -59336,7 +59348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:4" s="207" customFormat="1">
+    <row r="741" spans="1:5" s="207" customFormat="1">
       <c r="A741" s="200">
         <v>740</v>
       </c>
@@ -59350,7 +59362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" s="202" customFormat="1">
+    <row r="742" spans="1:5" s="202" customFormat="1">
       <c r="A742" s="205">
         <v>741</v>
       </c>
@@ -59364,7 +59376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" s="202" customFormat="1">
+    <row r="743" spans="1:5" s="202" customFormat="1">
       <c r="A743" s="200">
         <v>742</v>
       </c>
@@ -59378,7 +59390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" s="202" customFormat="1">
+    <row r="744" spans="1:5" s="202" customFormat="1">
       <c r="A744" s="200">
         <v>743</v>
       </c>
@@ -59392,7 +59404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" s="202" customFormat="1">
+    <row r="745" spans="1:5" s="202" customFormat="1">
       <c r="A745" s="200">
         <v>744</v>
       </c>
@@ -59406,7 +59418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" s="202" customFormat="1">
+    <row r="746" spans="1:5" s="202" customFormat="1">
       <c r="A746" s="200">
         <v>745</v>
       </c>
@@ -59419,8 +59431,11 @@
       <c r="D746" s="200">
         <v>0</v>
       </c>
-    </row>
-    <row r="747" spans="1:4" s="202" customFormat="1">
+      <c r="E746" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" s="202" customFormat="1">
       <c r="A747" s="200">
         <v>746</v>
       </c>
@@ -59434,7 +59449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" s="202" customFormat="1">
+    <row r="748" spans="1:5" s="202" customFormat="1">
       <c r="A748" s="200">
         <v>747</v>
       </c>
@@ -59448,7 +59463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" s="202" customFormat="1">
+    <row r="749" spans="1:5" s="202" customFormat="1">
       <c r="A749" s="200">
         <v>748</v>
       </c>
@@ -59462,7 +59477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" s="202" customFormat="1">
+    <row r="750" spans="1:5" s="202" customFormat="1">
       <c r="A750" s="200">
         <v>749</v>
       </c>
@@ -59476,7 +59491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" s="207" customFormat="1">
+    <row r="751" spans="1:5" s="207" customFormat="1">
       <c r="A751" s="205">
         <v>750</v>
       </c>
@@ -59490,7 +59505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" s="207" customFormat="1">
+    <row r="752" spans="1:5" s="207" customFormat="1">
       <c r="A752" s="200">
         <v>751</v>
       </c>
@@ -59504,7 +59519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" s="207" customFormat="1">
+    <row r="753" spans="1:5" s="207" customFormat="1">
       <c r="A753" s="200">
         <v>752</v>
       </c>
@@ -59518,7 +59533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" s="207" customFormat="1">
+    <row r="754" spans="1:5" s="207" customFormat="1">
       <c r="A754" s="200">
         <v>753</v>
       </c>
@@ -59532,7 +59547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" s="207" customFormat="1">
+    <row r="755" spans="1:5" s="207" customFormat="1">
       <c r="A755" s="200">
         <v>754</v>
       </c>
@@ -59545,8 +59560,11 @@
       <c r="D755" s="206">
         <v>0</v>
       </c>
-    </row>
-    <row r="756" spans="1:4" s="207" customFormat="1">
+      <c r="E755" s="207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" s="207" customFormat="1">
       <c r="A756" s="200">
         <v>755</v>
       </c>
@@ -59560,7 +59578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" s="207" customFormat="1">
+    <row r="757" spans="1:5" s="207" customFormat="1">
       <c r="A757" s="200">
         <v>756</v>
       </c>
@@ -59574,7 +59592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" s="207" customFormat="1" ht="13.5" customHeight="1">
+    <row r="758" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
       <c r="A758" s="200">
         <v>757</v>
       </c>
@@ -59588,7 +59606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" s="207" customFormat="1" ht="13.5" customHeight="1">
+    <row r="759" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
       <c r="A759" s="205">
         <v>758</v>
       </c>
@@ -59602,7 +59620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:4" s="202" customFormat="1">
+    <row r="760" spans="1:5" s="202" customFormat="1">
       <c r="A760" s="200">
         <v>759</v>
       </c>
@@ -59616,7 +59634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" s="202" customFormat="1">
+    <row r="761" spans="1:5" s="202" customFormat="1">
       <c r="A761" s="200">
         <v>760</v>
       </c>
@@ -59630,7 +59648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" s="202" customFormat="1">
+    <row r="762" spans="1:5" s="202" customFormat="1">
       <c r="A762" s="200">
         <v>761</v>
       </c>
@@ -59644,7 +59662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" s="202" customFormat="1">
+    <row r="763" spans="1:5" s="202" customFormat="1">
       <c r="A763" s="200">
         <v>762</v>
       </c>
@@ -59658,7 +59676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" s="202" customFormat="1">
+    <row r="764" spans="1:5" s="202" customFormat="1">
       <c r="A764" s="200">
         <v>763</v>
       </c>
@@ -59671,8 +59689,11 @@
       <c r="D764" s="200">
         <v>0</v>
       </c>
-    </row>
-    <row r="765" spans="1:4" s="202" customFormat="1">
+      <c r="E764" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" s="202" customFormat="1">
       <c r="A765" s="200">
         <v>764</v>
       </c>
@@ -59686,7 +59707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" s="202" customFormat="1">
+    <row r="766" spans="1:5" s="202" customFormat="1">
       <c r="A766" s="200">
         <v>765</v>
       </c>
@@ -59700,7 +59721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:4" s="202" customFormat="1">
+    <row r="767" spans="1:5" s="202" customFormat="1">
       <c r="A767" s="200">
         <v>766</v>
       </c>
@@ -59714,7 +59735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" s="202" customFormat="1">
+    <row r="768" spans="1:5" s="202" customFormat="1">
       <c r="A768" s="205">
         <v>767</v>
       </c>
@@ -59728,7 +59749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:4" s="207" customFormat="1">
+    <row r="769" spans="1:5" s="207" customFormat="1">
       <c r="A769" s="200">
         <v>768</v>
       </c>
@@ -59742,7 +59763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" s="207" customFormat="1">
+    <row r="770" spans="1:5" s="207" customFormat="1">
       <c r="A770" s="200">
         <v>769</v>
       </c>
@@ -59756,7 +59777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" s="207" customFormat="1">
+    <row r="771" spans="1:5" s="207" customFormat="1">
       <c r="A771" s="200">
         <v>770</v>
       </c>
@@ -59770,7 +59791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" s="207" customFormat="1">
+    <row r="772" spans="1:5" s="207" customFormat="1">
       <c r="A772" s="200">
         <v>771</v>
       </c>
@@ -59784,7 +59805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" s="207" customFormat="1">
+    <row r="773" spans="1:5" s="207" customFormat="1">
       <c r="A773" s="200">
         <v>772</v>
       </c>
@@ -59797,8 +59818,11 @@
       <c r="D773" s="206">
         <v>0</v>
       </c>
-    </row>
-    <row r="774" spans="1:4" s="207" customFormat="1">
+      <c r="E773" s="207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" s="207" customFormat="1">
       <c r="A774" s="200">
         <v>773</v>
       </c>
@@ -59812,7 +59836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:4" s="207" customFormat="1">
+    <row r="775" spans="1:5" s="207" customFormat="1">
       <c r="A775" s="200">
         <v>774</v>
       </c>
@@ -59826,7 +59850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" s="207" customFormat="1">
+    <row r="776" spans="1:5" s="207" customFormat="1">
       <c r="A776" s="205">
         <v>775</v>
       </c>
@@ -59840,7 +59864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" s="207" customFormat="1">
+    <row r="777" spans="1:5" s="207" customFormat="1">
       <c r="A777" s="200">
         <v>776</v>
       </c>
@@ -59854,7 +59878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" s="149" customFormat="1">
+    <row r="778" spans="1:5" s="149" customFormat="1">
       <c r="A778" s="147">
         <v>777</v>
       </c>
@@ -59868,7 +59892,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="779" spans="1:4" s="149" customFormat="1">
+    <row r="779" spans="1:5" s="149" customFormat="1">
       <c r="A779" s="190">
         <v>778</v>
       </c>
@@ -59882,7 +59906,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="780" spans="1:4" s="149" customFormat="1">
+    <row r="780" spans="1:5" s="149" customFormat="1">
       <c r="A780" s="147">
         <v>779</v>
       </c>
@@ -59896,7 +59920,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="781" spans="1:4" s="149" customFormat="1">
+    <row r="781" spans="1:5" s="149" customFormat="1">
       <c r="A781" s="147">
         <v>780</v>
       </c>
@@ -59910,7 +59934,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="782" spans="1:4" s="149" customFormat="1">
+    <row r="782" spans="1:5" s="149" customFormat="1">
       <c r="A782" s="190">
         <v>781</v>
       </c>
@@ -59924,7 +59948,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="783" spans="1:4" s="149" customFormat="1">
+    <row r="783" spans="1:5" s="149" customFormat="1">
       <c r="A783" s="147">
         <v>782</v>
       </c>
@@ -59938,7 +59962,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="784" spans="1:4" s="149" customFormat="1">
+    <row r="784" spans="1:5" s="149" customFormat="1">
       <c r="A784" s="147">
         <v>783</v>
       </c>
@@ -69102,8 +69126,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1223" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C1256" sqref="C1256"/>

--- a/config_11.24/task_zajindan_server.xlsx
+++ b/config_11.24/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="2141">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9888,10 +9888,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -13651,6 +13647,14 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -29280,10 +29284,10 @@
         <v>1488</v>
       </c>
       <c r="D368" s="98" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E368" s="97" t="s">
         <v>1659</v>
-      </c>
-      <c r="E368" s="97" t="s">
-        <v>1660</v>
       </c>
       <c r="F368" s="97" t="s">
         <v>1489</v>
@@ -29318,10 +29322,10 @@
         <v>1488</v>
       </c>
       <c r="D369" s="98" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E369" s="97" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F369" s="97" t="s">
         <v>1489</v>
@@ -29356,10 +29360,10 @@
         <v>1488</v>
       </c>
       <c r="D370" s="97" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E370" s="97" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F370" s="97" t="s">
         <v>1489</v>
@@ -29394,10 +29398,10 @@
         <v>1490</v>
       </c>
       <c r="D371" s="97" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E371" s="97" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F371" s="97" t="s">
         <v>1489</v>
@@ -31487,7 +31491,7 @@
         <v>1496</v>
       </c>
       <c r="E426" s="113" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F426" s="112" t="s">
         <v>854</v>
@@ -32203,16 +32207,16 @@
         <v>1</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="E445" s="16" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F445" s="16" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G445" s="12">
         <v>21392</v>
@@ -32241,16 +32245,16 @@
         <v>1</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D446" s="16" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="E446" s="16" t="s">
+        <v>1752</v>
+      </c>
+      <c r="F446" s="16" t="s">
         <v>1753</v>
-      </c>
-      <c r="F446" s="16" t="s">
-        <v>1754</v>
       </c>
       <c r="G446" s="12">
         <v>21393</v>
@@ -32662,10 +32666,10 @@
         <v>1628</v>
       </c>
       <c r="D457" s="184" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E457" s="16" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F457" s="16" t="s">
         <v>1634</v>
@@ -32700,10 +32704,10 @@
         <v>1629</v>
       </c>
       <c r="D458" s="184" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E458" s="16" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F458" s="16" t="s">
         <v>1634</v>
@@ -32738,10 +32742,10 @@
         <v>1628</v>
       </c>
       <c r="D459" s="16" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E459" s="16" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F459" s="16" t="s">
         <v>1634</v>
@@ -32779,7 +32783,7 @@
         <v>1640</v>
       </c>
       <c r="E460" s="183" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F460" s="182" t="s">
         <v>1635</v>
@@ -32890,10 +32894,10 @@
         <v>1648</v>
       </c>
       <c r="D463" s="16" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E463" s="16" t="s">
         <v>1661</v>
-      </c>
-      <c r="E463" s="16" t="s">
-        <v>1662</v>
       </c>
       <c r="F463" s="16" t="s">
         <v>1649</v>
@@ -32928,10 +32932,10 @@
         <v>1488</v>
       </c>
       <c r="D464" s="184" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E464" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F464" s="16" t="s">
         <v>1489</v>
@@ -32966,10 +32970,10 @@
         <v>1488</v>
       </c>
       <c r="D465" s="184" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E465" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F465" s="16" t="s">
         <v>1489</v>
@@ -33004,10 +33008,10 @@
         <v>1488</v>
       </c>
       <c r="D466" s="16" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E466" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F466" s="16" t="s">
         <v>1489</v>
@@ -33042,10 +33046,10 @@
         <v>1488</v>
       </c>
       <c r="D467" s="16" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E467" s="16" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F467" s="16" t="s">
         <v>1489</v>
@@ -33080,10 +33084,10 @@
         <v>1648</v>
       </c>
       <c r="D468" s="16" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E468" s="16" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="F468" s="16" t="s">
         <v>1649</v>
@@ -33118,10 +33122,10 @@
         <v>1628</v>
       </c>
       <c r="D469" s="184" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E469" s="16" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F469" s="16" t="s">
         <v>1634</v>
@@ -33156,10 +33160,10 @@
         <v>1628</v>
       </c>
       <c r="D470" s="184" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E470" s="16" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F470" s="16" t="s">
         <v>1634</v>
@@ -33194,10 +33198,10 @@
         <v>1628</v>
       </c>
       <c r="D471" s="16" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E471" s="16" t="s">
         <v>1695</v>
-      </c>
-      <c r="E471" s="16" t="s">
-        <v>1696</v>
       </c>
       <c r="F471" s="16" t="s">
         <v>1634</v>
@@ -33229,16 +33233,16 @@
         <v>1</v>
       </c>
       <c r="C472" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D472" s="48" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E472" s="48" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F472" s="48" t="s">
         <v>1713</v>
-      </c>
-      <c r="E472" s="48" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F472" s="48" t="s">
-        <v>1714</v>
       </c>
       <c r="G472" s="151">
         <v>21419</v>
@@ -33267,16 +33271,16 @@
         <v>1</v>
       </c>
       <c r="C473" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D473" s="7" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E473" s="48" t="s">
         <v>1500</v>
       </c>
       <c r="F473" s="48" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G473" s="151">
         <v>21420</v>
@@ -33305,16 +33309,16 @@
         <v>1</v>
       </c>
       <c r="C474" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E474" s="48" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F474" s="48" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G474" s="7">
         <v>21421</v>
@@ -33343,16 +33347,16 @@
         <v>1</v>
       </c>
       <c r="C475" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D475" s="48" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E475" s="48" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="F475" s="48" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G475" s="7">
         <v>21422</v>
@@ -33381,16 +33385,16 @@
         <v>1</v>
       </c>
       <c r="C476" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E476" s="48" t="s">
         <v>1500</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -33419,16 +33423,16 @@
         <v>1</v>
       </c>
       <c r="C477" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D477" s="7" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E477" s="48" t="s">
         <v>1500</v>
       </c>
       <c r="F477" s="48" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G477" s="7">
         <v>21424</v>
@@ -33457,16 +33461,16 @@
         <v>1</v>
       </c>
       <c r="C478" s="48" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D478" s="7" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E478" s="48" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F478" s="48" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G478" s="7">
         <v>21425</v>
@@ -33495,13 +33499,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="48" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D479" s="48" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E479" s="48" t="s">
         <v>1745</v>
-      </c>
-      <c r="D479" s="48" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E479" s="48" t="s">
-        <v>1746</v>
       </c>
       <c r="F479" s="60" t="s">
         <v>854</v>
@@ -33533,13 +33537,13 @@
         <v>1</v>
       </c>
       <c r="C480" s="48" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D480" s="48" t="s">
         <v>1766</v>
       </c>
-      <c r="D480" s="48" t="s">
-        <v>1767</v>
-      </c>
       <c r="E480" s="48" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F480" s="60" t="s">
         <v>854</v>
@@ -33577,7 +33581,7 @@
         <v>319</v>
       </c>
       <c r="E481" s="16" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="F481" s="16" t="s">
         <v>13</v>
@@ -33609,16 +33613,16 @@
         <v>1</v>
       </c>
       <c r="C482" s="130" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D482" s="129" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E482" s="130" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F482" s="130" t="s">
         <v>2077</v>
-      </c>
-      <c r="F482" s="130" t="s">
-        <v>2078</v>
       </c>
       <c r="G482" s="129">
         <v>21429</v>
@@ -33647,13 +33651,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="138" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D483" s="138" t="s">
         <v>1821</v>
       </c>
-      <c r="D483" s="138" t="s">
-        <v>1822</v>
-      </c>
       <c r="E483" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -33685,13 +33689,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="138" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D484" s="138" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E484" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -33723,13 +33727,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="138" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D485" s="138" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E485" s="138" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -33761,13 +33765,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="138" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D486" s="138" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E486" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -33799,13 +33803,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="138" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D487" s="138" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E487" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -33837,13 +33841,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="138" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D488" s="138" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E488" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -33875,13 +33879,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="138" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D489" s="138" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E489" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -33913,16 +33917,16 @@
         <v>1</v>
       </c>
       <c r="C490" s="153" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E490" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F490" s="153" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G490" s="152">
         <v>21437</v>
@@ -33951,16 +33955,16 @@
         <v>1</v>
       </c>
       <c r="C491" s="153" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E491" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F491" s="153" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G491" s="152">
         <v>21438</v>
@@ -33989,16 +33993,16 @@
         <v>1</v>
       </c>
       <c r="C492" s="153" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D492" s="156" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E492" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F492" s="153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G492" s="152">
         <v>21439</v>
@@ -34027,16 +34031,16 @@
         <v>1</v>
       </c>
       <c r="C493" s="153" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D493" s="156" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E493" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F493" s="153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G493" s="152">
         <v>21440</v>
@@ -34065,16 +34069,16 @@
         <v>1</v>
       </c>
       <c r="C494" s="153" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D494" s="155" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E494" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F494" s="153" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G494" s="152">
         <v>21441</v>
@@ -34103,16 +34107,16 @@
         <v>1</v>
       </c>
       <c r="C495" s="153" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D495" s="156" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E495" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F495" s="153" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G495" s="152">
         <v>21442</v>
@@ -34141,16 +34145,16 @@
         <v>1</v>
       </c>
       <c r="C496" s="153" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D496" s="156" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E496" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F496" s="153" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G496" s="152">
         <v>21443</v>
@@ -34179,16 +34183,16 @@
         <v>1</v>
       </c>
       <c r="C497" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E497" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F497" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G497" s="152">
         <v>21444</v>
@@ -34217,16 +34221,16 @@
         <v>1</v>
       </c>
       <c r="C498" s="153" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D498" s="155" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E498" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F498" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G498" s="152">
         <v>21445</v>
@@ -34255,16 +34259,16 @@
         <v>1</v>
       </c>
       <c r="C499" s="153" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E499" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F499" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G499" s="152">
         <v>21446</v>
@@ -34293,16 +34297,16 @@
         <v>1</v>
       </c>
       <c r="C500" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E500" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F500" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G500" s="152">
         <v>21447</v>
@@ -34331,16 +34335,16 @@
         <v>1</v>
       </c>
       <c r="C501" s="153" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D501" s="157" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E501" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F501" s="153" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G501" s="152">
         <v>21448</v>
@@ -34369,16 +34373,16 @@
         <v>1</v>
       </c>
       <c r="C502" s="153" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D502" s="155" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E502" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F502" s="153" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G502" s="152">
         <v>21449</v>
@@ -34407,16 +34411,16 @@
         <v>1</v>
       </c>
       <c r="C503" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D503" s="155" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E503" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F503" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G503" s="152">
         <v>21450</v>
@@ -34445,16 +34449,16 @@
         <v>1</v>
       </c>
       <c r="C504" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D504" s="155" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E504" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F504" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G504" s="152">
         <v>21451</v>
@@ -34483,16 +34487,16 @@
         <v>1</v>
       </c>
       <c r="C505" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D505" s="155" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E505" s="153" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F505" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G505" s="152">
         <v>21452</v>
@@ -34521,16 +34525,16 @@
         <v>1</v>
       </c>
       <c r="C506" s="166" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D506" s="166" t="s">
         <v>1953</v>
       </c>
-      <c r="D506" s="166" t="s">
+      <c r="E506" s="153" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F506" s="166" t="s">
         <v>1954</v>
-      </c>
-      <c r="E506" s="153" t="s">
-        <v>2127</v>
-      </c>
-      <c r="F506" s="166" t="s">
-        <v>1955</v>
       </c>
       <c r="G506" s="166">
         <v>21453</v>
@@ -34673,16 +34677,16 @@
         <v>1</v>
       </c>
       <c r="C510" s="191" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D510" s="192" t="s">
         <v>2000</v>
-      </c>
-      <c r="D510" s="192" t="s">
-        <v>2001</v>
       </c>
       <c r="E510" s="191" t="s">
         <v>1500</v>
       </c>
       <c r="F510" s="193" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G510" s="146">
         <v>21457</v>
@@ -34711,13 +34715,13 @@
         <v>1</v>
       </c>
       <c r="C511" s="194" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D511" s="195" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="E511" s="196" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F511" s="178" t="s">
         <v>13</v>
@@ -34749,13 +34753,13 @@
         <v>1</v>
       </c>
       <c r="C512" s="194" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D512" s="195" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E512" s="196" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F512" s="178" t="s">
         <v>13</v>
@@ -34787,13 +34791,13 @@
         <v>1</v>
       </c>
       <c r="C513" s="194" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D513" s="195" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E513" s="196" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F513" s="178" t="s">
         <v>13</v>
@@ -34825,13 +34829,13 @@
         <v>1</v>
       </c>
       <c r="C514" s="194" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D514" s="195" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E514" s="196" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F514" s="178" t="s">
         <v>13</v>
@@ -34863,13 +34867,13 @@
         <v>1</v>
       </c>
       <c r="C515" s="194" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D515" s="195" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E515" s="196" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F515" s="178" t="s">
         <v>13</v>
@@ -34901,13 +34905,13 @@
         <v>1</v>
       </c>
       <c r="C516" s="194" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D516" s="195" t="s">
         <v>2007</v>
       </c>
-      <c r="D516" s="195" t="s">
-        <v>2008</v>
-      </c>
       <c r="E516" s="196" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F516" s="178" t="s">
         <v>13</v>
@@ -34939,16 +34943,16 @@
         <v>1</v>
       </c>
       <c r="C517" s="232" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D517" s="233" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E517" s="233" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F517" s="233" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G517" s="211">
         <v>21464</v>
@@ -34977,16 +34981,16 @@
         <v>1</v>
       </c>
       <c r="C518" s="232" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D518" s="233" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E518" s="233" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F518" s="233" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G518" s="233">
         <v>21465</v>
@@ -35015,13 +35019,13 @@
         <v>1</v>
       </c>
       <c r="C519" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D519" s="191" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E519" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D519" s="191" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E519" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F519" s="191" t="s">
         <v>854</v>
@@ -35053,13 +35057,13 @@
         <v>1</v>
       </c>
       <c r="C520" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D520" s="191" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E520" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D520" s="191" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E520" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F520" s="191" t="s">
         <v>854</v>
@@ -35091,13 +35095,13 @@
         <v>1</v>
       </c>
       <c r="C521" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D521" s="191" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E521" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D521" s="191" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E521" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F521" s="191" t="s">
         <v>854</v>
@@ -35129,13 +35133,13 @@
         <v>1</v>
       </c>
       <c r="C522" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D522" s="191" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E522" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D522" s="191" t="s">
-        <v>2107</v>
-      </c>
-      <c r="E522" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F522" s="191" t="s">
         <v>854</v>
@@ -35167,13 +35171,13 @@
         <v>1</v>
       </c>
       <c r="C523" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D523" s="191" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E523" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D523" s="191" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E523" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F523" s="191" t="s">
         <v>854</v>
@@ -35205,13 +35209,13 @@
         <v>1</v>
       </c>
       <c r="C524" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D524" s="191" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E524" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D524" s="191" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E524" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F524" s="191" t="s">
         <v>854</v>
@@ -35243,13 +35247,13 @@
         <v>1</v>
       </c>
       <c r="C525" s="146" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D525" s="191" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E525" s="191" t="s">
         <v>2102</v>
-      </c>
-      <c r="D525" s="191" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E525" s="191" t="s">
-        <v>2103</v>
       </c>
       <c r="F525" s="191" t="s">
         <v>854</v>
@@ -35281,16 +35285,16 @@
         <v>1</v>
       </c>
       <c r="C526" s="146" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D526" s="191" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E526" s="191" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F526" s="191" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="G526" s="191">
         <v>21473</v>
@@ -35319,16 +35323,16 @@
         <v>1</v>
       </c>
       <c r="C527" s="236" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D527" s="236" t="s">
         <v>2128</v>
       </c>
-      <c r="D527" s="236" t="s">
-        <v>2129</v>
-      </c>
       <c r="E527" s="236" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F527" s="236" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G527" s="146">
         <v>21474</v>
@@ -46693,11 +46697,11 @@
       </c>
       <c r="E445" s="10"/>
       <c r="F445" s="81" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="G445" s="78"/>
       <c r="H445" s="81" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="I445" s="19" t="s">
         <v>1264</v>
@@ -46716,11 +46720,11 @@
       </c>
       <c r="E446" s="10"/>
       <c r="F446" s="81" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="G446" s="78"/>
       <c r="H446" s="82" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I446" s="19" t="s">
         <v>1264</v>
@@ -47119,11 +47123,11 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="81" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G463" s="78"/>
       <c r="H463" s="111" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="I463" s="19" t="s">
         <v>1650</v>
@@ -47146,7 +47150,7 @@
       </c>
       <c r="G464" s="34"/>
       <c r="H464" s="15" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I464" s="13" t="s">
         <v>917</v>
@@ -47169,7 +47173,7 @@
       </c>
       <c r="G465" s="34"/>
       <c r="H465" s="15" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I465" s="13" t="s">
         <v>917</v>
@@ -47192,7 +47196,7 @@
       </c>
       <c r="G466" s="34"/>
       <c r="H466" s="15" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="I466" s="13" t="s">
         <v>917</v>
@@ -47215,7 +47219,7 @@
       </c>
       <c r="G467" s="34"/>
       <c r="H467" s="15" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I467" s="13" t="s">
         <v>917</v>
@@ -47234,11 +47238,11 @@
       </c>
       <c r="E468" s="10"/>
       <c r="F468" s="81" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G468" s="78"/>
       <c r="H468" s="111" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I468" s="19" t="s">
         <v>1650</v>
@@ -47261,7 +47265,7 @@
       </c>
       <c r="G469" s="34"/>
       <c r="H469" s="15" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="I469" s="13" t="s">
         <v>917</v>
@@ -47284,7 +47288,7 @@
       </c>
       <c r="G470" s="34"/>
       <c r="H470" s="15" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="I470" s="13" t="s">
         <v>917</v>
@@ -47307,7 +47311,7 @@
       </c>
       <c r="G471" s="34"/>
       <c r="H471" s="15" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I471" s="13" t="s">
         <v>917</v>
@@ -47326,14 +47330,14 @@
       </c>
       <c r="E472" s="104"/>
       <c r="F472" s="106" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G472" s="107"/>
       <c r="H472" s="173">
         <v>724</v>
       </c>
       <c r="I472" s="105" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="473" spans="1:10" s="6" customFormat="1">
@@ -47349,14 +47353,14 @@
       </c>
       <c r="E473" s="11"/>
       <c r="F473" s="39" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G473" s="34"/>
       <c r="H473" s="173">
         <v>724</v>
       </c>
       <c r="I473" s="13" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="474" spans="1:10" s="6" customFormat="1">
@@ -47372,14 +47376,14 @@
       </c>
       <c r="E474" s="11"/>
       <c r="F474" s="39" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G474" s="34"/>
       <c r="H474" s="173">
         <v>724</v>
       </c>
       <c r="I474" s="13" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -47393,13 +47397,13 @@
         <v>466</v>
       </c>
       <c r="F475" s="110" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H475" s="173">
         <v>724</v>
       </c>
       <c r="I475" s="14" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -47413,13 +47417,13 @@
         <v>467</v>
       </c>
       <c r="F476" s="110" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H476" s="173">
         <v>724</v>
       </c>
       <c r="I476" s="14" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -47433,13 +47437,13 @@
         <v>468</v>
       </c>
       <c r="F477" s="110" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H477" s="173">
         <v>724</v>
       </c>
       <c r="I477" s="14" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -47453,13 +47457,13 @@
         <v>469</v>
       </c>
       <c r="F478" s="110" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H478" s="173">
         <v>724</v>
       </c>
       <c r="I478" s="14" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -47473,13 +47477,13 @@
         <v>470</v>
       </c>
       <c r="F479" s="31" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H479" s="32" t="s">
         <v>1747</v>
       </c>
-      <c r="H479" s="32" t="s">
-        <v>1748</v>
-      </c>
       <c r="I479" s="14" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -47493,10 +47497,10 @@
         <v>471</v>
       </c>
       <c r="F480" s="110" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H480" s="64" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I480" s="14" t="s">
         <v>1258</v>
@@ -47516,13 +47520,13 @@
         <v>472</v>
       </c>
       <c r="F481" s="110" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H481" s="64" t="s">
         <v>1786</v>
       </c>
-      <c r="H481" s="64" t="s">
-        <v>1787</v>
-      </c>
       <c r="I481" s="14" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="482" spans="1:9" s="133" customFormat="1">
@@ -47538,14 +47542,14 @@
       </c>
       <c r="E482" s="131"/>
       <c r="F482" s="135" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G482" s="132"/>
       <c r="H482" s="136" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="I482" s="134" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="483" spans="1:9" s="142" customFormat="1">
@@ -47561,14 +47565,14 @@
       </c>
       <c r="E483" s="139"/>
       <c r="F483" s="145" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G483" s="140"/>
       <c r="H483" s="144" t="s">
+        <v>1830</v>
+      </c>
+      <c r="I483" s="143" t="s">
         <v>1831</v>
-      </c>
-      <c r="I483" s="143" t="s">
-        <v>1832</v>
       </c>
     </row>
     <row r="484" spans="1:9" s="142" customFormat="1">
@@ -47584,14 +47588,14 @@
       </c>
       <c r="E484" s="139"/>
       <c r="F484" s="145" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G484" s="140"/>
       <c r="H484" s="141" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I484" s="143" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="485" spans="1:9" s="142" customFormat="1">
@@ -47607,14 +47611,14 @@
       </c>
       <c r="E485" s="139"/>
       <c r="F485" s="145" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G485" s="140"/>
       <c r="H485" s="144" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I485" s="143" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="142" customFormat="1">
@@ -47630,14 +47634,14 @@
       </c>
       <c r="E486" s="139"/>
       <c r="F486" s="145" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G486" s="140"/>
       <c r="H486" s="141" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I486" s="143" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="142" customFormat="1">
@@ -47653,14 +47657,14 @@
       </c>
       <c r="E487" s="139"/>
       <c r="F487" s="145" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G487" s="140"/>
       <c r="H487" s="144" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I487" s="143" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="488" spans="1:9" s="142" customFormat="1">
@@ -47676,14 +47680,14 @@
       </c>
       <c r="E488" s="139"/>
       <c r="F488" s="145" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G488" s="140"/>
       <c r="H488" s="141" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I488" s="143" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="489" spans="1:9" s="142" customFormat="1">
@@ -47699,14 +47703,14 @@
       </c>
       <c r="E489" s="139"/>
       <c r="F489" s="145" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G489" s="140"/>
       <c r="H489" s="144" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I489" s="143" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="490" spans="1:9" s="154" customFormat="1">
@@ -47722,16 +47726,16 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="160" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G490" s="158" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="H490" s="161" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I490" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="491" spans="1:9" s="154" customFormat="1">
@@ -47747,14 +47751,14 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="160" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="G491" s="158"/>
       <c r="H491" s="161" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I491" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="492" spans="1:9" s="154" customFormat="1">
@@ -47770,14 +47774,14 @@
       </c>
       <c r="E492" s="155"/>
       <c r="F492" s="160" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G492" s="158"/>
       <c r="H492" s="159">
         <v>747</v>
       </c>
       <c r="I492" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="493" spans="1:9" s="154" customFormat="1">
@@ -47793,14 +47797,14 @@
       </c>
       <c r="E493" s="155"/>
       <c r="F493" s="160" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G493" s="158"/>
       <c r="H493" s="159">
         <v>748</v>
       </c>
       <c r="I493" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="494" spans="1:9" s="154" customFormat="1">
@@ -47816,14 +47820,14 @@
       </c>
       <c r="E494" s="155"/>
       <c r="F494" s="160" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G494" s="158"/>
       <c r="H494" s="159">
         <v>749</v>
       </c>
       <c r="I494" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="495" spans="1:9" s="154" customFormat="1">
@@ -47839,14 +47843,14 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="160" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G495" s="158"/>
       <c r="H495" s="159">
         <v>750</v>
       </c>
       <c r="I495" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="496" spans="1:9" s="154" customFormat="1">
@@ -47862,14 +47866,14 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="160" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="G496" s="158"/>
       <c r="H496" s="159">
         <v>751</v>
       </c>
       <c r="I496" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="497" spans="1:9" s="154" customFormat="1">
@@ -47885,14 +47889,14 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="160" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G497" s="158"/>
       <c r="H497" s="161" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="I497" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="498" spans="1:9" s="154" customFormat="1">
@@ -47908,14 +47912,14 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="160" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="G498" s="158"/>
       <c r="H498" s="159">
         <v>757</v>
       </c>
       <c r="I498" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="499" spans="1:9" s="154" customFormat="1">
@@ -47931,14 +47935,14 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="160" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G499" s="158"/>
       <c r="H499" s="161" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I499" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="500" spans="1:9" s="154" customFormat="1">
@@ -47954,14 +47958,14 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="160" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G500" s="158"/>
       <c r="H500" s="161" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I500" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="501" spans="1:9" s="154" customFormat="1">
@@ -47984,7 +47988,7 @@
         <v>767</v>
       </c>
       <c r="I501" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="502" spans="1:9" s="154" customFormat="1">
@@ -48007,7 +48011,7 @@
         <v>768</v>
       </c>
       <c r="I502" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="503" spans="1:9" s="154" customFormat="1">
@@ -48023,14 +48027,14 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="160" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G503" s="158"/>
       <c r="H503" s="159">
         <v>769</v>
       </c>
       <c r="I503" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="504" spans="1:9" s="154" customFormat="1">
@@ -48046,14 +48050,14 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="160" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G504" s="158"/>
       <c r="H504" s="159">
         <v>770</v>
       </c>
       <c r="I504" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="505" spans="1:9" s="154" customFormat="1">
@@ -48069,14 +48073,14 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="160" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G505" s="158"/>
       <c r="H505" s="159">
         <v>771</v>
       </c>
       <c r="I505" s="157" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="506" spans="1:9" s="169" customFormat="1">
@@ -48090,14 +48094,14 @@
       <c r="D506" s="167"/>
       <c r="E506" s="167"/>
       <c r="F506" s="170" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G506" s="168"/>
       <c r="H506" s="172" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="I506" s="171" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="507" spans="1:9" s="189" customFormat="1">
@@ -48176,7 +48180,7 @@
       </c>
       <c r="E510" s="177"/>
       <c r="F510" s="197" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G510" s="198"/>
       <c r="H510" s="199"/>
@@ -48195,11 +48199,11 @@
       </c>
       <c r="E511" s="200"/>
       <c r="F511" s="204" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G511" s="201"/>
       <c r="H511" s="217" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="I511" s="200" t="s">
         <v>387</v>
@@ -48218,11 +48222,11 @@
       </c>
       <c r="E512" s="200"/>
       <c r="F512" s="204" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G512" s="201"/>
       <c r="H512" s="217" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="I512" s="200" t="s">
         <v>387</v>
@@ -48241,11 +48245,11 @@
       </c>
       <c r="E513" s="200"/>
       <c r="F513" s="204" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G513" s="201"/>
       <c r="H513" s="217" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="I513" s="200" t="s">
         <v>387</v>
@@ -48264,11 +48268,11 @@
       </c>
       <c r="E514" s="200"/>
       <c r="F514" s="204" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G514" s="201"/>
       <c r="H514" s="217" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I514" s="200" t="s">
         <v>387</v>
@@ -48287,11 +48291,11 @@
       </c>
       <c r="E515" s="200"/>
       <c r="F515" s="204" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G515" s="201"/>
       <c r="H515" s="217" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I515" s="200" t="s">
         <v>387</v>
@@ -48310,14 +48314,14 @@
       </c>
       <c r="E516" s="200"/>
       <c r="F516" s="204" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G516" s="201"/>
       <c r="H516" s="217" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="I516" s="205" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="517" spans="1:10" s="223" customFormat="1" ht="14.25" customHeight="1">
@@ -48333,11 +48337,11 @@
       </c>
       <c r="E517" s="220"/>
       <c r="F517" s="226" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G517" s="227"/>
       <c r="H517" s="228" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="I517" s="221" t="s">
         <v>387</v>
@@ -48356,11 +48360,11 @@
       </c>
       <c r="E518" s="220"/>
       <c r="F518" s="226" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G518" s="227"/>
       <c r="H518" s="228" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="I518" s="221" t="s">
         <v>387</v>
@@ -48379,7 +48383,7 @@
       </c>
       <c r="E519" s="213"/>
       <c r="F519" s="234" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G519" s="235"/>
       <c r="H519" s="213">
@@ -48405,7 +48409,7 @@
       </c>
       <c r="E520" s="213"/>
       <c r="F520" s="234" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G520" s="235"/>
       <c r="H520" s="213">
@@ -48431,7 +48435,7 @@
       </c>
       <c r="E521" s="213"/>
       <c r="F521" s="234" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G521" s="235"/>
       <c r="H521" s="213">
@@ -48457,7 +48461,7 @@
       </c>
       <c r="E522" s="213"/>
       <c r="F522" s="234" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G522" s="235"/>
       <c r="H522" s="213">
@@ -48483,7 +48487,7 @@
       </c>
       <c r="E523" s="213"/>
       <c r="F523" s="234" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="G523" s="235"/>
       <c r="H523" s="212">
@@ -48509,7 +48513,7 @@
       </c>
       <c r="E524" s="213"/>
       <c r="F524" s="234" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G524" s="235"/>
       <c r="H524" s="213">
@@ -48535,7 +48539,7 @@
       </c>
       <c r="E525" s="213"/>
       <c r="F525" s="234" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G525" s="235"/>
       <c r="H525" s="213">
@@ -48561,14 +48565,14 @@
       </c>
       <c r="E526" s="213"/>
       <c r="F526" s="234" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G526" s="235"/>
       <c r="H526" s="213">
         <v>841</v>
       </c>
       <c r="I526" s="214" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="J526" s="216">
         <v>1</v>
@@ -48587,14 +48591,14 @@
       </c>
       <c r="E527" s="139"/>
       <c r="F527" s="145" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="G527" s="140"/>
       <c r="H527" s="144" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="I527" s="143" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="J527" s="142">
         <v>1</v>
@@ -48612,7 +48616,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I792"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L770" sqref="L770"/>
     </sheetView>
@@ -48637,7 +48641,7 @@
         <v>660</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>661</v>
@@ -51503,7 +51507,7 @@
         <v>155</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D201" s="11">
         <v>98</v>
@@ -53782,7 +53786,7 @@
         <v>255</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D356" s="11">
         <v>166</v>
@@ -58013,7 +58017,7 @@
         <v>454</v>
       </c>
       <c r="C647" s="19" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D647" s="10">
         <v>0</v>
@@ -58206,7 +58210,7 @@
         <v>459</v>
       </c>
       <c r="C660" s="19" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D660" s="10">
         <v>0</v>
@@ -58263,7 +58267,7 @@
         <v>463</v>
       </c>
       <c r="C664" s="23" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D664" s="11">
         <v>325</v>
@@ -58277,7 +58281,7 @@
         <v>464</v>
       </c>
       <c r="C665" s="13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D665" s="12">
         <v>326</v>
@@ -58291,7 +58295,7 @@
         <v>465</v>
       </c>
       <c r="C666" s="13" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D666" s="12">
         <v>327</v>
@@ -58305,7 +58309,7 @@
         <v>466</v>
       </c>
       <c r="C667" s="13" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D667" s="12">
         <v>328</v>
@@ -58319,7 +58323,7 @@
         <v>467</v>
       </c>
       <c r="C668" s="13" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D668" s="12">
         <v>329</v>
@@ -58333,7 +58337,7 @@
         <v>468</v>
       </c>
       <c r="C669" s="13" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D669" s="12">
         <v>330</v>
@@ -58347,7 +58351,7 @@
         <v>469</v>
       </c>
       <c r="C670" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D670" s="12">
         <v>331</v>
@@ -58473,7 +58477,7 @@
         <v>471</v>
       </c>
       <c r="C679" s="19" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D679" s="12">
         <v>0</v>
@@ -58518,7 +58522,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="143" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D682" s="139">
         <v>335</v>
@@ -58532,7 +58536,7 @@
         <v>475</v>
       </c>
       <c r="C683" s="139" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D683" s="139">
         <v>336</v>
@@ -58546,7 +58550,7 @@
         <v>476</v>
       </c>
       <c r="C684" s="143" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D684" s="139">
         <v>337</v>
@@ -58560,7 +58564,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -58588,7 +58592,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -58602,7 +58606,7 @@
         <v>480</v>
       </c>
       <c r="C688" s="143" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D688" s="139">
         <v>341</v>
@@ -58616,7 +58620,7 @@
         <v>481</v>
       </c>
       <c r="C689" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D689" s="152">
         <v>0</v>
@@ -58630,7 +58634,7 @@
         <v>482</v>
       </c>
       <c r="C690" s="157" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D690" s="152">
         <v>0</v>
@@ -58644,7 +58648,7 @@
         <v>483</v>
       </c>
       <c r="C691" s="155" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D691" s="152">
         <v>342</v>
@@ -58658,7 +58662,7 @@
         <v>484</v>
       </c>
       <c r="C692" s="157" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D692" s="152">
         <v>343</v>
@@ -58672,7 +58676,7 @@
         <v>485</v>
       </c>
       <c r="C693" s="155" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D693" s="152">
         <v>344</v>
@@ -58686,7 +58690,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D694" s="152">
         <v>345</v>
@@ -58700,7 +58704,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="155" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D695" s="152">
         <v>346</v>
@@ -58714,7 +58718,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="156" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -58728,7 +58732,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D697" s="152">
         <v>347</v>
@@ -58742,7 +58746,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D698" s="152">
         <v>348</v>
@@ -58756,7 +58760,7 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D699" s="152">
         <v>349</v>
@@ -58784,7 +58788,7 @@
         <v>493</v>
       </c>
       <c r="C701" s="157" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D701" s="152">
         <v>351</v>
@@ -58798,7 +58802,7 @@
         <v>494</v>
       </c>
       <c r="C702" s="155" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D702" s="152">
         <v>352</v>
@@ -58812,7 +58816,7 @@
         <v>495</v>
       </c>
       <c r="C703" s="155" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D703" s="152">
         <v>353</v>
@@ -58826,7 +58830,7 @@
         <v>496</v>
       </c>
       <c r="C704" s="157" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D704" s="152">
         <v>354</v>
@@ -58840,7 +58844,7 @@
         <v>497</v>
       </c>
       <c r="C705" s="177" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D705" s="177">
         <v>355</v>
@@ -58854,7 +58858,7 @@
         <v>498</v>
       </c>
       <c r="C706" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D706" s="200">
         <v>0</v>
@@ -58868,7 +58872,7 @@
         <v>498</v>
       </c>
       <c r="C707" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D707" s="200">
         <v>0</v>
@@ -58882,7 +58886,7 @@
         <v>498</v>
       </c>
       <c r="C708" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D708" s="225">
         <v>0</v>
@@ -58896,7 +58900,7 @@
         <v>498</v>
       </c>
       <c r="C709" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D709" s="200">
         <v>0</v>
@@ -58910,7 +58914,7 @@
         <v>498</v>
       </c>
       <c r="C710" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D710" s="200">
         <v>0</v>
@@ -58927,7 +58931,7 @@
         <v>498</v>
       </c>
       <c r="C711" s="205" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D711" s="203">
         <v>0</v>
@@ -58941,7 +58945,7 @@
         <v>498</v>
       </c>
       <c r="C712" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D712" s="203">
         <v>0</v>
@@ -58955,7 +58959,7 @@
         <v>498</v>
       </c>
       <c r="C713" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D713" s="203">
         <v>0</v>
@@ -58969,7 +58973,7 @@
         <v>498</v>
       </c>
       <c r="C714" s="205" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D714" s="203">
         <v>0</v>
@@ -58983,7 +58987,7 @@
         <v>499</v>
       </c>
       <c r="C715" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D715" s="206">
         <v>0</v>
@@ -58997,7 +59001,7 @@
         <v>499</v>
       </c>
       <c r="C716" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D716" s="209">
         <v>0</v>
@@ -59011,7 +59015,7 @@
         <v>499</v>
       </c>
       <c r="C717" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D717" s="209">
         <v>0</v>
@@ -59025,7 +59029,7 @@
         <v>499</v>
       </c>
       <c r="C718" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D718" s="209">
         <v>0</v>
@@ -59039,7 +59043,7 @@
         <v>499</v>
       </c>
       <c r="C719" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D719" s="209">
         <v>0</v>
@@ -59056,7 +59060,7 @@
         <v>499</v>
       </c>
       <c r="C720" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D720" s="206">
         <v>0</v>
@@ -59070,7 +59074,7 @@
         <v>499</v>
       </c>
       <c r="C721" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D721" s="206">
         <v>0</v>
@@ -59084,7 +59088,7 @@
         <v>499</v>
       </c>
       <c r="C722" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D722" s="206">
         <v>0</v>
@@ -59098,7 +59102,7 @@
         <v>499</v>
       </c>
       <c r="C723" s="208" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D723" s="206">
         <v>0</v>
@@ -59112,7 +59116,7 @@
         <v>500</v>
       </c>
       <c r="C724" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D724" s="200">
         <v>0</v>
@@ -59126,7 +59130,7 @@
         <v>500</v>
       </c>
       <c r="C725" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D725" s="200">
         <v>0</v>
@@ -59140,7 +59144,7 @@
         <v>500</v>
       </c>
       <c r="C726" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D726" s="200">
         <v>0</v>
@@ -59154,7 +59158,7 @@
         <v>500</v>
       </c>
       <c r="C727" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D727" s="200">
         <v>0</v>
@@ -59168,7 +59172,7 @@
         <v>500</v>
       </c>
       <c r="C728" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D728" s="200">
         <v>0</v>
@@ -59185,7 +59189,7 @@
         <v>500</v>
       </c>
       <c r="C729" s="205" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D729" s="200">
         <v>0</v>
@@ -59199,7 +59203,7 @@
         <v>500</v>
       </c>
       <c r="C730" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D730" s="200">
         <v>0</v>
@@ -59213,7 +59217,7 @@
         <v>500</v>
       </c>
       <c r="C731" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D731" s="200">
         <v>0</v>
@@ -59227,7 +59231,7 @@
         <v>500</v>
       </c>
       <c r="C732" s="205" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D732" s="200">
         <v>0</v>
@@ -59241,7 +59245,7 @@
         <v>501</v>
       </c>
       <c r="C733" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D733" s="206">
         <v>0</v>
@@ -59255,7 +59259,7 @@
         <v>501</v>
       </c>
       <c r="C734" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D734" s="206">
         <v>0</v>
@@ -59269,7 +59273,7 @@
         <v>501</v>
       </c>
       <c r="C735" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D735" s="206">
         <v>0</v>
@@ -59283,7 +59287,7 @@
         <v>501</v>
       </c>
       <c r="C736" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D736" s="206">
         <v>0</v>
@@ -59297,7 +59301,7 @@
         <v>501</v>
       </c>
       <c r="C737" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D737" s="206">
         <v>0</v>
@@ -59314,7 +59318,7 @@
         <v>501</v>
       </c>
       <c r="C738" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D738" s="206">
         <v>0</v>
@@ -59328,7 +59332,7 @@
         <v>501</v>
       </c>
       <c r="C739" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D739" s="206">
         <v>0</v>
@@ -59342,7 +59346,7 @@
         <v>501</v>
       </c>
       <c r="C740" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D740" s="206">
         <v>0</v>
@@ -59356,7 +59360,7 @@
         <v>501</v>
       </c>
       <c r="C741" s="208" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D741" s="206">
         <v>0</v>
@@ -59370,7 +59374,7 @@
         <v>502</v>
       </c>
       <c r="C742" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D742" s="200">
         <v>0</v>
@@ -59384,7 +59388,7 @@
         <v>502</v>
       </c>
       <c r="C743" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D743" s="200">
         <v>0</v>
@@ -59398,7 +59402,7 @@
         <v>502</v>
       </c>
       <c r="C744" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D744" s="200">
         <v>0</v>
@@ -59412,7 +59416,7 @@
         <v>502</v>
       </c>
       <c r="C745" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D745" s="200">
         <v>0</v>
@@ -59426,7 +59430,7 @@
         <v>502</v>
       </c>
       <c r="C746" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D746" s="200">
         <v>0</v>
@@ -59443,7 +59447,7 @@
         <v>502</v>
       </c>
       <c r="C747" s="205" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D747" s="200">
         <v>0</v>
@@ -59457,7 +59461,7 @@
         <v>502</v>
       </c>
       <c r="C748" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D748" s="200">
         <v>0</v>
@@ -59471,7 +59475,7 @@
         <v>502</v>
       </c>
       <c r="C749" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D749" s="200">
         <v>0</v>
@@ -59499,7 +59503,7 @@
         <v>503</v>
       </c>
       <c r="C751" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D751" s="206">
         <v>0</v>
@@ -59513,7 +59517,7 @@
         <v>503</v>
       </c>
       <c r="C752" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D752" s="206">
         <v>0</v>
@@ -59527,7 +59531,7 @@
         <v>503</v>
       </c>
       <c r="C753" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D753" s="206">
         <v>0</v>
@@ -59541,7 +59545,7 @@
         <v>503</v>
       </c>
       <c r="C754" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D754" s="206">
         <v>0</v>
@@ -59555,7 +59559,7 @@
         <v>503</v>
       </c>
       <c r="C755" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D755" s="206">
         <v>0</v>
@@ -59572,7 +59576,7 @@
         <v>503</v>
       </c>
       <c r="C756" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D756" s="206">
         <v>0</v>
@@ -59586,7 +59590,7 @@
         <v>503</v>
       </c>
       <c r="C757" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D757" s="206">
         <v>0</v>
@@ -59600,7 +59604,7 @@
         <v>503</v>
       </c>
       <c r="C758" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D758" s="206">
         <v>0</v>
@@ -59614,7 +59618,7 @@
         <v>503</v>
       </c>
       <c r="C759" s="208" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D759" s="206">
         <v>0</v>
@@ -59628,7 +59632,7 @@
         <v>504</v>
       </c>
       <c r="C760" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D760" s="200">
         <v>0</v>
@@ -59642,7 +59646,7 @@
         <v>504</v>
       </c>
       <c r="C761" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D761" s="200">
         <v>0</v>
@@ -59656,7 +59660,7 @@
         <v>504</v>
       </c>
       <c r="C762" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D762" s="200">
         <v>0</v>
@@ -59670,7 +59674,7 @@
         <v>504</v>
       </c>
       <c r="C763" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D763" s="200">
         <v>0</v>
@@ -59684,7 +59688,7 @@
         <v>504</v>
       </c>
       <c r="C764" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D764" s="200">
         <v>0</v>
@@ -59701,7 +59705,7 @@
         <v>504</v>
       </c>
       <c r="C765" s="205" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D765" s="200">
         <v>0</v>
@@ -59715,7 +59719,7 @@
         <v>504</v>
       </c>
       <c r="C766" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D766" s="200">
         <v>0</v>
@@ -59729,7 +59733,7 @@
         <v>504</v>
       </c>
       <c r="C767" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D767" s="200">
         <v>0</v>
@@ -59743,7 +59747,7 @@
         <v>504</v>
       </c>
       <c r="C768" s="205" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D768" s="200">
         <v>0</v>
@@ -59757,7 +59761,7 @@
         <v>505</v>
       </c>
       <c r="C769" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D769" s="206">
         <v>0</v>
@@ -59771,7 +59775,7 @@
         <v>505</v>
       </c>
       <c r="C770" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D770" s="206">
         <v>0</v>
@@ -59785,7 +59789,7 @@
         <v>505</v>
       </c>
       <c r="C771" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D771" s="206">
         <v>0</v>
@@ -59799,7 +59803,7 @@
         <v>505</v>
       </c>
       <c r="C772" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D772" s="206">
         <v>0</v>
@@ -59813,7 +59817,7 @@
         <v>505</v>
       </c>
       <c r="C773" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D773" s="206">
         <v>0</v>
@@ -59830,7 +59834,7 @@
         <v>505</v>
       </c>
       <c r="C774" s="208" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D774" s="206">
         <v>0</v>
@@ -59844,7 +59848,7 @@
         <v>505</v>
       </c>
       <c r="C775" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D775" s="206">
         <v>0</v>
@@ -59858,7 +59862,7 @@
         <v>505</v>
       </c>
       <c r="C776" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D776" s="206">
         <v>0</v>
@@ -59872,7 +59876,7 @@
         <v>505</v>
       </c>
       <c r="C777" s="208" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D777" s="206">
         <v>0</v>
@@ -59886,7 +59890,7 @@
         <v>506</v>
       </c>
       <c r="C778" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D778" s="230">
         <v>356</v>
@@ -59900,7 +59904,7 @@
         <v>507</v>
       </c>
       <c r="C779" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D779" s="230">
         <v>357</v>
@@ -59914,7 +59918,7 @@
         <v>508</v>
       </c>
       <c r="C780" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D780" s="230">
         <v>358</v>
@@ -59928,7 +59932,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D781" s="230">
         <v>359</v>
@@ -59942,7 +59946,7 @@
         <v>510</v>
       </c>
       <c r="C782" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D782" s="230">
         <v>360</v>
@@ -59956,7 +59960,7 @@
         <v>511</v>
       </c>
       <c r="C783" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D783" s="230">
         <v>361</v>
@@ -59970,7 +59974,7 @@
         <v>512</v>
       </c>
       <c r="C784" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D784" s="230">
         <v>362</v>
@@ -59984,7 +59988,7 @@
         <v>513</v>
       </c>
       <c r="C785" s="190" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D785" s="230">
         <v>363</v>
@@ -60012,7 +60016,7 @@
         <v>514</v>
       </c>
       <c r="C787" s="143" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D787" s="236">
         <v>0</v>
@@ -60026,7 +60030,7 @@
         <v>514</v>
       </c>
       <c r="C788" s="143" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D788" s="236">
         <v>0</v>
@@ -60040,7 +60044,7 @@
         <v>514</v>
       </c>
       <c r="C789" s="143" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D789" s="236">
         <v>0</v>
@@ -60068,7 +60072,7 @@
         <v>514</v>
       </c>
       <c r="C791" s="143" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D791" s="236">
         <v>0</v>
@@ -60082,7 +60086,7 @@
         <v>514</v>
       </c>
       <c r="C792" s="143" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D792" s="236">
         <v>0</v>
@@ -65402,7 +65406,7 @@
         <v>166</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D276" s="128">
         <v>11</v>
@@ -66827,7 +66831,7 @@
         <v>1328</v>
       </c>
       <c r="D359" s="150" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -67429,7 +67433,7 @@
         <v>1583</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -67912,7 +67916,7 @@
         <v>1583</v>
       </c>
       <c r="D422" s="15" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E422" s="11">
         <v>2</v>
@@ -68283,7 +68287,7 @@
         <v>325</v>
       </c>
       <c r="C444" s="13" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D444" s="27">
         <v>10000</v>
@@ -68300,7 +68304,7 @@
         <v>326</v>
       </c>
       <c r="C445" s="13" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D445" s="27">
         <v>10000</v>
@@ -68317,7 +68321,7 @@
         <v>326</v>
       </c>
       <c r="C446" s="13" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D446" s="27">
         <v>1</v>
@@ -68334,7 +68338,7 @@
         <v>327</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D447" s="27">
         <v>10000</v>
@@ -68351,7 +68355,7 @@
         <v>328</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D448" s="27">
         <v>1</v>
@@ -68368,10 +68372,10 @@
         <v>328</v>
       </c>
       <c r="C449" s="13" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D449" s="15" t="s">
         <v>1729</v>
-      </c>
-      <c r="D449" s="15" t="s">
-        <v>1730</v>
       </c>
       <c r="E449" s="11">
         <v>2</v>
@@ -68385,7 +68389,7 @@
         <v>329</v>
       </c>
       <c r="C450" s="13" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D450" s="27">
         <v>1</v>
@@ -68402,7 +68406,7 @@
         <v>330</v>
       </c>
       <c r="C451" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D451" s="27">
         <v>1</v>
@@ -68419,7 +68423,7 @@
         <v>331</v>
       </c>
       <c r="C452" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D452" s="27">
         <v>2</v>
@@ -68439,7 +68443,7 @@
         <v>1075</v>
       </c>
       <c r="D453" s="15" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E453" s="11">
         <v>2</v>
@@ -68456,7 +68460,7 @@
         <v>738</v>
       </c>
       <c r="D454" s="15" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E454" s="11">
         <v>3</v>
@@ -68470,10 +68474,10 @@
         <v>334</v>
       </c>
       <c r="C455" s="190" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D455" s="148" t="s">
         <v>1997</v>
-      </c>
-      <c r="D455" s="148" t="s">
-        <v>1998</v>
       </c>
       <c r="E455" s="147">
         <v>2</v>
@@ -68488,10 +68492,10 @@
         <v>335</v>
       </c>
       <c r="C456" s="143" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E456" s="139">
         <v>3</v>
@@ -68506,10 +68510,10 @@
         <v>336</v>
       </c>
       <c r="C457" s="143" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D457" s="144" t="s">
         <v>1839</v>
-      </c>
-      <c r="D457" s="144" t="s">
-        <v>1840</v>
       </c>
       <c r="E457" s="139">
         <v>2</v>
@@ -68524,10 +68528,10 @@
         <v>337</v>
       </c>
       <c r="C458" s="143" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E458" s="139">
         <v>3</v>
@@ -68542,10 +68546,10 @@
         <v>338</v>
       </c>
       <c r="C459" s="143" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D459" s="144" t="s">
         <v>1845</v>
-      </c>
-      <c r="D459" s="144" t="s">
-        <v>1846</v>
       </c>
       <c r="E459" s="139">
         <v>2</v>
@@ -68560,10 +68564,10 @@
         <v>338</v>
       </c>
       <c r="C460" s="143" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D460" s="144" t="s">
         <v>1843</v>
-      </c>
-      <c r="D460" s="144" t="s">
-        <v>1844</v>
       </c>
       <c r="E460" s="139">
         <v>3</v>
@@ -68578,10 +68582,10 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D461" s="144" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E461" s="139">
         <v>3</v>
@@ -68596,10 +68600,10 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D462" s="144" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="E462" s="139">
         <v>3</v>
@@ -68614,10 +68618,10 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D463" s="144" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E463" s="139">
         <v>3</v>
@@ -68632,10 +68636,10 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D464" s="144" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E464" s="139">
         <v>2</v>
@@ -68653,7 +68657,7 @@
         <v>730</v>
       </c>
       <c r="D465" s="161" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E465" s="155">
         <v>2</v>
@@ -68671,7 +68675,7 @@
         <v>730</v>
       </c>
       <c r="D466" s="161" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -68689,7 +68693,7 @@
         <v>730</v>
       </c>
       <c r="D467" s="161" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -68707,7 +68711,7 @@
         <v>730</v>
       </c>
       <c r="D468" s="161" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -68725,7 +68729,7 @@
         <v>730</v>
       </c>
       <c r="D469" s="161" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
@@ -68740,10 +68744,10 @@
         <v>347</v>
       </c>
       <c r="C470" s="157" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D470" s="161" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -68758,10 +68762,10 @@
         <v>348</v>
       </c>
       <c r="C471" s="157" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D471" s="159" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
@@ -68779,7 +68783,7 @@
         <v>1583</v>
       </c>
       <c r="D472" s="180" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="E472" s="177">
         <v>2</v>
@@ -68797,7 +68801,7 @@
         <v>717</v>
       </c>
       <c r="D473" s="161" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E473" s="155">
         <v>3</v>
@@ -68812,10 +68816,10 @@
         <v>351</v>
       </c>
       <c r="C474" s="157" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D474" s="161" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E474" s="155">
         <v>3</v>
@@ -68830,10 +68834,10 @@
         <v>351</v>
       </c>
       <c r="C475" s="157" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D475" s="161" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E475" s="155">
         <v>3</v>
@@ -68851,7 +68855,7 @@
         <v>717</v>
       </c>
       <c r="D476" s="161" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E476" s="155">
         <v>3</v>
@@ -68866,10 +68870,10 @@
         <v>353</v>
       </c>
       <c r="C477" s="157" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D477" s="161" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E477" s="155">
         <v>3</v>
@@ -68884,10 +68888,10 @@
         <v>353</v>
       </c>
       <c r="C478" s="157" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D478" s="161" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E478" s="155">
         <v>3</v>
@@ -68905,7 +68909,7 @@
         <v>1418</v>
       </c>
       <c r="D479" s="161" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E479" s="155">
         <v>3</v>
@@ -68920,10 +68924,10 @@
         <v>355</v>
       </c>
       <c r="C480" s="179" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D480" s="180" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E480" s="177">
         <v>2</v>
@@ -68938,7 +68942,7 @@
         <v>356</v>
       </c>
       <c r="C481" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D481" s="146">
         <v>2</v>
@@ -68956,7 +68960,7 @@
         <v>357</v>
       </c>
       <c r="C482" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D482" s="146">
         <v>3</v>
@@ -68974,7 +68978,7 @@
         <v>358</v>
       </c>
       <c r="C483" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D483" s="146">
         <v>4</v>
@@ -68992,7 +68996,7 @@
         <v>359</v>
       </c>
       <c r="C484" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D484" s="146">
         <v>5</v>
@@ -69010,7 +69014,7 @@
         <v>360</v>
       </c>
       <c r="C485" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D485" s="146">
         <v>111</v>
@@ -69028,7 +69032,7 @@
         <v>361</v>
       </c>
       <c r="C486" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D486" s="146">
         <v>6</v>
@@ -69046,7 +69050,7 @@
         <v>362</v>
       </c>
       <c r="C487" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D487" s="146">
         <v>108</v>
@@ -69064,7 +69068,7 @@
         <v>363</v>
       </c>
       <c r="C488" s="192" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D488" s="146">
         <v>110</v>
@@ -69126,11 +69130,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1254"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1157" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C965" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1256" sqref="C1256"/>
+      <selection pane="bottomRight" activeCell="E977" sqref="E977"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -77385,7 +77389,7 @@
         <v>794</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -88201,7 +88205,7 @@
         <v>1586</v>
       </c>
       <c r="E925" s="15" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F925" s="11">
         <v>1</v>
@@ -88222,7 +88226,7 @@
         <v>1586</v>
       </c>
       <c r="E926" s="15" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="F926" s="11">
         <v>1</v>
@@ -88243,7 +88247,7 @@
         <v>1586</v>
       </c>
       <c r="E927" s="15" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="F927" s="11">
         <v>1</v>
@@ -88264,7 +88268,7 @@
         <v>1586</v>
       </c>
       <c r="E928" s="15" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="F928" s="11">
         <v>1</v>
@@ -88285,7 +88289,7 @@
         <v>1586</v>
       </c>
       <c r="E929" s="15" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="F929" s="11">
         <v>1</v>
@@ -88306,7 +88310,7 @@
         <v>1586</v>
       </c>
       <c r="E930" s="15" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="F930" s="11">
         <v>1</v>
@@ -88327,7 +88331,7 @@
         <v>1586</v>
       </c>
       <c r="E931" s="15" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F931" s="11">
         <v>1</v>
@@ -88348,7 +88352,7 @@
         <v>1586</v>
       </c>
       <c r="E932" s="15" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F932" s="11">
         <v>1</v>
@@ -88369,7 +88373,7 @@
         <v>1586</v>
       </c>
       <c r="E933" s="15" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F933" s="11">
         <v>1</v>
@@ -88390,7 +88394,7 @@
         <v>1586</v>
       </c>
       <c r="E934" s="15" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="F934" s="11">
         <v>1</v>
@@ -88411,7 +88415,7 @@
         <v>1586</v>
       </c>
       <c r="E935" s="15" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="F935" s="11">
         <v>1</v>
@@ -88432,7 +88436,7 @@
         <v>1586</v>
       </c>
       <c r="E936" s="15" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F936" s="11">
         <v>1</v>
@@ -88453,7 +88457,7 @@
         <v>1586</v>
       </c>
       <c r="E937" s="15" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="F937" s="11">
         <v>1</v>
@@ -88474,7 +88478,7 @@
         <v>1586</v>
       </c>
       <c r="E938" s="15" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="F938" s="11">
         <v>1</v>
@@ -88495,7 +88499,7 @@
         <v>1586</v>
       </c>
       <c r="E939" s="15" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F939" s="11">
         <v>1</v>
@@ -89263,7 +89267,7 @@
         <v>1653</v>
       </c>
       <c r="E977" s="82" t="s">
-        <v>1654</v>
+        <v>2139</v>
       </c>
       <c r="F977" s="28">
         <v>80</v>
@@ -89281,7 +89285,7 @@
         <v>1653</v>
       </c>
       <c r="E978" s="82" t="s">
-        <v>1655</v>
+        <v>2140</v>
       </c>
       <c r="F978" s="28">
         <v>15</v>
@@ -89299,7 +89303,7 @@
         <v>1653</v>
       </c>
       <c r="E979" s="82" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F979" s="28">
         <v>5</v>
@@ -89656,7 +89660,7 @@
       </c>
       <c r="C999" s="28"/>
       <c r="D999" s="19" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E999" s="32">
         <v>9000</v>
@@ -89749,7 +89753,7 @@
         <v>876</v>
       </c>
       <c r="E1004" s="63" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F1004" s="59">
         <v>333</v>
@@ -89764,7 +89768,7 @@
       </c>
       <c r="C1005" s="59"/>
       <c r="D1005" s="84" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E1005" s="63" t="s">
         <v>968</v>
@@ -89782,7 +89786,7 @@
       </c>
       <c r="C1006" s="59"/>
       <c r="D1006" s="84" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E1006" s="63" t="s">
         <v>969</v>
@@ -89800,10 +89804,10 @@
       </c>
       <c r="C1007" s="59"/>
       <c r="D1007" s="84" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E1007" s="63" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F1007" s="59">
         <v>333</v>
@@ -89854,10 +89858,10 @@
       </c>
       <c r="C1010" s="59"/>
       <c r="D1010" s="84" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E1010" s="63" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F1010" s="59">
         <v>333</v>
@@ -89908,10 +89912,10 @@
       </c>
       <c r="C1013" s="10"/>
       <c r="D1013" s="19" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E1013" s="82" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F1013" s="10">
         <v>333</v>
@@ -89974,7 +89978,7 @@
         <v>876</v>
       </c>
       <c r="E1016" s="82" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F1016" s="10">
         <v>333</v>
@@ -90034,7 +90038,7 @@
       </c>
       <c r="C1019" s="10"/>
       <c r="D1019" s="19" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E1019" s="126">
         <v>400000</v>
@@ -90223,7 +90227,7 @@
       </c>
       <c r="C1028" s="10"/>
       <c r="D1028" s="19" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E1028" s="126">
         <v>4000000</v>
@@ -90349,7 +90353,7 @@
       </c>
       <c r="C1034" s="10"/>
       <c r="D1034" s="19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E1034" s="126">
         <v>5000000</v>
@@ -90478,7 +90482,7 @@
         <v>876</v>
       </c>
       <c r="E1040" s="82" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F1040" s="10">
         <v>333</v>
@@ -90496,7 +90500,7 @@
         <v>1295</v>
       </c>
       <c r="E1041" s="82" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F1041" s="10">
         <v>333</v>
@@ -90514,7 +90518,7 @@
         <v>1295</v>
       </c>
       <c r="E1042" s="82" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F1042" s="10">
         <v>333</v>
@@ -90691,7 +90695,7 @@
       </c>
       <c r="C1052" s="28"/>
       <c r="D1052" s="19" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E1052" s="32">
         <v>300000</v>
@@ -90961,10 +90965,10 @@
       </c>
       <c r="C1067" s="10"/>
       <c r="D1067" s="19" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E1067" s="82" t="s">
         <v>1697</v>
-      </c>
-      <c r="E1067" s="82" t="s">
-        <v>1698</v>
       </c>
       <c r="F1067" s="10">
         <v>333</v>
@@ -91015,10 +91019,10 @@
       </c>
       <c r="C1070" s="10"/>
       <c r="D1070" s="19" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E1070" s="82" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F1070" s="10">
         <v>333</v>
@@ -91339,7 +91343,7 @@
       </c>
       <c r="C1088" s="10"/>
       <c r="D1088" s="19" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E1088" s="126">
         <v>5000000</v>
@@ -91446,7 +91450,7 @@
         <v>724</v>
       </c>
       <c r="D1094" s="14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E1094" s="32">
         <v>10000</v>
@@ -91466,7 +91470,7 @@
         <v>876</v>
       </c>
       <c r="E1095" s="64" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F1095" s="1">
         <v>1</v>
@@ -91483,7 +91487,7 @@
         <v>876</v>
       </c>
       <c r="E1096" s="64" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F1096" s="1">
         <v>1</v>
@@ -91500,7 +91504,7 @@
         <v>876</v>
       </c>
       <c r="E1097" s="64" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F1097" s="1">
         <v>1</v>
@@ -91515,7 +91519,7 @@
       </c>
       <c r="C1098" s="10"/>
       <c r="D1098" s="19" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E1098" s="10">
         <v>32500</v>
@@ -91536,7 +91540,7 @@
       </c>
       <c r="C1099" s="10"/>
       <c r="D1099" s="19" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E1099" s="10">
         <v>10000</v>
@@ -91556,10 +91560,10 @@
         <v>730</v>
       </c>
       <c r="D1100" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1100" s="64" t="s">
         <v>1769</v>
-      </c>
-      <c r="E1100" s="64" t="s">
-        <v>1770</v>
       </c>
       <c r="F1100" s="1">
         <v>1</v>
@@ -91576,7 +91580,7 @@
         <v>772</v>
       </c>
       <c r="E1101" s="64" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F1101" s="1">
         <v>400</v>
@@ -91593,7 +91597,7 @@
         <v>772</v>
       </c>
       <c r="E1102" s="64" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F1102" s="1">
         <v>350</v>
@@ -91610,7 +91614,7 @@
         <v>772</v>
       </c>
       <c r="E1103" s="64" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F1103" s="1">
         <v>100</v>
@@ -91627,7 +91631,7 @@
         <v>772</v>
       </c>
       <c r="E1104" s="64" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F1104" s="1">
         <v>50</v>
@@ -91644,7 +91648,7 @@
         <v>772</v>
       </c>
       <c r="E1105" s="64" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F1105" s="1">
         <v>30</v>
@@ -91658,10 +91662,10 @@
         <v>731</v>
       </c>
       <c r="D1106" s="14" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="E1106" s="64" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F1106" s="1">
         <v>20</v>
@@ -91675,10 +91679,10 @@
         <v>732</v>
       </c>
       <c r="D1107" s="14" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E1107" s="64" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F1107" s="1">
         <v>80</v>
@@ -91692,10 +91696,10 @@
         <v>732</v>
       </c>
       <c r="D1108" s="14" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="E1108" s="64" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F1108" s="1">
         <v>15</v>
@@ -91709,10 +91713,10 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E1109" s="64" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="F1109" s="1">
         <v>5</v>
@@ -91730,7 +91734,7 @@
         <v>772</v>
       </c>
       <c r="E1110" s="136" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F1110" s="131">
         <v>1</v>
@@ -91751,7 +91755,7 @@
         <v>772</v>
       </c>
       <c r="E1111" s="136" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F1111" s="131">
         <v>1</v>
@@ -91772,7 +91776,7 @@
         <v>772</v>
       </c>
       <c r="E1112" s="136" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F1112" s="131">
         <v>1</v>
@@ -91814,7 +91818,7 @@
         <v>876</v>
       </c>
       <c r="E1114" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -91832,10 +91836,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1115" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -91856,7 +91860,7 @@
         <v>876</v>
       </c>
       <c r="E1116" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -91874,10 +91878,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1117" s="161" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -91898,7 +91902,7 @@
         <v>876</v>
       </c>
       <c r="E1118" s="161" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -91916,10 +91920,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1119" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -91940,7 +91944,7 @@
         <v>876</v>
       </c>
       <c r="E1120" s="161" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -91958,10 +91962,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1121" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -91982,7 +91986,7 @@
         <v>876</v>
       </c>
       <c r="E1122" s="161" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -92000,10 +92004,10 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1123" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F1123" s="155">
         <v>1</v>
@@ -92024,7 +92028,7 @@
         <v>876</v>
       </c>
       <c r="E1124" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -92042,10 +92046,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1125" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -92066,7 +92070,7 @@
         <v>876</v>
       </c>
       <c r="E1126" s="161" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -92084,10 +92088,10 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1127" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F1127" s="155">
         <v>1</v>
@@ -92108,7 +92112,7 @@
         <v>876</v>
       </c>
       <c r="E1128" s="161" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -92126,10 +92130,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1129" s="161" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -92150,7 +92154,7 @@
         <v>876</v>
       </c>
       <c r="E1130" s="161" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -92168,10 +92172,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1131" s="161" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -92192,7 +92196,7 @@
         <v>876</v>
       </c>
       <c r="E1132" s="161" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -92210,10 +92214,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1133" s="161" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -92234,7 +92238,7 @@
         <v>876</v>
       </c>
       <c r="E1134" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -92252,10 +92256,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1135" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -92276,7 +92280,7 @@
         <v>876</v>
       </c>
       <c r="E1136" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -92294,10 +92298,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1137" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -92318,7 +92322,7 @@
         <v>876</v>
       </c>
       <c r="E1138" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -92336,10 +92340,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1139" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -92360,7 +92364,7 @@
         <v>876</v>
       </c>
       <c r="E1140" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -92378,10 +92382,10 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1141" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F1141" s="155">
         <v>1</v>
@@ -92402,7 +92406,7 @@
         <v>876</v>
       </c>
       <c r="E1142" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -92420,10 +92424,10 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1143" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F1143" s="155">
         <v>1</v>
@@ -92444,7 +92448,7 @@
         <v>876</v>
       </c>
       <c r="E1144" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -92462,10 +92466,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1145" s="161" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -92486,7 +92490,7 @@
         <v>876</v>
       </c>
       <c r="E1146" s="161" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -92504,10 +92508,10 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1147" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F1147" s="155">
         <v>1</v>
@@ -92528,7 +92532,7 @@
         <v>876</v>
       </c>
       <c r="E1148" s="161" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -92546,10 +92550,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1149" s="161" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -92570,7 +92574,7 @@
         <v>876</v>
       </c>
       <c r="E1150" s="161" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -92588,10 +92592,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1151" s="161" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -92612,7 +92616,7 @@
         <v>876</v>
       </c>
       <c r="E1152" s="161" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -92630,10 +92634,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1153" s="161" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -92654,7 +92658,7 @@
         <v>876</v>
       </c>
       <c r="E1154" s="161" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -92672,10 +92676,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1155" s="161" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -92696,7 +92700,7 @@
         <v>876</v>
       </c>
       <c r="E1156" s="161" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -92714,10 +92718,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1157" s="161" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -92738,7 +92742,7 @@
         <v>876</v>
       </c>
       <c r="E1158" s="161" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -92756,10 +92760,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1159" s="161" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -92780,7 +92784,7 @@
         <v>876</v>
       </c>
       <c r="E1160" s="161" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -92798,10 +92802,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1161" s="161" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -92822,7 +92826,7 @@
         <v>876</v>
       </c>
       <c r="E1162" s="161" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -92840,10 +92844,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1163" s="161" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -92864,7 +92868,7 @@
         <v>876</v>
       </c>
       <c r="E1164" s="161" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -92882,10 +92886,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1165" s="161" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -92906,7 +92910,7 @@
         <v>876</v>
       </c>
       <c r="E1166" s="161" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -92924,10 +92928,10 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1167" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="F1167" s="155">
         <v>1</v>
@@ -92948,7 +92952,7 @@
         <v>876</v>
       </c>
       <c r="E1168" s="161" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -92966,10 +92970,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1169" s="161" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -92990,7 +92994,7 @@
         <v>876</v>
       </c>
       <c r="E1170" s="161" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -93008,10 +93012,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1171" s="161" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -93032,7 +93036,7 @@
         <v>876</v>
       </c>
       <c r="E1172" s="161" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -93050,10 +93054,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1173" s="161" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -93074,7 +93078,7 @@
         <v>876</v>
       </c>
       <c r="E1174" s="161" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -93092,10 +93096,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1175" s="161" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -93116,7 +93120,7 @@
         <v>876</v>
       </c>
       <c r="E1176" s="161" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -93134,10 +93138,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1177" s="161" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -93158,7 +93162,7 @@
         <v>876</v>
       </c>
       <c r="E1178" s="161" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -93176,10 +93180,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1179" s="161" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -93200,7 +93204,7 @@
         <v>876</v>
       </c>
       <c r="E1180" s="161" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -93218,10 +93222,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1181" s="161" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -93239,10 +93243,10 @@
       </c>
       <c r="C1182" s="155"/>
       <c r="D1182" s="157" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1182" s="161" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -93260,10 +93264,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E1183" s="161" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -93281,10 +93285,10 @@
       </c>
       <c r="C1184" s="175"/>
       <c r="D1184" s="175" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E1184" s="210" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F1184" s="175">
         <v>1</v>
@@ -93305,7 +93309,7 @@
         <v>876</v>
       </c>
       <c r="E1185" s="172" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F1185" s="167">
         <v>1</v>
@@ -93326,7 +93330,7 @@
         <v>757</v>
       </c>
       <c r="E1186" s="172" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F1186" s="167">
         <v>1</v>
@@ -93347,7 +93351,7 @@
         <v>757</v>
       </c>
       <c r="E1187" s="172" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F1187" s="167">
         <v>1</v>
@@ -93368,7 +93372,7 @@
         <v>757</v>
       </c>
       <c r="E1188" s="172" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F1188" s="167">
         <v>1</v>
@@ -93386,10 +93390,10 @@
       </c>
       <c r="C1189" s="171"/>
       <c r="D1189" s="167" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1189" s="172" t="s">
         <v>1964</v>
-      </c>
-      <c r="E1189" s="172" t="s">
-        <v>1965</v>
       </c>
       <c r="F1189" s="167">
         <v>1</v>
@@ -93407,10 +93411,10 @@
       </c>
       <c r="C1190" s="93"/>
       <c r="D1190" s="94" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1190" s="150" t="s">
         <v>2011</v>
-      </c>
-      <c r="E1190" s="150" t="s">
-        <v>2012</v>
       </c>
       <c r="F1190" s="93">
         <v>1</v>
@@ -93428,10 +93432,10 @@
       </c>
       <c r="C1191" s="93"/>
       <c r="D1191" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1191" s="150" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F1191" s="93">
         <v>1</v>
@@ -93449,10 +93453,10 @@
       </c>
       <c r="C1192" s="93"/>
       <c r="D1192" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1192" s="150" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F1192" s="93">
         <v>1</v>
@@ -93470,10 +93474,10 @@
       </c>
       <c r="C1193" s="93"/>
       <c r="D1193" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1193" s="150" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F1193" s="93">
         <v>1</v>
@@ -93491,10 +93495,10 @@
       </c>
       <c r="C1194" s="93"/>
       <c r="D1194" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1194" s="150" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F1194" s="93">
         <v>1</v>
@@ -93512,10 +93516,10 @@
       </c>
       <c r="C1195" s="93"/>
       <c r="D1195" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1195" s="150" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F1195" s="93">
         <v>1</v>
@@ -93533,10 +93537,10 @@
       </c>
       <c r="C1196" s="93"/>
       <c r="D1196" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1196" s="150" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F1196" s="93">
         <v>1</v>
@@ -93554,10 +93558,10 @@
       </c>
       <c r="C1197" s="213"/>
       <c r="D1197" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1197" s="215" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F1197" s="213">
         <v>1</v>
@@ -93575,10 +93579,10 @@
       </c>
       <c r="C1198" s="213"/>
       <c r="D1198" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1198" s="215" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F1198" s="213">
         <v>1</v>
@@ -93596,10 +93600,10 @@
       </c>
       <c r="C1199" s="213"/>
       <c r="D1199" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1199" s="215" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F1199" s="213">
         <v>1</v>
@@ -93617,10 +93621,10 @@
       </c>
       <c r="C1200" s="213"/>
       <c r="D1200" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1200" s="215" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F1200" s="213">
         <v>1</v>
@@ -93638,10 +93642,10 @@
       </c>
       <c r="C1201" s="213"/>
       <c r="D1201" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1201" s="215" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1201" s="213">
         <v>1</v>
@@ -93659,10 +93663,10 @@
       </c>
       <c r="C1202" s="213"/>
       <c r="D1202" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1202" s="215" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F1202" s="213">
         <v>1</v>
@@ -93680,10 +93684,10 @@
       </c>
       <c r="C1203" s="213"/>
       <c r="D1203" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1203" s="215" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F1203" s="213">
         <v>1</v>
@@ -93701,10 +93705,10 @@
       </c>
       <c r="C1204" s="93"/>
       <c r="D1204" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1204" s="150" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F1204" s="93">
         <v>1</v>
@@ -93722,10 +93726,10 @@
       </c>
       <c r="C1205" s="93"/>
       <c r="D1205" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1205" s="150" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F1205" s="93">
         <v>1</v>
@@ -93743,10 +93747,10 @@
       </c>
       <c r="C1206" s="93"/>
       <c r="D1206" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1206" s="150" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1206" s="93">
         <v>1</v>
@@ -93764,10 +93768,10 @@
       </c>
       <c r="C1207" s="93"/>
       <c r="D1207" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1207" s="150" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1207" s="93">
         <v>1</v>
@@ -93785,10 +93789,10 @@
       </c>
       <c r="C1208" s="93"/>
       <c r="D1208" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1208" s="150" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F1208" s="93">
         <v>1</v>
@@ -93806,10 +93810,10 @@
       </c>
       <c r="C1209" s="93"/>
       <c r="D1209" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1209" s="150" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F1209" s="93">
         <v>1</v>
@@ -93827,10 +93831,10 @@
       </c>
       <c r="C1210" s="93"/>
       <c r="D1210" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1210" s="150" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F1210" s="93">
         <v>1</v>
@@ -93848,10 +93852,10 @@
       </c>
       <c r="C1211" s="213"/>
       <c r="D1211" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1211" s="215" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F1211" s="213">
         <v>1</v>
@@ -93869,10 +93873,10 @@
       </c>
       <c r="C1212" s="213"/>
       <c r="D1212" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1212" s="215" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F1212" s="213">
         <v>1</v>
@@ -93890,10 +93894,10 @@
       </c>
       <c r="C1213" s="213"/>
       <c r="D1213" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1213" s="215" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1213" s="213">
         <v>1</v>
@@ -93911,10 +93915,10 @@
       </c>
       <c r="C1214" s="213"/>
       <c r="D1214" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1214" s="215" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1214" s="213">
         <v>1</v>
@@ -93932,10 +93936,10 @@
       </c>
       <c r="C1215" s="213"/>
       <c r="D1215" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1215" s="215" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1215" s="213">
         <v>1</v>
@@ -93953,10 +93957,10 @@
       </c>
       <c r="C1216" s="213"/>
       <c r="D1216" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1216" s="215" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F1216" s="213">
         <v>1</v>
@@ -93974,10 +93978,10 @@
       </c>
       <c r="C1217" s="213"/>
       <c r="D1217" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1217" s="215" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F1217" s="213">
         <v>1</v>
@@ -93995,10 +93999,10 @@
       </c>
       <c r="C1218" s="93"/>
       <c r="D1218" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1218" s="150" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F1218" s="93">
         <v>1</v>
@@ -94016,10 +94020,10 @@
       </c>
       <c r="C1219" s="93"/>
       <c r="D1219" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1219" s="150" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1219" s="93">
         <v>1</v>
@@ -94037,10 +94041,10 @@
       </c>
       <c r="C1220" s="93"/>
       <c r="D1220" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1220" s="150" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F1220" s="93">
         <v>1</v>
@@ -94058,10 +94062,10 @@
       </c>
       <c r="C1221" s="93"/>
       <c r="D1221" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1221" s="150" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F1221" s="93">
         <v>1</v>
@@ -94079,10 +94083,10 @@
       </c>
       <c r="C1222" s="93"/>
       <c r="D1222" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1222" s="150" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F1222" s="93">
         <v>1</v>
@@ -94100,10 +94104,10 @@
       </c>
       <c r="C1223" s="93"/>
       <c r="D1223" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1223" s="150" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F1223" s="93">
         <v>1</v>
@@ -94121,10 +94125,10 @@
       </c>
       <c r="C1224" s="93"/>
       <c r="D1224" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1224" s="150" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F1224" s="93">
         <v>1</v>
@@ -94142,10 +94146,10 @@
       </c>
       <c r="C1225" s="213"/>
       <c r="D1225" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1225" s="215" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F1225" s="213">
         <v>1</v>
@@ -94163,10 +94167,10 @@
       </c>
       <c r="C1226" s="213"/>
       <c r="D1226" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1226" s="215" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F1226" s="213">
         <v>1</v>
@@ -94184,10 +94188,10 @@
       </c>
       <c r="C1227" s="213"/>
       <c r="D1227" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1227" s="215" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F1227" s="213">
         <v>1</v>
@@ -94205,10 +94209,10 @@
       </c>
       <c r="C1228" s="213"/>
       <c r="D1228" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1228" s="215" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1228" s="213">
         <v>1</v>
@@ -94226,10 +94230,10 @@
       </c>
       <c r="C1229" s="213"/>
       <c r="D1229" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1229" s="215" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F1229" s="213">
         <v>1</v>
@@ -94247,10 +94251,10 @@
       </c>
       <c r="C1230" s="213"/>
       <c r="D1230" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1230" s="215" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F1230" s="213">
         <v>1</v>
@@ -94268,10 +94272,10 @@
       </c>
       <c r="C1231" s="213"/>
       <c r="D1231" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1231" s="215" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F1231" s="213">
         <v>1</v>
@@ -94289,10 +94293,10 @@
       </c>
       <c r="C1232" s="93"/>
       <c r="D1232" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1232" s="150" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F1232" s="93">
         <v>1</v>
@@ -94310,10 +94314,10 @@
       </c>
       <c r="C1233" s="93"/>
       <c r="D1233" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1233" s="150" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1233" s="93">
         <v>1</v>
@@ -94331,10 +94335,10 @@
       </c>
       <c r="C1234" s="93"/>
       <c r="D1234" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1234" s="150" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F1234" s="93">
         <v>1</v>
@@ -94352,10 +94356,10 @@
       </c>
       <c r="C1235" s="93"/>
       <c r="D1235" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1235" s="150" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F1235" s="93">
         <v>1</v>
@@ -94373,10 +94377,10 @@
       </c>
       <c r="C1236" s="93"/>
       <c r="D1236" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1236" s="150" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F1236" s="93">
         <v>1</v>
@@ -94394,10 +94398,10 @@
       </c>
       <c r="C1237" s="93"/>
       <c r="D1237" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1237" s="150" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F1237" s="93">
         <v>1</v>
@@ -94415,10 +94419,10 @@
       </c>
       <c r="C1238" s="93"/>
       <c r="D1238" s="94" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1238" s="150" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F1238" s="93">
         <v>1</v>
@@ -94436,10 +94440,10 @@
       </c>
       <c r="C1239" s="213"/>
       <c r="D1239" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1239" s="215" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F1239" s="213">
         <v>1</v>
@@ -94457,10 +94461,10 @@
       </c>
       <c r="C1240" s="213"/>
       <c r="D1240" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1240" s="215" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F1240" s="213">
         <v>1</v>
@@ -94478,10 +94482,10 @@
       </c>
       <c r="C1241" s="213"/>
       <c r="D1241" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1241" s="215" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F1241" s="213">
         <v>1</v>
@@ -94499,10 +94503,10 @@
       </c>
       <c r="C1242" s="213"/>
       <c r="D1242" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1242" s="215" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F1242" s="213">
         <v>1</v>
@@ -94520,10 +94524,10 @@
       </c>
       <c r="C1243" s="213"/>
       <c r="D1243" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1243" s="215" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F1243" s="213">
         <v>1</v>
@@ -94541,10 +94545,10 @@
       </c>
       <c r="C1244" s="213"/>
       <c r="D1244" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1244" s="215" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F1244" s="213">
         <v>1</v>
@@ -94562,10 +94566,10 @@
       </c>
       <c r="C1245" s="213"/>
       <c r="D1245" s="214" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E1245" s="215" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F1245" s="213">
         <v>1</v>
@@ -94583,10 +94587,10 @@
       </c>
       <c r="C1246" s="139"/>
       <c r="D1246" s="143" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E1246" s="144" t="s">
         <v>2116</v>
-      </c>
-      <c r="E1246" s="144" t="s">
-        <v>2117</v>
       </c>
       <c r="F1246" s="139">
         <v>1</v>
@@ -94604,10 +94608,10 @@
       </c>
       <c r="C1247" s="139"/>
       <c r="D1247" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1247" s="144" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F1247" s="139">
         <v>1</v>
@@ -94625,10 +94629,10 @@
       </c>
       <c r="C1248" s="139"/>
       <c r="D1248" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1248" s="144" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="F1248" s="139">
         <v>1</v>
@@ -94646,10 +94650,10 @@
       </c>
       <c r="C1249" s="139"/>
       <c r="D1249" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1249" s="144" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F1249" s="139">
         <v>1</v>
@@ -94667,10 +94671,10 @@
       </c>
       <c r="C1250" s="139"/>
       <c r="D1250" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1250" s="144" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="F1250" s="139">
         <v>1</v>
@@ -94688,10 +94692,10 @@
       </c>
       <c r="C1251" s="139"/>
       <c r="D1251" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1251" s="144" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F1251" s="139">
         <v>1</v>
@@ -94709,10 +94713,10 @@
       </c>
       <c r="C1252" s="139"/>
       <c r="D1252" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1252" s="144" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="F1252" s="139">
         <v>1</v>
@@ -94730,10 +94734,10 @@
       </c>
       <c r="C1253" s="139"/>
       <c r="D1253" s="143" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E1253" s="144" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F1253" s="139">
         <v>1</v>
@@ -94750,10 +94754,10 @@
         <v>842</v>
       </c>
       <c r="D1254" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1254" s="64" t="s">
         <v>2138</v>
-      </c>
-      <c r="E1254" s="64" t="s">
-        <v>2139</v>
       </c>
       <c r="F1254" s="1">
         <v>1</v>
@@ -94879,7 +94883,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>848</v>

--- a/config_11.24/task_zajindan_server.xlsx
+++ b/config_11.24/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="2141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="2146">
   <si>
     <t>id|任务id</t>
   </si>
@@ -10875,10 +10875,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>lwzb_game_award</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>p_xyxyj_cps</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -13654,6 +13650,30 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>chang_wan_ka_children_special_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金1000万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在龙王争霸中累计赢金8000万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>582</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13775,7 +13795,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13962,6 +13982,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -14004,7 +14030,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -14663,6 +14689,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -14947,13 +14992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T527"/>
+  <dimension ref="A1:T529"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E512" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E504" sqref="E504"/>
+      <selection pane="bottomRight" activeCell="D529" sqref="D529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -30047,7 +30092,7 @@
         <v>1300</v>
       </c>
       <c r="E388" s="97" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F388" s="97" t="s">
         <v>1246</v>
@@ -33087,7 +33132,7 @@
         <v>1662</v>
       </c>
       <c r="E468" s="16" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="F468" s="16" t="s">
         <v>1649</v>
@@ -33353,7 +33398,7 @@
         <v>1723</v>
       </c>
       <c r="E475" s="48" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="F475" s="48" t="s">
         <v>1713</v>
@@ -33394,7 +33439,7 @@
         <v>1500</v>
       </c>
       <c r="F476" s="48" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="G476" s="7">
         <v>21423</v>
@@ -33502,7 +33547,7 @@
         <v>1744</v>
       </c>
       <c r="D479" s="48" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E479" s="48" t="s">
         <v>1745</v>
@@ -33613,16 +33658,16 @@
         <v>1</v>
       </c>
       <c r="C482" s="130" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D482" s="129" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="E482" s="130" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F482" s="130" t="s">
         <v>2076</v>
-      </c>
-      <c r="F482" s="130" t="s">
-        <v>2077</v>
       </c>
       <c r="G482" s="129">
         <v>21429</v>
@@ -33651,13 +33696,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="138" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D483" s="138" t="s">
         <v>1820</v>
       </c>
-      <c r="D483" s="138" t="s">
-        <v>1821</v>
-      </c>
       <c r="E483" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F483" s="137" t="s">
         <v>13</v>
@@ -33689,13 +33734,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D484" s="138" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="E484" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F484" s="137" t="s">
         <v>13</v>
@@ -33727,13 +33772,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D485" s="138" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="E485" s="138" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="F485" s="137" t="s">
         <v>13</v>
@@ -33765,13 +33810,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D486" s="138" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E486" s="138" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F486" s="137" t="s">
         <v>13</v>
@@ -33803,13 +33848,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D487" s="138" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E487" s="138" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F487" s="137" t="s">
         <v>13</v>
@@ -33841,13 +33886,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D488" s="138" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E488" s="138" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F488" s="137" t="s">
         <v>13</v>
@@ -33879,13 +33924,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="138" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D489" s="138" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E489" s="138" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="F489" s="137" t="s">
         <v>13</v>
@@ -33917,16 +33962,16 @@
         <v>1</v>
       </c>
       <c r="C490" s="153" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E490" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F490" s="153" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G490" s="152">
         <v>21437</v>
@@ -33955,16 +34000,16 @@
         <v>1</v>
       </c>
       <c r="C491" s="153" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E491" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F491" s="153" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="G491" s="152">
         <v>21438</v>
@@ -33993,16 +34038,16 @@
         <v>1</v>
       </c>
       <c r="C492" s="153" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D492" s="156" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="E492" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F492" s="153" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G492" s="152">
         <v>21439</v>
@@ -34031,16 +34076,16 @@
         <v>1</v>
       </c>
       <c r="C493" s="153" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D493" s="156" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="E493" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F493" s="153" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G493" s="152">
         <v>21440</v>
@@ -34069,16 +34114,16 @@
         <v>1</v>
       </c>
       <c r="C494" s="153" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D494" s="155" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E494" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F494" s="153" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G494" s="152">
         <v>21441</v>
@@ -34107,16 +34152,16 @@
         <v>1</v>
       </c>
       <c r="C495" s="153" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D495" s="156" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E495" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F495" s="153" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G495" s="152">
         <v>21442</v>
@@ -34145,16 +34190,16 @@
         <v>1</v>
       </c>
       <c r="C496" s="153" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D496" s="156" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E496" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F496" s="153" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G496" s="152">
         <v>21443</v>
@@ -34183,16 +34228,16 @@
         <v>1</v>
       </c>
       <c r="C497" s="153" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E497" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F497" s="153" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="G497" s="152">
         <v>21444</v>
@@ -34221,16 +34266,16 @@
         <v>1</v>
       </c>
       <c r="C498" s="153" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D498" s="155" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E498" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F498" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G498" s="152">
         <v>21445</v>
@@ -34259,16 +34304,16 @@
         <v>1</v>
       </c>
       <c r="C499" s="153" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E499" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F499" s="153" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G499" s="152">
         <v>21446</v>
@@ -34297,16 +34342,16 @@
         <v>1</v>
       </c>
       <c r="C500" s="153" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="E500" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F500" s="153" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G500" s="152">
         <v>21447</v>
@@ -34335,16 +34380,16 @@
         <v>1</v>
       </c>
       <c r="C501" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D501" s="157" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="E501" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F501" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G501" s="152">
         <v>21448</v>
@@ -34373,16 +34418,16 @@
         <v>1</v>
       </c>
       <c r="C502" s="153" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D502" s="155" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E502" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F502" s="153" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G502" s="152">
         <v>21449</v>
@@ -34411,16 +34456,16 @@
         <v>1</v>
       </c>
       <c r="C503" s="153" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D503" s="155" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="E503" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F503" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G503" s="152">
         <v>21450</v>
@@ -34449,16 +34494,16 @@
         <v>1</v>
       </c>
       <c r="C504" s="153" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D504" s="155" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E504" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F504" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G504" s="152">
         <v>21451</v>
@@ -34487,16 +34532,16 @@
         <v>1</v>
       </c>
       <c r="C505" s="153" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D505" s="155" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E505" s="153" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F505" s="153" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="G505" s="152">
         <v>21452</v>
@@ -34525,16 +34570,16 @@
         <v>1</v>
       </c>
       <c r="C506" s="166" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D506" s="166" t="s">
         <v>1952</v>
       </c>
-      <c r="D506" s="166" t="s">
+      <c r="E506" s="153" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F506" s="166" t="s">
         <v>1953</v>
-      </c>
-      <c r="E506" s="153" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F506" s="166" t="s">
-        <v>1954</v>
       </c>
       <c r="G506" s="166">
         <v>21453</v>
@@ -34677,16 +34722,16 @@
         <v>1</v>
       </c>
       <c r="C510" s="191" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D510" s="192" t="s">
         <v>1999</v>
-      </c>
-      <c r="D510" s="192" t="s">
-        <v>2000</v>
       </c>
       <c r="E510" s="191" t="s">
         <v>1500</v>
       </c>
       <c r="F510" s="193" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G510" s="146">
         <v>21457</v>
@@ -34715,13 +34760,13 @@
         <v>1</v>
       </c>
       <c r="C511" s="194" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D511" s="195" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E511" s="196" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F511" s="178" t="s">
         <v>13</v>
@@ -34753,13 +34798,13 @@
         <v>1</v>
       </c>
       <c r="C512" s="194" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D512" s="195" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E512" s="196" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F512" s="178" t="s">
         <v>13</v>
@@ -34791,13 +34836,13 @@
         <v>1</v>
       </c>
       <c r="C513" s="194" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D513" s="195" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E513" s="196" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F513" s="178" t="s">
         <v>13</v>
@@ -34829,13 +34874,13 @@
         <v>1</v>
       </c>
       <c r="C514" s="194" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D514" s="195" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E514" s="196" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F514" s="178" t="s">
         <v>13</v>
@@ -34867,13 +34912,13 @@
         <v>1</v>
       </c>
       <c r="C515" s="194" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D515" s="195" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E515" s="196" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F515" s="178" t="s">
         <v>13</v>
@@ -34905,13 +34950,13 @@
         <v>1</v>
       </c>
       <c r="C516" s="194" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D516" s="195" t="s">
         <v>2006</v>
       </c>
-      <c r="D516" s="195" t="s">
-        <v>2007</v>
-      </c>
       <c r="E516" s="196" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F516" s="178" t="s">
         <v>13</v>
@@ -34943,16 +34988,16 @@
         <v>1</v>
       </c>
       <c r="C517" s="232" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D517" s="233" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E517" s="233" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F517" s="233" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G517" s="211">
         <v>21464</v>
@@ -34981,16 +35026,16 @@
         <v>1</v>
       </c>
       <c r="C518" s="232" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D518" s="233" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E518" s="233" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F518" s="233" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G518" s="233">
         <v>21465</v>
@@ -35019,13 +35064,13 @@
         <v>1</v>
       </c>
       <c r="C519" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D519" s="191" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E519" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D519" s="191" t="s">
-        <v>2103</v>
-      </c>
-      <c r="E519" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F519" s="191" t="s">
         <v>854</v>
@@ -35057,13 +35102,13 @@
         <v>1</v>
       </c>
       <c r="C520" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D520" s="191" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E520" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D520" s="191" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E520" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F520" s="191" t="s">
         <v>854</v>
@@ -35095,13 +35140,13 @@
         <v>1</v>
       </c>
       <c r="C521" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D521" s="191" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E521" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D521" s="191" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E521" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F521" s="191" t="s">
         <v>854</v>
@@ -35133,13 +35178,13 @@
         <v>1</v>
       </c>
       <c r="C522" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D522" s="191" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E522" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D522" s="191" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E522" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F522" s="191" t="s">
         <v>854</v>
@@ -35171,13 +35216,13 @@
         <v>1</v>
       </c>
       <c r="C523" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D523" s="191" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E523" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D523" s="191" t="s">
-        <v>2107</v>
-      </c>
-      <c r="E523" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F523" s="191" t="s">
         <v>854</v>
@@ -35209,13 +35254,13 @@
         <v>1</v>
       </c>
       <c r="C524" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D524" s="191" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E524" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D524" s="191" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E524" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F524" s="191" t="s">
         <v>854</v>
@@ -35247,13 +35292,13 @@
         <v>1</v>
       </c>
       <c r="C525" s="146" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D525" s="191" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E525" s="191" t="s">
         <v>2101</v>
-      </c>
-      <c r="D525" s="191" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E525" s="191" t="s">
-        <v>2102</v>
       </c>
       <c r="F525" s="191" t="s">
         <v>854</v>
@@ -35285,16 +35330,16 @@
         <v>1</v>
       </c>
       <c r="C526" s="146" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D526" s="191" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E526" s="191" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F526" s="191" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="G526" s="191">
         <v>21473</v>
@@ -35323,16 +35368,16 @@
         <v>1</v>
       </c>
       <c r="C527" s="236" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D527" s="236" t="s">
         <v>2127</v>
       </c>
-      <c r="D527" s="236" t="s">
-        <v>2128</v>
-      </c>
       <c r="E527" s="236" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F527" s="236" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="G527" s="146">
         <v>21474</v>
@@ -35350,6 +35395,82 @@
         <v>1606751999</v>
       </c>
       <c r="L527" s="146">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" s="96" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A528" s="96">
+        <v>1000117</v>
+      </c>
+      <c r="B528" s="96">
+        <v>1</v>
+      </c>
+      <c r="C528" s="97" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D528" s="97" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E528" s="99" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F528" s="97" t="s">
+        <v>854</v>
+      </c>
+      <c r="G528" s="96">
+        <v>21475</v>
+      </c>
+      <c r="H528" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I528" s="96">
+        <v>1</v>
+      </c>
+      <c r="J528" s="96">
+        <v>1592236800</v>
+      </c>
+      <c r="K528" s="96">
+        <v>32503651200</v>
+      </c>
+      <c r="L528" s="96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" s="96" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A529" s="96">
+        <v>1000118</v>
+      </c>
+      <c r="B529" s="96">
+        <v>1</v>
+      </c>
+      <c r="C529" s="97" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D529" s="97" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E529" s="99" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F529" s="97" t="s">
+        <v>854</v>
+      </c>
+      <c r="G529" s="96">
+        <v>21476</v>
+      </c>
+      <c r="H529" s="96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I529" s="96">
+        <v>1</v>
+      </c>
+      <c r="J529" s="96">
+        <v>1592236800</v>
+      </c>
+      <c r="K529" s="96">
+        <v>32503651200</v>
+      </c>
+      <c r="L529" s="96">
         <v>-1</v>
       </c>
     </row>
@@ -35364,13 +35485,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K527"/>
+  <dimension ref="A1:K529"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H527" sqref="H527"/>
+      <selection pane="bottomRight" activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -47123,11 +47244,11 @@
       </c>
       <c r="E463" s="10"/>
       <c r="F463" s="81" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G463" s="78"/>
       <c r="H463" s="111" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="I463" s="19" t="s">
         <v>1650</v>
@@ -47542,11 +47663,11 @@
       </c>
       <c r="E482" s="131"/>
       <c r="F482" s="135" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="G482" s="132"/>
       <c r="H482" s="136" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="I482" s="134" t="s">
         <v>1788</v>
@@ -47565,14 +47686,14 @@
       </c>
       <c r="E483" s="139"/>
       <c r="F483" s="145" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G483" s="140"/>
       <c r="H483" s="144" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I483" s="143" t="s">
         <v>1830</v>
-      </c>
-      <c r="I483" s="143" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="484" spans="1:9" s="142" customFormat="1">
@@ -47588,14 +47709,14 @@
       </c>
       <c r="E484" s="139"/>
       <c r="F484" s="145" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G484" s="140"/>
       <c r="H484" s="141" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I484" s="143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="485" spans="1:9" s="142" customFormat="1">
@@ -47611,14 +47732,14 @@
       </c>
       <c r="E485" s="139"/>
       <c r="F485" s="145" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G485" s="140"/>
       <c r="H485" s="144" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I485" s="143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="486" spans="1:9" s="142" customFormat="1">
@@ -47634,14 +47755,14 @@
       </c>
       <c r="E486" s="139"/>
       <c r="F486" s="145" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G486" s="140"/>
       <c r="H486" s="141" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I486" s="143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="487" spans="1:9" s="142" customFormat="1">
@@ -47657,14 +47778,14 @@
       </c>
       <c r="E487" s="139"/>
       <c r="F487" s="145" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G487" s="140"/>
       <c r="H487" s="144" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I487" s="143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="488" spans="1:9" s="142" customFormat="1">
@@ -47680,14 +47801,14 @@
       </c>
       <c r="E488" s="139"/>
       <c r="F488" s="145" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G488" s="140"/>
       <c r="H488" s="141" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I488" s="143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="489" spans="1:9" s="142" customFormat="1">
@@ -47703,14 +47824,14 @@
       </c>
       <c r="E489" s="139"/>
       <c r="F489" s="145" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G489" s="140"/>
       <c r="H489" s="144" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I489" s="143" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="490" spans="1:9" s="154" customFormat="1">
@@ -47726,16 +47847,16 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="160" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G490" s="158" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H490" s="161" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I490" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="491" spans="1:9" s="154" customFormat="1">
@@ -47751,14 +47872,14 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="160" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G491" s="158"/>
       <c r="H491" s="161" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I491" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="492" spans="1:9" s="154" customFormat="1">
@@ -47774,14 +47895,14 @@
       </c>
       <c r="E492" s="155"/>
       <c r="F492" s="160" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G492" s="158"/>
       <c r="H492" s="159">
         <v>747</v>
       </c>
       <c r="I492" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="493" spans="1:9" s="154" customFormat="1">
@@ -47797,14 +47918,14 @@
       </c>
       <c r="E493" s="155"/>
       <c r="F493" s="160" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G493" s="158"/>
       <c r="H493" s="159">
         <v>748</v>
       </c>
       <c r="I493" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="494" spans="1:9" s="154" customFormat="1">
@@ -47820,14 +47941,14 @@
       </c>
       <c r="E494" s="155"/>
       <c r="F494" s="160" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G494" s="158"/>
       <c r="H494" s="159">
         <v>749</v>
       </c>
       <c r="I494" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="495" spans="1:9" s="154" customFormat="1">
@@ -47843,14 +47964,14 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="160" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G495" s="158"/>
       <c r="H495" s="159">
         <v>750</v>
       </c>
       <c r="I495" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="496" spans="1:9" s="154" customFormat="1">
@@ -47866,14 +47987,14 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="160" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G496" s="158"/>
       <c r="H496" s="159">
         <v>751</v>
       </c>
       <c r="I496" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="497" spans="1:9" s="154" customFormat="1">
@@ -47889,14 +48010,14 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="160" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G497" s="158"/>
       <c r="H497" s="161" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="I497" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="498" spans="1:9" s="154" customFormat="1">
@@ -47912,14 +48033,14 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="160" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="G498" s="158"/>
       <c r="H498" s="159">
         <v>757</v>
       </c>
       <c r="I498" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="499" spans="1:9" s="154" customFormat="1">
@@ -47935,14 +48056,14 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="160" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G499" s="158"/>
       <c r="H499" s="161" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="I499" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="500" spans="1:9" s="154" customFormat="1">
@@ -47958,14 +48079,14 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="160" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G500" s="158"/>
       <c r="H500" s="161" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="I500" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="501" spans="1:9" s="154" customFormat="1">
@@ -47988,7 +48109,7 @@
         <v>767</v>
       </c>
       <c r="I501" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="502" spans="1:9" s="154" customFormat="1">
@@ -48011,7 +48132,7 @@
         <v>768</v>
       </c>
       <c r="I502" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="503" spans="1:9" s="154" customFormat="1">
@@ -48027,14 +48148,14 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="160" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G503" s="158"/>
       <c r="H503" s="159">
         <v>769</v>
       </c>
       <c r="I503" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="504" spans="1:9" s="154" customFormat="1">
@@ -48050,14 +48171,14 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="160" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G504" s="158"/>
       <c r="H504" s="159">
         <v>770</v>
       </c>
       <c r="I504" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="505" spans="1:9" s="154" customFormat="1">
@@ -48073,14 +48194,14 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="160" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G505" s="158"/>
       <c r="H505" s="159">
         <v>771</v>
       </c>
       <c r="I505" s="157" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="506" spans="1:9" s="169" customFormat="1">
@@ -48094,14 +48215,14 @@
       <c r="D506" s="167"/>
       <c r="E506" s="167"/>
       <c r="F506" s="170" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="G506" s="168"/>
       <c r="H506" s="172" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="I506" s="171" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="507" spans="1:9" s="189" customFormat="1">
@@ -48180,7 +48301,7 @@
       </c>
       <c r="E510" s="177"/>
       <c r="F510" s="197" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G510" s="198"/>
       <c r="H510" s="199"/>
@@ -48199,11 +48320,11 @@
       </c>
       <c r="E511" s="200"/>
       <c r="F511" s="204" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G511" s="201"/>
       <c r="H511" s="217" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="I511" s="200" t="s">
         <v>387</v>
@@ -48222,11 +48343,11 @@
       </c>
       <c r="E512" s="200"/>
       <c r="F512" s="204" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G512" s="201"/>
       <c r="H512" s="217" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="I512" s="200" t="s">
         <v>387</v>
@@ -48245,11 +48366,11 @@
       </c>
       <c r="E513" s="200"/>
       <c r="F513" s="204" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G513" s="201"/>
       <c r="H513" s="217" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="I513" s="200" t="s">
         <v>387</v>
@@ -48268,11 +48389,11 @@
       </c>
       <c r="E514" s="200"/>
       <c r="F514" s="204" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G514" s="201"/>
       <c r="H514" s="217" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="I514" s="200" t="s">
         <v>387</v>
@@ -48291,11 +48412,11 @@
       </c>
       <c r="E515" s="200"/>
       <c r="F515" s="204" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G515" s="201"/>
       <c r="H515" s="217" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="I515" s="200" t="s">
         <v>387</v>
@@ -48314,14 +48435,14 @@
       </c>
       <c r="E516" s="200"/>
       <c r="F516" s="204" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G516" s="201"/>
       <c r="H516" s="217" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="I516" s="205" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="517" spans="1:10" s="223" customFormat="1" ht="14.25" customHeight="1">
@@ -48337,11 +48458,11 @@
       </c>
       <c r="E517" s="220"/>
       <c r="F517" s="226" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G517" s="227"/>
       <c r="H517" s="228" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="I517" s="221" t="s">
         <v>387</v>
@@ -48360,11 +48481,11 @@
       </c>
       <c r="E518" s="220"/>
       <c r="F518" s="226" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G518" s="227"/>
       <c r="H518" s="228" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="I518" s="221" t="s">
         <v>387</v>
@@ -48383,7 +48504,7 @@
       </c>
       <c r="E519" s="213"/>
       <c r="F519" s="234" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G519" s="235"/>
       <c r="H519" s="213">
@@ -48409,7 +48530,7 @@
       </c>
       <c r="E520" s="213"/>
       <c r="F520" s="234" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G520" s="235"/>
       <c r="H520" s="213">
@@ -48435,7 +48556,7 @@
       </c>
       <c r="E521" s="213"/>
       <c r="F521" s="234" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G521" s="235"/>
       <c r="H521" s="213">
@@ -48461,7 +48582,7 @@
       </c>
       <c r="E522" s="213"/>
       <c r="F522" s="234" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G522" s="235"/>
       <c r="H522" s="213">
@@ -48487,7 +48608,7 @@
       </c>
       <c r="E523" s="213"/>
       <c r="F523" s="234" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G523" s="235"/>
       <c r="H523" s="212">
@@ -48513,7 +48634,7 @@
       </c>
       <c r="E524" s="213"/>
       <c r="F524" s="234" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G524" s="235"/>
       <c r="H524" s="213">
@@ -48539,7 +48660,7 @@
       </c>
       <c r="E525" s="213"/>
       <c r="F525" s="234" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G525" s="235"/>
       <c r="H525" s="213">
@@ -48565,14 +48686,14 @@
       </c>
       <c r="E526" s="213"/>
       <c r="F526" s="234" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G526" s="235"/>
       <c r="H526" s="213">
         <v>841</v>
       </c>
       <c r="I526" s="214" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="J526" s="216">
         <v>1</v>
@@ -48591,17 +48712,63 @@
       </c>
       <c r="E527" s="139"/>
       <c r="F527" s="145" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G527" s="140"/>
       <c r="H527" s="144" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="I527" s="143" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="J527" s="142">
         <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" s="244" customFormat="1">
+      <c r="A528" s="238">
+        <v>527</v>
+      </c>
+      <c r="B528" s="239">
+        <v>21475</v>
+      </c>
+      <c r="C528" s="238"/>
+      <c r="D528" s="238">
+        <v>515</v>
+      </c>
+      <c r="E528" s="238"/>
+      <c r="F528" s="240" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G528" s="241"/>
+      <c r="H528" s="242" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I528" s="243" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" s="244" customFormat="1">
+      <c r="A529" s="238">
+        <v>528</v>
+      </c>
+      <c r="B529" s="239">
+        <v>21476</v>
+      </c>
+      <c r="C529" s="238"/>
+      <c r="D529" s="238">
+        <v>516</v>
+      </c>
+      <c r="E529" s="238"/>
+      <c r="F529" s="240" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G529" s="241"/>
+      <c r="H529" s="242" t="s">
+        <v>2145</v>
+      </c>
+      <c r="I529" s="243" t="s">
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -48614,11 +48781,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I792"/>
+  <dimension ref="A1:I794"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L770" sqref="L770"/>
+      <pane ySplit="1" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A794" sqref="A794:XFD794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48641,7 +48808,7 @@
         <v>660</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>661</v>
@@ -58210,7 +58377,7 @@
         <v>459</v>
       </c>
       <c r="C660" s="19" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D660" s="10">
         <v>0</v>
@@ -58477,7 +58644,7 @@
         <v>471</v>
       </c>
       <c r="C679" s="19" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D679" s="12">
         <v>0</v>
@@ -58522,7 +58689,7 @@
         <v>474</v>
       </c>
       <c r="C682" s="143" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D682" s="139">
         <v>335</v>
@@ -58536,7 +58703,7 @@
         <v>475</v>
       </c>
       <c r="C683" s="139" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D683" s="139">
         <v>336</v>
@@ -58550,7 +58717,7 @@
         <v>476</v>
       </c>
       <c r="C684" s="143" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D684" s="139">
         <v>337</v>
@@ -58564,7 +58731,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -58592,7 +58759,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -58606,7 +58773,7 @@
         <v>480</v>
       </c>
       <c r="C688" s="143" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D688" s="139">
         <v>341</v>
@@ -58620,7 +58787,7 @@
         <v>481</v>
       </c>
       <c r="C689" s="157" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D689" s="152">
         <v>0</v>
@@ -58634,7 +58801,7 @@
         <v>482</v>
       </c>
       <c r="C690" s="157" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D690" s="152">
         <v>0</v>
@@ -58648,7 +58815,7 @@
         <v>483</v>
       </c>
       <c r="C691" s="155" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D691" s="152">
         <v>342</v>
@@ -58662,7 +58829,7 @@
         <v>484</v>
       </c>
       <c r="C692" s="157" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D692" s="152">
         <v>343</v>
@@ -58676,7 +58843,7 @@
         <v>485</v>
       </c>
       <c r="C693" s="155" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D693" s="152">
         <v>344</v>
@@ -58690,7 +58857,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D694" s="152">
         <v>345</v>
@@ -58704,7 +58871,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="155" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D695" s="152">
         <v>346</v>
@@ -58718,7 +58885,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="156" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -58732,7 +58899,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D697" s="152">
         <v>347</v>
@@ -58746,7 +58913,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D698" s="152">
         <v>348</v>
@@ -58760,7 +58927,7 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D699" s="152">
         <v>349</v>
@@ -58788,7 +58955,7 @@
         <v>493</v>
       </c>
       <c r="C701" s="157" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D701" s="152">
         <v>351</v>
@@ -58802,7 +58969,7 @@
         <v>494</v>
       </c>
       <c r="C702" s="155" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D702" s="152">
         <v>352</v>
@@ -58816,7 +58983,7 @@
         <v>495</v>
       </c>
       <c r="C703" s="155" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D703" s="152">
         <v>353</v>
@@ -58830,7 +58997,7 @@
         <v>496</v>
       </c>
       <c r="C704" s="157" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D704" s="152">
         <v>354</v>
@@ -58844,7 +59011,7 @@
         <v>497</v>
       </c>
       <c r="C705" s="177" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D705" s="177">
         <v>355</v>
@@ -58858,7 +59025,7 @@
         <v>498</v>
       </c>
       <c r="C706" s="205" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D706" s="200">
         <v>0</v>
@@ -58872,7 +59039,7 @@
         <v>498</v>
       </c>
       <c r="C707" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D707" s="200">
         <v>0</v>
@@ -58886,7 +59053,7 @@
         <v>498</v>
       </c>
       <c r="C708" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D708" s="225">
         <v>0</v>
@@ -58900,7 +59067,7 @@
         <v>498</v>
       </c>
       <c r="C709" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D709" s="200">
         <v>0</v>
@@ -58914,7 +59081,7 @@
         <v>498</v>
       </c>
       <c r="C710" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D710" s="200">
         <v>0</v>
@@ -58931,7 +59098,7 @@
         <v>498</v>
       </c>
       <c r="C711" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D711" s="203">
         <v>0</v>
@@ -58945,7 +59112,7 @@
         <v>498</v>
       </c>
       <c r="C712" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D712" s="203">
         <v>0</v>
@@ -58959,7 +59126,7 @@
         <v>498</v>
       </c>
       <c r="C713" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D713" s="203">
         <v>0</v>
@@ -58973,7 +59140,7 @@
         <v>498</v>
       </c>
       <c r="C714" s="205" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D714" s="203">
         <v>0</v>
@@ -58987,7 +59154,7 @@
         <v>499</v>
       </c>
       <c r="C715" s="208" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D715" s="206">
         <v>0</v>
@@ -59001,7 +59168,7 @@
         <v>499</v>
       </c>
       <c r="C716" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D716" s="209">
         <v>0</v>
@@ -59015,7 +59182,7 @@
         <v>499</v>
       </c>
       <c r="C717" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D717" s="209">
         <v>0</v>
@@ -59029,7 +59196,7 @@
         <v>499</v>
       </c>
       <c r="C718" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D718" s="209">
         <v>0</v>
@@ -59043,7 +59210,7 @@
         <v>499</v>
       </c>
       <c r="C719" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D719" s="209">
         <v>0</v>
@@ -59060,7 +59227,7 @@
         <v>499</v>
       </c>
       <c r="C720" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D720" s="206">
         <v>0</v>
@@ -59074,7 +59241,7 @@
         <v>499</v>
       </c>
       <c r="C721" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D721" s="206">
         <v>0</v>
@@ -59088,7 +59255,7 @@
         <v>499</v>
       </c>
       <c r="C722" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D722" s="206">
         <v>0</v>
@@ -59102,7 +59269,7 @@
         <v>499</v>
       </c>
       <c r="C723" s="208" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D723" s="206">
         <v>0</v>
@@ -59116,7 +59283,7 @@
         <v>500</v>
       </c>
       <c r="C724" s="205" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D724" s="200">
         <v>0</v>
@@ -59130,7 +59297,7 @@
         <v>500</v>
       </c>
       <c r="C725" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D725" s="200">
         <v>0</v>
@@ -59144,7 +59311,7 @@
         <v>500</v>
       </c>
       <c r="C726" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D726" s="200">
         <v>0</v>
@@ -59158,7 +59325,7 @@
         <v>500</v>
       </c>
       <c r="C727" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D727" s="200">
         <v>0</v>
@@ -59172,7 +59339,7 @@
         <v>500</v>
       </c>
       <c r="C728" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D728" s="200">
         <v>0</v>
@@ -59189,7 +59356,7 @@
         <v>500</v>
       </c>
       <c r="C729" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D729" s="200">
         <v>0</v>
@@ -59203,7 +59370,7 @@
         <v>500</v>
       </c>
       <c r="C730" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D730" s="200">
         <v>0</v>
@@ -59217,7 +59384,7 @@
         <v>500</v>
       </c>
       <c r="C731" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D731" s="200">
         <v>0</v>
@@ -59231,7 +59398,7 @@
         <v>500</v>
       </c>
       <c r="C732" s="205" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D732" s="200">
         <v>0</v>
@@ -59245,7 +59412,7 @@
         <v>501</v>
       </c>
       <c r="C733" s="208" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D733" s="206">
         <v>0</v>
@@ -59259,7 +59426,7 @@
         <v>501</v>
       </c>
       <c r="C734" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D734" s="206">
         <v>0</v>
@@ -59273,7 +59440,7 @@
         <v>501</v>
       </c>
       <c r="C735" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D735" s="206">
         <v>0</v>
@@ -59287,7 +59454,7 @@
         <v>501</v>
       </c>
       <c r="C736" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D736" s="206">
         <v>0</v>
@@ -59301,7 +59468,7 @@
         <v>501</v>
       </c>
       <c r="C737" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D737" s="206">
         <v>0</v>
@@ -59318,7 +59485,7 @@
         <v>501</v>
       </c>
       <c r="C738" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D738" s="206">
         <v>0</v>
@@ -59332,7 +59499,7 @@
         <v>501</v>
       </c>
       <c r="C739" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D739" s="206">
         <v>0</v>
@@ -59346,7 +59513,7 @@
         <v>501</v>
       </c>
       <c r="C740" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D740" s="206">
         <v>0</v>
@@ -59360,7 +59527,7 @@
         <v>501</v>
       </c>
       <c r="C741" s="208" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D741" s="206">
         <v>0</v>
@@ -59374,7 +59541,7 @@
         <v>502</v>
       </c>
       <c r="C742" s="205" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D742" s="200">
         <v>0</v>
@@ -59388,7 +59555,7 @@
         <v>502</v>
       </c>
       <c r="C743" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D743" s="200">
         <v>0</v>
@@ -59402,7 +59569,7 @@
         <v>502</v>
       </c>
       <c r="C744" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D744" s="200">
         <v>0</v>
@@ -59416,7 +59583,7 @@
         <v>502</v>
       </c>
       <c r="C745" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D745" s="200">
         <v>0</v>
@@ -59430,7 +59597,7 @@
         <v>502</v>
       </c>
       <c r="C746" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D746" s="200">
         <v>0</v>
@@ -59447,7 +59614,7 @@
         <v>502</v>
       </c>
       <c r="C747" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D747" s="200">
         <v>0</v>
@@ -59461,7 +59628,7 @@
         <v>502</v>
       </c>
       <c r="C748" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D748" s="200">
         <v>0</v>
@@ -59475,7 +59642,7 @@
         <v>502</v>
       </c>
       <c r="C749" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D749" s="200">
         <v>0</v>
@@ -59503,7 +59670,7 @@
         <v>503</v>
       </c>
       <c r="C751" s="208" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D751" s="206">
         <v>0</v>
@@ -59517,7 +59684,7 @@
         <v>503</v>
       </c>
       <c r="C752" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D752" s="206">
         <v>0</v>
@@ -59531,7 +59698,7 @@
         <v>503</v>
       </c>
       <c r="C753" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D753" s="206">
         <v>0</v>
@@ -59545,7 +59712,7 @@
         <v>503</v>
       </c>
       <c r="C754" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D754" s="206">
         <v>0</v>
@@ -59559,7 +59726,7 @@
         <v>503</v>
       </c>
       <c r="C755" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D755" s="206">
         <v>0</v>
@@ -59576,7 +59743,7 @@
         <v>503</v>
       </c>
       <c r="C756" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D756" s="206">
         <v>0</v>
@@ -59590,7 +59757,7 @@
         <v>503</v>
       </c>
       <c r="C757" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D757" s="206">
         <v>0</v>
@@ -59604,7 +59771,7 @@
         <v>503</v>
       </c>
       <c r="C758" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D758" s="206">
         <v>0</v>
@@ -59618,7 +59785,7 @@
         <v>503</v>
       </c>
       <c r="C759" s="208" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D759" s="206">
         <v>0</v>
@@ -59632,7 +59799,7 @@
         <v>504</v>
       </c>
       <c r="C760" s="205" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D760" s="200">
         <v>0</v>
@@ -59646,7 +59813,7 @@
         <v>504</v>
       </c>
       <c r="C761" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D761" s="200">
         <v>0</v>
@@ -59660,7 +59827,7 @@
         <v>504</v>
       </c>
       <c r="C762" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D762" s="200">
         <v>0</v>
@@ -59674,7 +59841,7 @@
         <v>504</v>
       </c>
       <c r="C763" s="205" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D763" s="200">
         <v>0</v>
@@ -59688,7 +59855,7 @@
         <v>504</v>
       </c>
       <c r="C764" s="205" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D764" s="200">
         <v>0</v>
@@ -59705,7 +59872,7 @@
         <v>504</v>
       </c>
       <c r="C765" s="205" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D765" s="200">
         <v>0</v>
@@ -59719,7 +59886,7 @@
         <v>504</v>
       </c>
       <c r="C766" s="205" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D766" s="200">
         <v>0</v>
@@ -59733,7 +59900,7 @@
         <v>504</v>
       </c>
       <c r="C767" s="205" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D767" s="200">
         <v>0</v>
@@ -59747,7 +59914,7 @@
         <v>504</v>
       </c>
       <c r="C768" s="205" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D768" s="200">
         <v>0</v>
@@ -59761,7 +59928,7 @@
         <v>505</v>
       </c>
       <c r="C769" s="208" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D769" s="206">
         <v>0</v>
@@ -59775,7 +59942,7 @@
         <v>505</v>
       </c>
       <c r="C770" s="208" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D770" s="206">
         <v>0</v>
@@ -59789,7 +59956,7 @@
         <v>505</v>
       </c>
       <c r="C771" s="208" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D771" s="206">
         <v>0</v>
@@ -59803,7 +59970,7 @@
         <v>505</v>
       </c>
       <c r="C772" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D772" s="206">
         <v>0</v>
@@ -59817,7 +59984,7 @@
         <v>505</v>
       </c>
       <c r="C773" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D773" s="206">
         <v>0</v>
@@ -59834,7 +60001,7 @@
         <v>505</v>
       </c>
       <c r="C774" s="208" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D774" s="206">
         <v>0</v>
@@ -59848,7 +60015,7 @@
         <v>505</v>
       </c>
       <c r="C775" s="208" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D775" s="206">
         <v>0</v>
@@ -59862,7 +60029,7 @@
         <v>505</v>
       </c>
       <c r="C776" s="208" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D776" s="206">
         <v>0</v>
@@ -59876,7 +60043,7 @@
         <v>505</v>
       </c>
       <c r="C777" s="208" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D777" s="206">
         <v>0</v>
@@ -59890,7 +60057,7 @@
         <v>506</v>
       </c>
       <c r="C778" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D778" s="230">
         <v>356</v>
@@ -59904,7 +60071,7 @@
         <v>507</v>
       </c>
       <c r="C779" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D779" s="230">
         <v>357</v>
@@ -59918,7 +60085,7 @@
         <v>508</v>
       </c>
       <c r="C780" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D780" s="230">
         <v>358</v>
@@ -59932,7 +60099,7 @@
         <v>509</v>
       </c>
       <c r="C781" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D781" s="230">
         <v>359</v>
@@ -59946,7 +60113,7 @@
         <v>510</v>
       </c>
       <c r="C782" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D782" s="230">
         <v>360</v>
@@ -59960,7 +60127,7 @@
         <v>511</v>
       </c>
       <c r="C783" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D783" s="230">
         <v>361</v>
@@ -59974,7 +60141,7 @@
         <v>512</v>
       </c>
       <c r="C784" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D784" s="230">
         <v>362</v>
@@ -59988,7 +60155,7 @@
         <v>513</v>
       </c>
       <c r="C785" s="190" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D785" s="230">
         <v>363</v>
@@ -60016,7 +60183,7 @@
         <v>514</v>
       </c>
       <c r="C787" s="143" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D787" s="236">
         <v>0</v>
@@ -60030,7 +60197,7 @@
         <v>514</v>
       </c>
       <c r="C788" s="143" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D788" s="236">
         <v>0</v>
@@ -60044,7 +60211,7 @@
         <v>514</v>
       </c>
       <c r="C789" s="143" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D789" s="236">
         <v>0</v>
@@ -60072,7 +60239,7 @@
         <v>514</v>
       </c>
       <c r="C791" s="143" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D791" s="236">
         <v>0</v>
@@ -60086,9 +60253,37 @@
         <v>514</v>
       </c>
       <c r="C792" s="143" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D792" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="A793" s="28">
+        <v>792</v>
+      </c>
+      <c r="B793" s="28">
+        <v>515</v>
+      </c>
+      <c r="C793" s="19" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D793" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="28">
+        <v>793</v>
+      </c>
+      <c r="B794" s="28">
+        <v>516</v>
+      </c>
+      <c r="C794" s="19" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D794" s="10">
         <v>0</v>
       </c>
     </row>
@@ -60105,7 +60300,7 @@
   <dimension ref="A1:M498"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C500" sqref="C500"/>
@@ -66831,7 +67026,7 @@
         <v>1328</v>
       </c>
       <c r="D359" s="150" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E359" s="93">
         <v>2</v>
@@ -67433,7 +67628,7 @@
         <v>1583</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -68474,10 +68669,10 @@
         <v>334</v>
       </c>
       <c r="C455" s="190" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D455" s="148" t="s">
         <v>1996</v>
-      </c>
-      <c r="D455" s="148" t="s">
-        <v>1997</v>
       </c>
       <c r="E455" s="147">
         <v>2</v>
@@ -68492,10 +68687,10 @@
         <v>335</v>
       </c>
       <c r="C456" s="143" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D456" s="144" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="E456" s="139">
         <v>3</v>
@@ -68510,10 +68705,10 @@
         <v>336</v>
       </c>
       <c r="C457" s="143" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D457" s="144" t="s">
         <v>1838</v>
-      </c>
-      <c r="D457" s="144" t="s">
-        <v>1839</v>
       </c>
       <c r="E457" s="139">
         <v>2</v>
@@ -68528,10 +68723,10 @@
         <v>337</v>
       </c>
       <c r="C458" s="143" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D458" s="144" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E458" s="139">
         <v>3</v>
@@ -68546,10 +68741,10 @@
         <v>338</v>
       </c>
       <c r="C459" s="143" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D459" s="144" t="s">
         <v>1844</v>
-      </c>
-      <c r="D459" s="144" t="s">
-        <v>1845</v>
       </c>
       <c r="E459" s="139">
         <v>2</v>
@@ -68564,10 +68759,10 @@
         <v>338</v>
       </c>
       <c r="C460" s="143" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D460" s="144" t="s">
         <v>1842</v>
-      </c>
-      <c r="D460" s="144" t="s">
-        <v>1843</v>
       </c>
       <c r="E460" s="139">
         <v>3</v>
@@ -68582,10 +68777,10 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D461" s="144" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E461" s="139">
         <v>3</v>
@@ -68600,10 +68795,10 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D462" s="144" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="E462" s="139">
         <v>3</v>
@@ -68618,10 +68813,10 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D463" s="144" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="E463" s="139">
         <v>3</v>
@@ -68636,10 +68831,10 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D464" s="144" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E464" s="139">
         <v>2</v>
@@ -68657,7 +68852,7 @@
         <v>730</v>
       </c>
       <c r="D465" s="161" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E465" s="155">
         <v>2</v>
@@ -68675,7 +68870,7 @@
         <v>730</v>
       </c>
       <c r="D466" s="161" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -68693,7 +68888,7 @@
         <v>730</v>
       </c>
       <c r="D467" s="161" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -68711,7 +68906,7 @@
         <v>730</v>
       </c>
       <c r="D468" s="161" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -68729,7 +68924,7 @@
         <v>730</v>
       </c>
       <c r="D469" s="161" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
@@ -68744,10 +68939,10 @@
         <v>347</v>
       </c>
       <c r="C470" s="157" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D470" s="161" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -68762,10 +68957,10 @@
         <v>348</v>
       </c>
       <c r="C471" s="157" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D471" s="159" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
@@ -68783,7 +68978,7 @@
         <v>1583</v>
       </c>
       <c r="D472" s="180" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E472" s="177">
         <v>2</v>
@@ -68801,7 +68996,7 @@
         <v>717</v>
       </c>
       <c r="D473" s="161" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E473" s="155">
         <v>3</v>
@@ -68816,10 +69011,10 @@
         <v>351</v>
       </c>
       <c r="C474" s="157" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D474" s="161" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E474" s="155">
         <v>3</v>
@@ -68834,10 +69029,10 @@
         <v>351</v>
       </c>
       <c r="C475" s="157" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D475" s="161" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E475" s="155">
         <v>3</v>
@@ -68855,7 +69050,7 @@
         <v>717</v>
       </c>
       <c r="D476" s="161" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E476" s="155">
         <v>3</v>
@@ -68870,10 +69065,10 @@
         <v>353</v>
       </c>
       <c r="C477" s="157" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D477" s="161" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E477" s="155">
         <v>3</v>
@@ -68888,10 +69083,10 @@
         <v>353</v>
       </c>
       <c r="C478" s="157" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D478" s="161" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E478" s="155">
         <v>3</v>
@@ -68909,7 +69104,7 @@
         <v>1418</v>
       </c>
       <c r="D479" s="161" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E479" s="155">
         <v>3</v>
@@ -68924,10 +69119,10 @@
         <v>355</v>
       </c>
       <c r="C480" s="179" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D480" s="180" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E480" s="177">
         <v>2</v>
@@ -68942,7 +69137,7 @@
         <v>356</v>
       </c>
       <c r="C481" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D481" s="146">
         <v>2</v>
@@ -68960,7 +69155,7 @@
         <v>357</v>
       </c>
       <c r="C482" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D482" s="146">
         <v>3</v>
@@ -68978,7 +69173,7 @@
         <v>358</v>
       </c>
       <c r="C483" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D483" s="146">
         <v>4</v>
@@ -68996,7 +69191,7 @@
         <v>359</v>
       </c>
       <c r="C484" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D484" s="146">
         <v>5</v>
@@ -69014,7 +69209,7 @@
         <v>360</v>
       </c>
       <c r="C485" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D485" s="146">
         <v>111</v>
@@ -69032,7 +69227,7 @@
         <v>361</v>
       </c>
       <c r="C486" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D486" s="146">
         <v>6</v>
@@ -69050,7 +69245,7 @@
         <v>362</v>
       </c>
       <c r="C487" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D487" s="146">
         <v>108</v>
@@ -69068,7 +69263,7 @@
         <v>363</v>
       </c>
       <c r="C488" s="192" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D488" s="146">
         <v>110</v>
@@ -69130,11 +69325,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C965" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C878" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E977" sqref="E977"/>
+      <selection pane="bottomRight" activeCell="A891" sqref="A891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -77389,7 +77584,7 @@
         <v>794</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -89267,7 +89462,7 @@
         <v>1653</v>
       </c>
       <c r="E977" s="82" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F977" s="28">
         <v>80</v>
@@ -89285,7 +89480,7 @@
         <v>1653</v>
       </c>
       <c r="E978" s="82" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F978" s="28">
         <v>15</v>
@@ -91519,7 +91714,7 @@
       </c>
       <c r="C1098" s="10"/>
       <c r="D1098" s="19" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E1098" s="10">
         <v>32500</v>
@@ -91662,7 +91857,7 @@
         <v>731</v>
       </c>
       <c r="D1106" s="14" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E1106" s="64" t="s">
         <v>1795</v>
@@ -91679,10 +91874,10 @@
         <v>732</v>
       </c>
       <c r="D1107" s="14" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E1107" s="64" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="F1107" s="1">
         <v>80</v>
@@ -91696,10 +91891,10 @@
         <v>732</v>
       </c>
       <c r="D1108" s="14" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="E1108" s="64" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="F1108" s="1">
         <v>15</v>
@@ -91713,10 +91908,10 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E1109" s="64" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F1109" s="1">
         <v>5</v>
@@ -91734,7 +91929,7 @@
         <v>772</v>
       </c>
       <c r="E1110" s="136" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="F1110" s="131">
         <v>1</v>
@@ -91755,7 +91950,7 @@
         <v>772</v>
       </c>
       <c r="E1111" s="136" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="F1111" s="131">
         <v>1</v>
@@ -91776,7 +91971,7 @@
         <v>772</v>
       </c>
       <c r="E1112" s="136" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F1112" s="131">
         <v>1</v>
@@ -91818,7 +92013,7 @@
         <v>876</v>
       </c>
       <c r="E1114" s="161" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -91836,10 +92031,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1115" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -91860,7 +92055,7 @@
         <v>876</v>
       </c>
       <c r="E1116" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -91878,10 +92073,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1117" s="161" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -91902,7 +92097,7 @@
         <v>876</v>
       </c>
       <c r="E1118" s="161" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -91920,10 +92115,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1119" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -91944,7 +92139,7 @@
         <v>876</v>
       </c>
       <c r="E1120" s="161" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -91962,10 +92157,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1121" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -91986,7 +92181,7 @@
         <v>876</v>
       </c>
       <c r="E1122" s="161" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -92004,10 +92199,10 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1123" s="161" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1123" s="155">
         <v>1</v>
@@ -92028,7 +92223,7 @@
         <v>876</v>
       </c>
       <c r="E1124" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -92046,10 +92241,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1125" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -92070,7 +92265,7 @@
         <v>876</v>
       </c>
       <c r="E1126" s="161" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -92088,10 +92283,10 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1127" s="161" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1127" s="155">
         <v>1</v>
@@ -92112,7 +92307,7 @@
         <v>876</v>
       </c>
       <c r="E1128" s="161" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -92130,10 +92325,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1129" s="161" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -92154,7 +92349,7 @@
         <v>876</v>
       </c>
       <c r="E1130" s="161" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -92172,10 +92367,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1131" s="161" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -92196,7 +92391,7 @@
         <v>876</v>
       </c>
       <c r="E1132" s="161" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -92214,10 +92409,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1133" s="161" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -92238,7 +92433,7 @@
         <v>876</v>
       </c>
       <c r="E1134" s="161" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -92256,10 +92451,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1135" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -92280,7 +92475,7 @@
         <v>876</v>
       </c>
       <c r="E1136" s="161" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -92298,10 +92493,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1137" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -92322,7 +92517,7 @@
         <v>876</v>
       </c>
       <c r="E1138" s="161" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -92340,10 +92535,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1139" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -92364,7 +92559,7 @@
         <v>876</v>
       </c>
       <c r="E1140" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -92382,10 +92577,10 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1141" s="161" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1141" s="155">
         <v>1</v>
@@ -92406,7 +92601,7 @@
         <v>876</v>
       </c>
       <c r="E1142" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -92424,10 +92619,10 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1143" s="161" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1143" s="155">
         <v>1</v>
@@ -92448,7 +92643,7 @@
         <v>876</v>
       </c>
       <c r="E1144" s="161" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -92466,10 +92661,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1145" s="161" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -92490,7 +92685,7 @@
         <v>876</v>
       </c>
       <c r="E1146" s="161" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -92508,10 +92703,10 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1147" s="161" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1147" s="155">
         <v>1</v>
@@ -92532,7 +92727,7 @@
         <v>876</v>
       </c>
       <c r="E1148" s="161" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -92550,10 +92745,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1149" s="161" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -92574,7 +92769,7 @@
         <v>876</v>
       </c>
       <c r="E1150" s="161" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -92592,10 +92787,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1151" s="161" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -92616,7 +92811,7 @@
         <v>876</v>
       </c>
       <c r="E1152" s="161" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -92634,10 +92829,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1153" s="161" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -92658,7 +92853,7 @@
         <v>876</v>
       </c>
       <c r="E1154" s="161" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -92676,10 +92871,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1155" s="161" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -92700,7 +92895,7 @@
         <v>876</v>
       </c>
       <c r="E1156" s="161" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -92718,10 +92913,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1157" s="161" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -92742,7 +92937,7 @@
         <v>876</v>
       </c>
       <c r="E1158" s="161" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -92760,10 +92955,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1159" s="161" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -92784,7 +92979,7 @@
         <v>876</v>
       </c>
       <c r="E1160" s="161" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -92802,10 +92997,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1161" s="161" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -92826,7 +93021,7 @@
         <v>876</v>
       </c>
       <c r="E1162" s="161" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -92844,10 +93039,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1163" s="161" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -92868,7 +93063,7 @@
         <v>876</v>
       </c>
       <c r="E1164" s="161" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -92886,10 +93081,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1165" s="161" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -92910,7 +93105,7 @@
         <v>876</v>
       </c>
       <c r="E1166" s="161" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -92928,10 +93123,10 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1167" s="161" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F1167" s="155">
         <v>1</v>
@@ -92952,7 +93147,7 @@
         <v>876</v>
       </c>
       <c r="E1168" s="161" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -92970,10 +93165,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1169" s="161" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -92994,7 +93189,7 @@
         <v>876</v>
       </c>
       <c r="E1170" s="161" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -93012,10 +93207,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1171" s="161" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -93036,7 +93231,7 @@
         <v>876</v>
       </c>
       <c r="E1172" s="161" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -93054,10 +93249,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1173" s="161" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -93078,7 +93273,7 @@
         <v>876</v>
       </c>
       <c r="E1174" s="161" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -93096,10 +93291,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1175" s="161" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -93120,7 +93315,7 @@
         <v>876</v>
       </c>
       <c r="E1176" s="161" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -93138,10 +93333,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1177" s="161" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -93162,7 +93357,7 @@
         <v>876</v>
       </c>
       <c r="E1178" s="161" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -93180,10 +93375,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1179" s="161" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -93204,7 +93399,7 @@
         <v>876</v>
       </c>
       <c r="E1180" s="161" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -93222,10 +93417,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1181" s="161" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -93243,10 +93438,10 @@
       </c>
       <c r="C1182" s="155"/>
       <c r="D1182" s="157" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E1182" s="161" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -93264,10 +93459,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1183" s="161" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -93285,10 +93480,10 @@
       </c>
       <c r="C1184" s="175"/>
       <c r="D1184" s="175" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="E1184" s="210" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F1184" s="175">
         <v>1</v>
@@ -93309,7 +93504,7 @@
         <v>876</v>
       </c>
       <c r="E1185" s="172" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="F1185" s="167">
         <v>1</v>
@@ -93330,7 +93525,7 @@
         <v>757</v>
       </c>
       <c r="E1186" s="172" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F1186" s="167">
         <v>1</v>
@@ -93351,7 +93546,7 @@
         <v>757</v>
       </c>
       <c r="E1187" s="172" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F1187" s="167">
         <v>1</v>
@@ -93372,7 +93567,7 @@
         <v>757</v>
       </c>
       <c r="E1188" s="172" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F1188" s="167">
         <v>1</v>
@@ -93390,10 +93585,10 @@
       </c>
       <c r="C1189" s="171"/>
       <c r="D1189" s="167" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1189" s="172" t="s">
         <v>1963</v>
-      </c>
-      <c r="E1189" s="172" t="s">
-        <v>1964</v>
       </c>
       <c r="F1189" s="167">
         <v>1</v>
@@ -93411,10 +93606,10 @@
       </c>
       <c r="C1190" s="93"/>
       <c r="D1190" s="94" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E1190" s="150" t="s">
         <v>2010</v>
-      </c>
-      <c r="E1190" s="150" t="s">
-        <v>2011</v>
       </c>
       <c r="F1190" s="93">
         <v>1</v>
@@ -93432,10 +93627,10 @@
       </c>
       <c r="C1191" s="93"/>
       <c r="D1191" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1191" s="150" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F1191" s="93">
         <v>1</v>
@@ -93453,10 +93648,10 @@
       </c>
       <c r="C1192" s="93"/>
       <c r="D1192" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1192" s="150" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F1192" s="93">
         <v>1</v>
@@ -93474,10 +93669,10 @@
       </c>
       <c r="C1193" s="93"/>
       <c r="D1193" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1193" s="150" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F1193" s="93">
         <v>1</v>
@@ -93495,10 +93690,10 @@
       </c>
       <c r="C1194" s="93"/>
       <c r="D1194" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1194" s="150" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F1194" s="93">
         <v>1</v>
@@ -93516,10 +93711,10 @@
       </c>
       <c r="C1195" s="93"/>
       <c r="D1195" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1195" s="150" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F1195" s="93">
         <v>1</v>
@@ -93537,10 +93732,10 @@
       </c>
       <c r="C1196" s="93"/>
       <c r="D1196" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1196" s="150" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F1196" s="93">
         <v>1</v>
@@ -93558,10 +93753,10 @@
       </c>
       <c r="C1197" s="213"/>
       <c r="D1197" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1197" s="215" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F1197" s="213">
         <v>1</v>
@@ -93579,10 +93774,10 @@
       </c>
       <c r="C1198" s="213"/>
       <c r="D1198" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1198" s="215" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F1198" s="213">
         <v>1</v>
@@ -93600,10 +93795,10 @@
       </c>
       <c r="C1199" s="213"/>
       <c r="D1199" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1199" s="215" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F1199" s="213">
         <v>1</v>
@@ -93621,10 +93816,10 @@
       </c>
       <c r="C1200" s="213"/>
       <c r="D1200" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1200" s="215" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F1200" s="213">
         <v>1</v>
@@ -93642,10 +93837,10 @@
       </c>
       <c r="C1201" s="213"/>
       <c r="D1201" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1201" s="215" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F1201" s="213">
         <v>1</v>
@@ -93663,10 +93858,10 @@
       </c>
       <c r="C1202" s="213"/>
       <c r="D1202" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1202" s="215" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1202" s="213">
         <v>1</v>
@@ -93684,10 +93879,10 @@
       </c>
       <c r="C1203" s="213"/>
       <c r="D1203" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1203" s="215" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F1203" s="213">
         <v>1</v>
@@ -93705,10 +93900,10 @@
       </c>
       <c r="C1204" s="93"/>
       <c r="D1204" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1204" s="150" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F1204" s="93">
         <v>1</v>
@@ -93726,10 +93921,10 @@
       </c>
       <c r="C1205" s="93"/>
       <c r="D1205" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1205" s="150" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F1205" s="93">
         <v>1</v>
@@ -93747,10 +93942,10 @@
       </c>
       <c r="C1206" s="93"/>
       <c r="D1206" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1206" s="150" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F1206" s="93">
         <v>1</v>
@@ -93768,10 +93963,10 @@
       </c>
       <c r="C1207" s="93"/>
       <c r="D1207" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1207" s="150" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1207" s="93">
         <v>1</v>
@@ -93789,10 +93984,10 @@
       </c>
       <c r="C1208" s="93"/>
       <c r="D1208" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1208" s="150" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F1208" s="93">
         <v>1</v>
@@ -93810,10 +94005,10 @@
       </c>
       <c r="C1209" s="93"/>
       <c r="D1209" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1209" s="150" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1209" s="93">
         <v>1</v>
@@ -93831,10 +94026,10 @@
       </c>
       <c r="C1210" s="93"/>
       <c r="D1210" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1210" s="150" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F1210" s="93">
         <v>1</v>
@@ -93852,10 +94047,10 @@
       </c>
       <c r="C1211" s="213"/>
       <c r="D1211" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1211" s="215" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="F1211" s="213">
         <v>1</v>
@@ -93873,10 +94068,10 @@
       </c>
       <c r="C1212" s="213"/>
       <c r="D1212" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1212" s="215" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F1212" s="213">
         <v>1</v>
@@ -93894,10 +94089,10 @@
       </c>
       <c r="C1213" s="213"/>
       <c r="D1213" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1213" s="215" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F1213" s="213">
         <v>1</v>
@@ -93915,10 +94110,10 @@
       </c>
       <c r="C1214" s="213"/>
       <c r="D1214" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1214" s="215" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1214" s="213">
         <v>1</v>
@@ -93936,10 +94131,10 @@
       </c>
       <c r="C1215" s="213"/>
       <c r="D1215" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1215" s="215" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F1215" s="213">
         <v>1</v>
@@ -93957,10 +94152,10 @@
       </c>
       <c r="C1216" s="213"/>
       <c r="D1216" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1216" s="215" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1216" s="213">
         <v>1</v>
@@ -93978,10 +94173,10 @@
       </c>
       <c r="C1217" s="213"/>
       <c r="D1217" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1217" s="215" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F1217" s="213">
         <v>1</v>
@@ -93999,10 +94194,10 @@
       </c>
       <c r="C1218" s="93"/>
       <c r="D1218" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1218" s="150" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F1218" s="93">
         <v>1</v>
@@ -94020,10 +94215,10 @@
       </c>
       <c r="C1219" s="93"/>
       <c r="D1219" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1219" s="150" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1219" s="93">
         <v>1</v>
@@ -94041,10 +94236,10 @@
       </c>
       <c r="C1220" s="93"/>
       <c r="D1220" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1220" s="150" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F1220" s="93">
         <v>1</v>
@@ -94062,10 +94257,10 @@
       </c>
       <c r="C1221" s="93"/>
       <c r="D1221" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1221" s="150" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="F1221" s="93">
         <v>1</v>
@@ -94083,10 +94278,10 @@
       </c>
       <c r="C1222" s="93"/>
       <c r="D1222" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1222" s="150" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F1222" s="93">
         <v>1</v>
@@ -94104,10 +94299,10 @@
       </c>
       <c r="C1223" s="93"/>
       <c r="D1223" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1223" s="150" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F1223" s="93">
         <v>1</v>
@@ -94125,10 +94320,10 @@
       </c>
       <c r="C1224" s="93"/>
       <c r="D1224" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1224" s="150" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F1224" s="93">
         <v>1</v>
@@ -94146,10 +94341,10 @@
       </c>
       <c r="C1225" s="213"/>
       <c r="D1225" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1225" s="215" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F1225" s="213">
         <v>1</v>
@@ -94167,10 +94362,10 @@
       </c>
       <c r="C1226" s="213"/>
       <c r="D1226" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1226" s="215" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F1226" s="213">
         <v>1</v>
@@ -94188,10 +94383,10 @@
       </c>
       <c r="C1227" s="213"/>
       <c r="D1227" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1227" s="215" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1227" s="213">
         <v>1</v>
@@ -94209,10 +94404,10 @@
       </c>
       <c r="C1228" s="213"/>
       <c r="D1228" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1228" s="215" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F1228" s="213">
         <v>1</v>
@@ -94230,10 +94425,10 @@
       </c>
       <c r="C1229" s="213"/>
       <c r="D1229" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1229" s="215" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="F1229" s="213">
         <v>1</v>
@@ -94251,10 +94446,10 @@
       </c>
       <c r="C1230" s="213"/>
       <c r="D1230" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1230" s="215" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F1230" s="213">
         <v>1</v>
@@ -94272,10 +94467,10 @@
       </c>
       <c r="C1231" s="213"/>
       <c r="D1231" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1231" s="215" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F1231" s="213">
         <v>1</v>
@@ -94293,10 +94488,10 @@
       </c>
       <c r="C1232" s="93"/>
       <c r="D1232" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1232" s="150" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F1232" s="93">
         <v>1</v>
@@ -94314,10 +94509,10 @@
       </c>
       <c r="C1233" s="93"/>
       <c r="D1233" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1233" s="150" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F1233" s="93">
         <v>1</v>
@@ -94335,10 +94530,10 @@
       </c>
       <c r="C1234" s="93"/>
       <c r="D1234" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1234" s="150" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F1234" s="93">
         <v>1</v>
@@ -94356,10 +94551,10 @@
       </c>
       <c r="C1235" s="93"/>
       <c r="D1235" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1235" s="150" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="F1235" s="93">
         <v>1</v>
@@ -94377,10 +94572,10 @@
       </c>
       <c r="C1236" s="93"/>
       <c r="D1236" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1236" s="150" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F1236" s="93">
         <v>1</v>
@@ -94398,10 +94593,10 @@
       </c>
       <c r="C1237" s="93"/>
       <c r="D1237" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1237" s="150" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="F1237" s="93">
         <v>1</v>
@@ -94419,10 +94614,10 @@
       </c>
       <c r="C1238" s="93"/>
       <c r="D1238" s="94" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1238" s="150" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F1238" s="93">
         <v>1</v>
@@ -94440,10 +94635,10 @@
       </c>
       <c r="C1239" s="213"/>
       <c r="D1239" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1239" s="215" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F1239" s="213">
         <v>1</v>
@@ -94461,10 +94656,10 @@
       </c>
       <c r="C1240" s="213"/>
       <c r="D1240" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1240" s="215" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F1240" s="213">
         <v>1</v>
@@ -94482,10 +94677,10 @@
       </c>
       <c r="C1241" s="213"/>
       <c r="D1241" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1241" s="215" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="F1241" s="213">
         <v>1</v>
@@ -94503,10 +94698,10 @@
       </c>
       <c r="C1242" s="213"/>
       <c r="D1242" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1242" s="215" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="F1242" s="213">
         <v>1</v>
@@ -94524,10 +94719,10 @@
       </c>
       <c r="C1243" s="213"/>
       <c r="D1243" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1243" s="215" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="F1243" s="213">
         <v>1</v>
@@ -94545,10 +94740,10 @@
       </c>
       <c r="C1244" s="213"/>
       <c r="D1244" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1244" s="215" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F1244" s="213">
         <v>1</v>
@@ -94566,10 +94761,10 @@
       </c>
       <c r="C1245" s="213"/>
       <c r="D1245" s="214" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E1245" s="215" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F1245" s="213">
         <v>1</v>
@@ -94587,10 +94782,10 @@
       </c>
       <c r="C1246" s="139"/>
       <c r="D1246" s="143" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E1246" s="144" t="s">
         <v>2115</v>
-      </c>
-      <c r="E1246" s="144" t="s">
-        <v>2116</v>
       </c>
       <c r="F1246" s="139">
         <v>1</v>
@@ -94608,10 +94803,10 @@
       </c>
       <c r="C1247" s="139"/>
       <c r="D1247" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1247" s="144" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="F1247" s="139">
         <v>1</v>
@@ -94629,10 +94824,10 @@
       </c>
       <c r="C1248" s="139"/>
       <c r="D1248" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1248" s="144" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F1248" s="139">
         <v>1</v>
@@ -94650,10 +94845,10 @@
       </c>
       <c r="C1249" s="139"/>
       <c r="D1249" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1249" s="144" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="F1249" s="139">
         <v>1</v>
@@ -94671,10 +94866,10 @@
       </c>
       <c r="C1250" s="139"/>
       <c r="D1250" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1250" s="144" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F1250" s="139">
         <v>1</v>
@@ -94692,10 +94887,10 @@
       </c>
       <c r="C1251" s="139"/>
       <c r="D1251" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1251" s="144" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="F1251" s="139">
         <v>1</v>
@@ -94713,10 +94908,10 @@
       </c>
       <c r="C1252" s="139"/>
       <c r="D1252" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1252" s="144" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F1252" s="139">
         <v>1</v>
@@ -94734,10 +94929,10 @@
       </c>
       <c r="C1253" s="139"/>
       <c r="D1253" s="143" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E1253" s="144" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="F1253" s="139">
         <v>1</v>
@@ -94754,10 +94949,10 @@
         <v>842</v>
       </c>
       <c r="D1254" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E1254" s="64" t="s">
         <v>2137</v>
-      </c>
-      <c r="E1254" s="64" t="s">
-        <v>2138</v>
       </c>
       <c r="F1254" s="1">
         <v>1</v>
@@ -94883,7 +95078,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>848</v>

--- a/config_11.24/task_zajindan_server.xlsx
+++ b/config_11.24/task_zajindan_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="2146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6952" uniqueCount="2151">
   <si>
     <t>id|任务id</t>
   </si>
@@ -13675,6 +13675,25 @@
   <si>
     <t>582</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14994,7 +15013,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T529"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -48781,11 +48800,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I794"/>
+  <dimension ref="A1:I802"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A794" sqref="A794:XFD794"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A757" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C785" sqref="C785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59146,17 +59165,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" s="207" customFormat="1">
+    <row r="715" spans="1:5" s="202" customFormat="1">
       <c r="A715" s="200">
         <v>714</v>
       </c>
-      <c r="B715" s="206">
-        <v>499</v>
-      </c>
-      <c r="C715" s="208" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D715" s="206">
+      <c r="B715" s="200">
+        <v>498</v>
+      </c>
+      <c r="C715" s="205" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D715" s="203">
         <v>0</v>
       </c>
     </row>
@@ -59168,9 +59187,9 @@
         <v>499</v>
       </c>
       <c r="C716" s="208" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D716" s="209">
+        <v>2063</v>
+      </c>
+      <c r="D716" s="206">
         <v>0</v>
       </c>
     </row>
@@ -59182,7 +59201,7 @@
         <v>499</v>
       </c>
       <c r="C717" s="208" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="D717" s="209">
         <v>0</v>
@@ -59196,7 +59215,7 @@
         <v>499</v>
       </c>
       <c r="C718" s="208" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="D718" s="209">
         <v>0</v>
@@ -59210,13 +59229,10 @@
         <v>499</v>
       </c>
       <c r="C719" s="208" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D719" s="209">
         <v>0</v>
-      </c>
-      <c r="E719" s="207">
-        <v>0.5</v>
       </c>
     </row>
     <row r="720" spans="1:5" s="207" customFormat="1">
@@ -59227,10 +59243,13 @@
         <v>499</v>
       </c>
       <c r="C720" s="208" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D720" s="206">
-        <v>0</v>
+        <v>2066</v>
+      </c>
+      <c r="D720" s="209">
+        <v>0</v>
+      </c>
+      <c r="E720" s="207">
+        <v>0.5</v>
       </c>
     </row>
     <row r="721" spans="1:5" s="207" customFormat="1">
@@ -59241,7 +59260,7 @@
         <v>499</v>
       </c>
       <c r="C721" s="208" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D721" s="206">
         <v>0</v>
@@ -59255,7 +59274,7 @@
         <v>499</v>
       </c>
       <c r="C722" s="208" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D722" s="206">
         <v>0</v>
@@ -59269,49 +59288,49 @@
         <v>499</v>
       </c>
       <c r="C723" s="208" t="s">
-        <v>2091</v>
+        <v>2067</v>
       </c>
       <c r="D723" s="206">
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" s="202" customFormat="1">
+    <row r="724" spans="1:5" s="207" customFormat="1">
       <c r="A724" s="200">
         <v>723</v>
       </c>
-      <c r="B724" s="200">
-        <v>500</v>
-      </c>
-      <c r="C724" s="205" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D724" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725" spans="1:5" s="202" customFormat="1">
-      <c r="A725" s="205">
+      <c r="B724" s="206">
+        <v>499</v>
+      </c>
+      <c r="C724" s="208" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D724" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" s="207" customFormat="1">
+      <c r="A725" s="200">
         <v>724</v>
       </c>
-      <c r="B725" s="200">
-        <v>500</v>
-      </c>
-      <c r="C725" s="205" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D725" s="200">
+      <c r="B725" s="206">
+        <v>499</v>
+      </c>
+      <c r="C725" s="208" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D725" s="206">
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:5" s="202" customFormat="1">
-      <c r="A726" s="200">
+      <c r="A726" s="205">
         <v>725</v>
       </c>
       <c r="B726" s="200">
         <v>500</v>
       </c>
       <c r="C726" s="205" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="D726" s="200">
         <v>0</v>
@@ -59325,7 +59344,7 @@
         <v>500</v>
       </c>
       <c r="C727" s="205" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D727" s="200">
         <v>0</v>
@@ -59339,13 +59358,10 @@
         <v>500</v>
       </c>
       <c r="C728" s="205" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="D728" s="200">
         <v>0</v>
-      </c>
-      <c r="E728" s="202">
-        <v>0.5</v>
       </c>
     </row>
     <row r="729" spans="1:5" s="202" customFormat="1">
@@ -59356,7 +59372,7 @@
         <v>500</v>
       </c>
       <c r="C729" s="205" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="D729" s="200">
         <v>0</v>
@@ -59370,10 +59386,13 @@
         <v>500</v>
       </c>
       <c r="C730" s="205" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D730" s="200">
         <v>0</v>
+      </c>
+      <c r="E730" s="202">
+        <v>0.5</v>
       </c>
     </row>
     <row r="731" spans="1:5" s="202" customFormat="1">
@@ -59384,7 +59403,7 @@
         <v>500</v>
       </c>
       <c r="C731" s="205" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="D731" s="200">
         <v>0</v>
@@ -59398,51 +59417,51 @@
         <v>500</v>
       </c>
       <c r="C732" s="205" t="s">
-        <v>2092</v>
+        <v>2069</v>
       </c>
       <c r="D732" s="200">
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" s="207" customFormat="1">
+    <row r="733" spans="1:5" s="202" customFormat="1">
       <c r="A733" s="200">
         <v>732</v>
       </c>
-      <c r="B733" s="206">
-        <v>501</v>
-      </c>
-      <c r="C733" s="208" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D733" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734" spans="1:5" s="207" customFormat="1">
-      <c r="A734" s="205">
+      <c r="B733" s="200">
+        <v>500</v>
+      </c>
+      <c r="C733" s="205" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D733" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" s="202" customFormat="1">
+      <c r="A734" s="200">
         <v>733</v>
       </c>
-      <c r="B734" s="206">
-        <v>501</v>
-      </c>
-      <c r="C734" s="208" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D734" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735" spans="1:5" s="207" customFormat="1">
-      <c r="A735" s="200">
+      <c r="B734" s="200">
+        <v>500</v>
+      </c>
+      <c r="C734" s="205" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D734" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" s="202" customFormat="1">
+      <c r="A735" s="205">
         <v>734</v>
       </c>
-      <c r="B735" s="206">
-        <v>501</v>
-      </c>
-      <c r="C735" s="208" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D735" s="206">
+      <c r="B735" s="200">
+        <v>500</v>
+      </c>
+      <c r="C735" s="205" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D735" s="200">
         <v>0</v>
       </c>
     </row>
@@ -59454,7 +59473,7 @@
         <v>501</v>
       </c>
       <c r="C736" s="208" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D736" s="206">
         <v>0</v>
@@ -59468,13 +59487,10 @@
         <v>501</v>
       </c>
       <c r="C737" s="208" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D737" s="206">
         <v>0</v>
-      </c>
-      <c r="E737" s="207">
-        <v>0.5</v>
       </c>
     </row>
     <row r="738" spans="1:5" s="207" customFormat="1">
@@ -59485,7 +59501,7 @@
         <v>501</v>
       </c>
       <c r="C738" s="208" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D738" s="206">
         <v>0</v>
@@ -59499,7 +59515,7 @@
         <v>501</v>
       </c>
       <c r="C739" s="208" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="D739" s="206">
         <v>0</v>
@@ -59513,10 +59529,13 @@
         <v>501</v>
       </c>
       <c r="C740" s="208" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D740" s="206">
         <v>0</v>
+      </c>
+      <c r="E740" s="207">
+        <v>0.5</v>
       </c>
     </row>
     <row r="741" spans="1:5" s="207" customFormat="1">
@@ -59527,65 +59546,65 @@
         <v>501</v>
       </c>
       <c r="C741" s="208" t="s">
-        <v>2093</v>
+        <v>2070</v>
       </c>
       <c r="D741" s="206">
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" s="202" customFormat="1">
-      <c r="A742" s="205">
+    <row r="742" spans="1:5" s="207" customFormat="1">
+      <c r="A742" s="200">
         <v>741</v>
       </c>
-      <c r="B742" s="200">
-        <v>502</v>
-      </c>
-      <c r="C742" s="205" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D742" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743" spans="1:5" s="202" customFormat="1">
+      <c r="B742" s="206">
+        <v>501</v>
+      </c>
+      <c r="C742" s="208" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D742" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" s="207" customFormat="1">
       <c r="A743" s="200">
         <v>742</v>
       </c>
-      <c r="B743" s="200">
-        <v>502</v>
-      </c>
-      <c r="C743" s="205" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D743" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744" spans="1:5" s="202" customFormat="1">
-      <c r="A744" s="200">
+      <c r="B743" s="206">
+        <v>501</v>
+      </c>
+      <c r="C743" s="208" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D743" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" s="207" customFormat="1">
+      <c r="A744" s="205">
         <v>743</v>
       </c>
-      <c r="B744" s="200">
-        <v>502</v>
-      </c>
-      <c r="C744" s="205" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D744" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745" spans="1:5" s="202" customFormat="1">
+      <c r="B744" s="206">
+        <v>501</v>
+      </c>
+      <c r="C744" s="208" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D744" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" s="207" customFormat="1">
       <c r="A745" s="200">
         <v>744</v>
       </c>
-      <c r="B745" s="200">
-        <v>502</v>
-      </c>
-      <c r="C745" s="205" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D745" s="200">
+      <c r="B745" s="206">
+        <v>501</v>
+      </c>
+      <c r="C745" s="208" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D745" s="206">
         <v>0</v>
       </c>
     </row>
@@ -59597,13 +59616,10 @@
         <v>502</v>
       </c>
       <c r="C746" s="205" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D746" s="200">
         <v>0</v>
-      </c>
-      <c r="E746" s="202">
-        <v>0.5</v>
       </c>
     </row>
     <row r="747" spans="1:5" s="202" customFormat="1">
@@ -59614,7 +59630,7 @@
         <v>502</v>
       </c>
       <c r="C747" s="205" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="D747" s="200">
         <v>0</v>
@@ -59628,7 +59644,7 @@
         <v>502</v>
       </c>
       <c r="C748" s="205" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D748" s="200">
         <v>0</v>
@@ -59642,7 +59658,7 @@
         <v>502</v>
       </c>
       <c r="C749" s="205" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D749" s="200">
         <v>0</v>
@@ -59656,83 +59672,83 @@
         <v>502</v>
       </c>
       <c r="C750" s="205" t="s">
-        <v>389</v>
+        <v>2066</v>
       </c>
       <c r="D750" s="200">
         <v>0</v>
       </c>
-    </row>
-    <row r="751" spans="1:5" s="207" customFormat="1">
-      <c r="A751" s="205">
+      <c r="E750" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" s="202" customFormat="1">
+      <c r="A751" s="200">
         <v>750</v>
       </c>
-      <c r="B751" s="206">
-        <v>503</v>
-      </c>
-      <c r="C751" s="208" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D751" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752" spans="1:5" s="207" customFormat="1">
+      <c r="B751" s="200">
+        <v>502</v>
+      </c>
+      <c r="C751" s="205" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D751" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" s="202" customFormat="1">
       <c r="A752" s="200">
         <v>751</v>
       </c>
-      <c r="B752" s="206">
-        <v>503</v>
-      </c>
-      <c r="C752" s="208" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D752" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753" spans="1:5" s="207" customFormat="1">
-      <c r="A753" s="200">
+      <c r="B752" s="200">
+        <v>502</v>
+      </c>
+      <c r="C752" s="205" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D752" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" s="202" customFormat="1">
+      <c r="A753" s="205">
         <v>752</v>
       </c>
-      <c r="B753" s="206">
-        <v>503</v>
-      </c>
-      <c r="C753" s="208" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D753" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754" spans="1:5" s="207" customFormat="1">
+      <c r="B753" s="200">
+        <v>502</v>
+      </c>
+      <c r="C753" s="205" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D753" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" s="202" customFormat="1">
       <c r="A754" s="200">
         <v>753</v>
       </c>
-      <c r="B754" s="206">
-        <v>503</v>
-      </c>
-      <c r="C754" s="208" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D754" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755" spans="1:5" s="207" customFormat="1">
+      <c r="B754" s="200">
+        <v>502</v>
+      </c>
+      <c r="C754" s="205" t="s">
+        <v>389</v>
+      </c>
+      <c r="D754" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" s="202" customFormat="1">
       <c r="A755" s="200">
         <v>754</v>
       </c>
-      <c r="B755" s="206">
-        <v>503</v>
-      </c>
-      <c r="C755" s="208" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D755" s="206">
-        <v>0</v>
-      </c>
-      <c r="E755" s="207">
-        <v>0.5</v>
+      <c r="B755" s="200">
+        <v>502</v>
+      </c>
+      <c r="C755" s="205" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D755" s="200">
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:5" s="207" customFormat="1">
@@ -59743,7 +59759,7 @@
         <v>503</v>
       </c>
       <c r="C756" s="208" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="D756" s="206">
         <v>0</v>
@@ -59757,13 +59773,13 @@
         <v>503</v>
       </c>
       <c r="C757" s="208" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D757" s="206">
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
+    <row r="758" spans="1:5" s="207" customFormat="1">
       <c r="A758" s="200">
         <v>757</v>
       </c>
@@ -59771,110 +59787,110 @@
         <v>503</v>
       </c>
       <c r="C758" s="208" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="D758" s="206">
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A759" s="205">
+    <row r="759" spans="1:5" s="207" customFormat="1">
+      <c r="A759" s="200">
         <v>758</v>
       </c>
       <c r="B759" s="206">
         <v>503</v>
       </c>
       <c r="C759" s="208" t="s">
-        <v>2094</v>
+        <v>2065</v>
       </c>
       <c r="D759" s="206">
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" s="202" customFormat="1">
+    <row r="760" spans="1:5" s="207" customFormat="1">
       <c r="A760" s="200">
         <v>759</v>
       </c>
-      <c r="B760" s="200">
-        <v>504</v>
-      </c>
-      <c r="C760" s="205" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D760" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761" spans="1:5" s="202" customFormat="1">
+      <c r="B760" s="206">
+        <v>503</v>
+      </c>
+      <c r="C760" s="208" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D760" s="206">
+        <v>0</v>
+      </c>
+      <c r="E760" s="207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" s="207" customFormat="1">
       <c r="A761" s="200">
         <v>760</v>
       </c>
-      <c r="B761" s="200">
-        <v>504</v>
-      </c>
-      <c r="C761" s="205" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D761" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762" spans="1:5" s="202" customFormat="1">
-      <c r="A762" s="200">
+      <c r="B761" s="206">
+        <v>503</v>
+      </c>
+      <c r="C761" s="208" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D761" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" s="207" customFormat="1">
+      <c r="A762" s="205">
         <v>761</v>
       </c>
-      <c r="B762" s="200">
-        <v>504</v>
-      </c>
-      <c r="C762" s="205" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D762" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:5" s="202" customFormat="1">
+      <c r="B762" s="206">
+        <v>503</v>
+      </c>
+      <c r="C762" s="208" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D762" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
       <c r="A763" s="200">
         <v>762</v>
       </c>
-      <c r="B763" s="200">
-        <v>504</v>
-      </c>
-      <c r="C763" s="205" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D763" s="200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764" spans="1:5" s="202" customFormat="1">
+      <c r="B763" s="206">
+        <v>503</v>
+      </c>
+      <c r="C763" s="208" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D763" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
       <c r="A764" s="200">
         <v>763</v>
       </c>
-      <c r="B764" s="200">
-        <v>504</v>
-      </c>
-      <c r="C764" s="205" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D764" s="200">
-        <v>0</v>
-      </c>
-      <c r="E764" s="202">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="765" spans="1:5" s="202" customFormat="1">
+      <c r="B764" s="206">
+        <v>503</v>
+      </c>
+      <c r="C764" s="208" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D764" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" s="207" customFormat="1" ht="13.5" customHeight="1">
       <c r="A765" s="200">
         <v>764</v>
       </c>
-      <c r="B765" s="200">
-        <v>504</v>
-      </c>
-      <c r="C765" s="205" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D765" s="200">
+      <c r="B765" s="206">
+        <v>503</v>
+      </c>
+      <c r="C765" s="208" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D765" s="206">
         <v>0</v>
       </c>
     </row>
@@ -59886,7 +59902,7 @@
         <v>504</v>
       </c>
       <c r="C766" s="205" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="D766" s="200">
         <v>0</v>
@@ -59900,136 +59916,136 @@
         <v>504</v>
       </c>
       <c r="C767" s="205" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D767" s="200">
         <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:5" s="202" customFormat="1">
-      <c r="A768" s="205">
+      <c r="A768" s="200">
         <v>767</v>
       </c>
       <c r="B768" s="200">
         <v>504</v>
       </c>
       <c r="C768" s="205" t="s">
-        <v>2094</v>
+        <v>2068</v>
       </c>
       <c r="D768" s="200">
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" s="207" customFormat="1">
+    <row r="769" spans="1:5" s="202" customFormat="1">
       <c r="A769" s="200">
         <v>768</v>
       </c>
-      <c r="B769" s="206">
-        <v>505</v>
-      </c>
-      <c r="C769" s="208" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D769" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770" spans="1:5" s="207" customFormat="1">
+      <c r="B769" s="200">
+        <v>504</v>
+      </c>
+      <c r="C769" s="205" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D769" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" s="202" customFormat="1">
       <c r="A770" s="200">
         <v>769</v>
       </c>
-      <c r="B770" s="206">
-        <v>505</v>
-      </c>
-      <c r="C770" s="208" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D770" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771" spans="1:5" s="207" customFormat="1">
-      <c r="A771" s="200">
+      <c r="B770" s="200">
+        <v>504</v>
+      </c>
+      <c r="C770" s="205" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D770" s="200">
+        <v>0</v>
+      </c>
+      <c r="E770" s="202">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" s="202" customFormat="1">
+      <c r="A771" s="205">
         <v>770</v>
       </c>
-      <c r="B771" s="206">
-        <v>505</v>
-      </c>
-      <c r="C771" s="208" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D771" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772" spans="1:5" s="207" customFormat="1">
+      <c r="B771" s="200">
+        <v>504</v>
+      </c>
+      <c r="C771" s="205" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D771" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" s="202" customFormat="1">
       <c r="A772" s="200">
         <v>771</v>
       </c>
-      <c r="B772" s="206">
-        <v>505</v>
-      </c>
-      <c r="C772" s="208" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D772" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773" spans="1:5" s="207" customFormat="1">
+      <c r="B772" s="200">
+        <v>504</v>
+      </c>
+      <c r="C772" s="205" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D772" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" s="202" customFormat="1">
       <c r="A773" s="200">
         <v>772</v>
       </c>
-      <c r="B773" s="206">
-        <v>505</v>
-      </c>
-      <c r="C773" s="208" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D773" s="206">
-        <v>0</v>
-      </c>
-      <c r="E773" s="207">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="774" spans="1:5" s="207" customFormat="1">
+      <c r="B773" s="200">
+        <v>504</v>
+      </c>
+      <c r="C773" s="205" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D773" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" s="202" customFormat="1">
       <c r="A774" s="200">
         <v>773</v>
       </c>
-      <c r="B774" s="206">
-        <v>505</v>
-      </c>
-      <c r="C774" s="208" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D774" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775" spans="1:5" s="207" customFormat="1">
+      <c r="B774" s="200">
+        <v>504</v>
+      </c>
+      <c r="C774" s="205" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D774" s="200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" s="202" customFormat="1">
       <c r="A775" s="200">
         <v>774</v>
       </c>
-      <c r="B775" s="206">
-        <v>505</v>
-      </c>
-      <c r="C775" s="208" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D775" s="206">
+      <c r="B775" s="200">
+        <v>504</v>
+      </c>
+      <c r="C775" s="205" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D775" s="200">
         <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:5" s="207" customFormat="1">
-      <c r="A776" s="205">
+      <c r="A776" s="200">
         <v>775</v>
       </c>
       <c r="B776" s="206">
         <v>505</v>
       </c>
       <c r="C776" s="208" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="D776" s="206">
         <v>0</v>
@@ -60043,247 +60059,362 @@
         <v>505</v>
       </c>
       <c r="C777" s="208" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D777" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" s="207" customFormat="1">
+      <c r="A778" s="200">
+        <v>777</v>
+      </c>
+      <c r="B778" s="206">
+        <v>505</v>
+      </c>
+      <c r="C778" s="208" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D778" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" s="207" customFormat="1">
+      <c r="A779" s="200">
+        <v>778</v>
+      </c>
+      <c r="B779" s="206">
+        <v>505</v>
+      </c>
+      <c r="C779" s="208" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D779" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" s="207" customFormat="1">
+      <c r="A780" s="205">
+        <v>779</v>
+      </c>
+      <c r="B780" s="206">
+        <v>505</v>
+      </c>
+      <c r="C780" s="208" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D780" s="206">
+        <v>0</v>
+      </c>
+      <c r="E780" s="207">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" s="207" customFormat="1">
+      <c r="A781" s="200">
+        <v>780</v>
+      </c>
+      <c r="B781" s="206">
+        <v>505</v>
+      </c>
+      <c r="C781" s="208" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D781" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" s="207" customFormat="1">
+      <c r="A782" s="200">
+        <v>781</v>
+      </c>
+      <c r="B782" s="206">
+        <v>505</v>
+      </c>
+      <c r="C782" s="208" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D782" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" s="207" customFormat="1">
+      <c r="A783" s="200">
+        <v>782</v>
+      </c>
+      <c r="B783" s="206">
+        <v>505</v>
+      </c>
+      <c r="C783" s="208" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D783" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" s="207" customFormat="1">
+      <c r="A784" s="200">
+        <v>783</v>
+      </c>
+      <c r="B784" s="206">
+        <v>505</v>
+      </c>
+      <c r="C784" s="208" t="s">
         <v>2094</v>
       </c>
-      <c r="D777" s="206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778" spans="1:5" s="149" customFormat="1">
-      <c r="A778" s="147">
-        <v>777</v>
-      </c>
-      <c r="B778" s="147">
+      <c r="D784" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" s="207" customFormat="1">
+      <c r="A785" s="200">
+        <v>784</v>
+      </c>
+      <c r="B785" s="206">
+        <v>505</v>
+      </c>
+      <c r="C785" s="208" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D785" s="206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" s="149" customFormat="1">
+      <c r="A786" s="200">
+        <v>785</v>
+      </c>
+      <c r="B786" s="147">
         <v>506</v>
       </c>
-      <c r="C778" s="190" t="s">
+      <c r="C786" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D778" s="230">
+      <c r="D786" s="230">
         <v>356</v>
       </c>
     </row>
-    <row r="779" spans="1:5" s="149" customFormat="1">
-      <c r="A779" s="190">
-        <v>778</v>
-      </c>
-      <c r="B779" s="147">
+    <row r="787" spans="1:4" s="149" customFormat="1">
+      <c r="A787" s="200">
+        <v>786</v>
+      </c>
+      <c r="B787" s="147">
         <v>507</v>
       </c>
-      <c r="C779" s="190" t="s">
+      <c r="C787" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D779" s="230">
+      <c r="D787" s="230">
         <v>357</v>
       </c>
     </row>
-    <row r="780" spans="1:5" s="149" customFormat="1">
-      <c r="A780" s="147">
-        <v>779</v>
-      </c>
-      <c r="B780" s="147">
+    <row r="788" spans="1:4" s="149" customFormat="1">
+      <c r="A788" s="200">
+        <v>787</v>
+      </c>
+      <c r="B788" s="147">
         <v>508</v>
       </c>
-      <c r="C780" s="190" t="s">
+      <c r="C788" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D780" s="230">
+      <c r="D788" s="230">
         <v>358</v>
       </c>
     </row>
-    <row r="781" spans="1:5" s="149" customFormat="1">
-      <c r="A781" s="147">
-        <v>780</v>
-      </c>
-      <c r="B781" s="147">
+    <row r="789" spans="1:4" s="149" customFormat="1">
+      <c r="A789" s="205">
+        <v>788</v>
+      </c>
+      <c r="B789" s="147">
         <v>509</v>
       </c>
-      <c r="C781" s="190" t="s">
+      <c r="C789" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D781" s="230">
+      <c r="D789" s="230">
         <v>359</v>
       </c>
     </row>
-    <row r="782" spans="1:5" s="149" customFormat="1">
-      <c r="A782" s="190">
-        <v>781</v>
-      </c>
-      <c r="B782" s="147">
+    <row r="790" spans="1:4" s="149" customFormat="1">
+      <c r="A790" s="200">
+        <v>789</v>
+      </c>
+      <c r="B790" s="147">
         <v>510</v>
       </c>
-      <c r="C782" s="190" t="s">
+      <c r="C790" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D782" s="230">
+      <c r="D790" s="230">
         <v>360</v>
       </c>
     </row>
-    <row r="783" spans="1:5" s="149" customFormat="1">
-      <c r="A783" s="147">
-        <v>782</v>
-      </c>
-      <c r="B783" s="147">
+    <row r="791" spans="1:4" s="149" customFormat="1">
+      <c r="A791" s="200">
+        <v>790</v>
+      </c>
+      <c r="B791" s="147">
         <v>511</v>
       </c>
-      <c r="C783" s="190" t="s">
+      <c r="C791" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D783" s="230">
+      <c r="D791" s="230">
         <v>361</v>
       </c>
     </row>
-    <row r="784" spans="1:5" s="149" customFormat="1">
-      <c r="A784" s="147">
-        <v>783</v>
-      </c>
-      <c r="B784" s="147">
+    <row r="792" spans="1:4" s="149" customFormat="1">
+      <c r="A792" s="200">
+        <v>791</v>
+      </c>
+      <c r="B792" s="147">
         <v>512</v>
       </c>
-      <c r="C784" s="190" t="s">
+      <c r="C792" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D784" s="230">
+      <c r="D792" s="230">
         <v>362</v>
       </c>
     </row>
-    <row r="785" spans="1:4" s="149" customFormat="1">
-      <c r="A785" s="190">
-        <v>784</v>
-      </c>
-      <c r="B785" s="147">
+    <row r="793" spans="1:4" s="149" customFormat="1">
+      <c r="A793" s="200">
+        <v>792</v>
+      </c>
+      <c r="B793" s="147">
         <v>513</v>
       </c>
-      <c r="C785" s="190" t="s">
+      <c r="C793" s="190" t="s">
         <v>2123</v>
       </c>
-      <c r="D785" s="230">
+      <c r="D793" s="230">
         <v>363</v>
       </c>
     </row>
-    <row r="786" spans="1:4" s="142" customFormat="1">
-      <c r="A786" s="139">
-        <v>785</v>
-      </c>
-      <c r="B786" s="139">
+    <row r="794" spans="1:4" s="142" customFormat="1">
+      <c r="A794" s="200">
+        <v>793</v>
+      </c>
+      <c r="B794" s="139">
         <v>514</v>
       </c>
-      <c r="C786" s="143" t="s">
+      <c r="C794" s="143" t="s">
         <v>1468</v>
       </c>
-      <c r="D786" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787" spans="1:4" s="142" customFormat="1">
-      <c r="A787" s="143">
-        <v>786</v>
-      </c>
-      <c r="B787" s="139">
+      <c r="D794" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" s="142" customFormat="1">
+      <c r="A795" s="200">
+        <v>794</v>
+      </c>
+      <c r="B795" s="139">
         <v>514</v>
       </c>
-      <c r="C787" s="143" t="s">
+      <c r="C795" s="143" t="s">
         <v>2064</v>
       </c>
-      <c r="D787" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="1:4" s="142" customFormat="1">
-      <c r="A788" s="139">
-        <v>787</v>
-      </c>
-      <c r="B788" s="139">
+      <c r="D795" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" s="142" customFormat="1">
+      <c r="A796" s="200">
+        <v>795</v>
+      </c>
+      <c r="B796" s="139">
         <v>514</v>
       </c>
-      <c r="C788" s="143" t="s">
+      <c r="C796" s="143" t="s">
         <v>2068</v>
       </c>
-      <c r="D788" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789" spans="1:4" s="142" customFormat="1">
-      <c r="A789" s="139">
-        <v>788</v>
-      </c>
-      <c r="B789" s="139">
+      <c r="D796" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" s="142" customFormat="1">
+      <c r="A797" s="200">
+        <v>796</v>
+      </c>
+      <c r="B797" s="139">
         <v>514</v>
       </c>
-      <c r="C789" s="143" t="s">
+      <c r="C797" s="143" t="s">
         <v>2065</v>
       </c>
-      <c r="D789" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790" spans="1:4" s="142" customFormat="1">
-      <c r="A790" s="143">
-        <v>789</v>
-      </c>
-      <c r="B790" s="139">
+      <c r="D797" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" s="142" customFormat="1">
+      <c r="A798" s="205">
+        <v>797</v>
+      </c>
+      <c r="B798" s="139">
         <v>514</v>
       </c>
-      <c r="C790" s="143" t="s">
+      <c r="C798" s="143" t="s">
         <v>1575</v>
       </c>
-      <c r="D790" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="1:4" s="142" customFormat="1">
-      <c r="A791" s="139">
-        <v>790</v>
-      </c>
-      <c r="B791" s="139">
+      <c r="D798" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" s="142" customFormat="1">
+      <c r="A799" s="200">
+        <v>798</v>
+      </c>
+      <c r="B799" s="139">
         <v>514</v>
       </c>
-      <c r="C791" s="143" t="s">
+      <c r="C799" s="143" t="s">
         <v>2070</v>
       </c>
-      <c r="D791" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792" spans="1:4" s="142" customFormat="1">
-      <c r="A792" s="143">
-        <v>791</v>
-      </c>
-      <c r="B792" s="139">
+      <c r="D799" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" s="142" customFormat="1">
+      <c r="A800" s="200">
+        <v>799</v>
+      </c>
+      <c r="B800" s="139">
         <v>514</v>
       </c>
-      <c r="C792" s="143" t="s">
+      <c r="C800" s="143" t="s">
         <v>2069</v>
       </c>
-      <c r="D792" s="236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793" spans="1:4">
-      <c r="A793" s="28">
-        <v>792</v>
-      </c>
-      <c r="B793" s="28">
+      <c r="D800" s="236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4">
+      <c r="A801" s="200">
+        <v>800</v>
+      </c>
+      <c r="B801" s="28">
         <v>515</v>
       </c>
-      <c r="C793" s="19" t="s">
+      <c r="C801" s="19" t="s">
         <v>1800</v>
       </c>
-      <c r="D793" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794" spans="1:4">
-      <c r="A794" s="28">
-        <v>793</v>
-      </c>
-      <c r="B794" s="28">
+      <c r="D801" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4">
+      <c r="A802" s="200">
+        <v>801</v>
+      </c>
+      <c r="B802" s="28">
         <v>516</v>
       </c>
-      <c r="C794" s="19" t="s">
+      <c r="C802" s="19" t="s">
         <v>1800</v>
       </c>
-      <c r="D794" s="10">
+      <c r="D802" s="10">
         <v>0</v>
       </c>
     </row>
